--- a/backend/django_subject_manager/input/szombathely.xlsx
+++ b/backend/django_subject_manager/input/szombathely.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\D\Andrasjó\tantervi hálók 2009-2010\tantervi hálók 2016\új mintatantervek\2024 január\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1D6B3D71-4798-4F40-845A-70D153EEA9AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="8_{1D6B3D71-4798-4F40-845A-70D153EEA9AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F2DEDF7B-F098-45EA-9236-793243AE18D0}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13290" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,6 +21,9 @@
   </definedNames>
   <calcPr calcId="191028"/>
   <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+      <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
@@ -29,6 +32,7 @@
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
         <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -39,950 +43,6 @@
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="727" uniqueCount="312">
   <si>
     <t>Programtervező informatikus BSc 2022,  Szoftvermérnök (D) specializáció ajánlott tantervi háló</t>
-  </si>
-  <si>
-    <t>Törzsanyag</t>
-  </si>
-  <si>
-    <t>Kód</t>
-  </si>
-  <si>
-    <t>Tanegység</t>
-  </si>
-  <si>
-    <t>Előadás</t>
-  </si>
-  <si>
-    <t>Gyakorlat</t>
-  </si>
-  <si>
-    <t>Labor</t>
-  </si>
-  <si>
-    <t>Konzultáció</t>
-  </si>
-  <si>
-    <t>Számonkérés</t>
-  </si>
-  <si>
-    <t>Kredit</t>
-  </si>
-  <si>
-    <t>Ajánlott félév</t>
-  </si>
-  <si>
-    <t>Előfeltétel(ek)</t>
-  </si>
-  <si>
-    <t>1. félév</t>
-  </si>
-  <si>
-    <t>2. félév</t>
-  </si>
-  <si>
-    <t>3. félév</t>
-  </si>
-  <si>
-    <t>4. félév</t>
-  </si>
-  <si>
-    <t>5. félév</t>
-  </si>
-  <si>
-    <t>6. félév</t>
-  </si>
-  <si>
-    <t>Ismeretkör</t>
-  </si>
-  <si>
-    <t>IKSEK-22SZGREG</t>
-  </si>
-  <si>
-    <t>Számítógépes rendszerek</t>
-  </si>
-  <si>
-    <t>XFG</t>
-  </si>
-  <si>
-    <t>2+0+2+1</t>
-  </si>
-  <si>
-    <t>Inf.</t>
-  </si>
-  <si>
-    <t>IKSEK-22PROGEG</t>
-  </si>
-  <si>
-    <t>Programozás</t>
-  </si>
-  <si>
-    <t>2+0+3+1</t>
-  </si>
-  <si>
-    <t>IKSEK-22IMPROGEG</t>
-  </si>
-  <si>
-    <t>Imperatív programozás</t>
-  </si>
-  <si>
-    <t>2+0+3+0</t>
-  </si>
-  <si>
-    <t>IKSEK-22FUNPEG</t>
-  </si>
-  <si>
-    <t>Funkcionális programozás</t>
-  </si>
-  <si>
-    <t>XK</t>
-  </si>
-  <si>
-    <t>IKSEK-22MATAG</t>
-  </si>
-  <si>
-    <t>Matematikai alapok</t>
-  </si>
-  <si>
-    <t>FG</t>
-  </si>
-  <si>
-    <t>0+4+0+0</t>
-  </si>
-  <si>
-    <t>Mat</t>
-  </si>
-  <si>
-    <t>IKSEK-22TMKG</t>
-  </si>
-  <si>
-    <t>Egyetemi alapozó és tanulásmódszertani kurzus</t>
-  </si>
-  <si>
-    <t>G</t>
-  </si>
-  <si>
-    <t>0+1+0+1</t>
-  </si>
-  <si>
-    <t>Egyéb</t>
-  </si>
-  <si>
-    <t>IKSEK-22IVM1EG</t>
-  </si>
-  <si>
-    <t>Innovatív vállalkozás menedzsment</t>
-  </si>
-  <si>
-    <t>XG</t>
-  </si>
-  <si>
-    <t>1+2+0+0</t>
-  </si>
-  <si>
-    <t>IKSEK-22PNYEG</t>
-  </si>
-  <si>
-    <t>Programozási nyelvek</t>
-  </si>
-  <si>
-    <t>2+0+2+2</t>
-  </si>
-  <si>
-    <t>Inf</t>
-  </si>
-  <si>
-    <t>Objektumelvű programozás</t>
-  </si>
-  <si>
-    <t>Web-fejlesztés</t>
-  </si>
-  <si>
-    <t>IKSEK-22SZGREG (gyenge)</t>
-  </si>
-  <si>
-    <t>1+0+2+0</t>
-  </si>
-  <si>
-    <t>IKSEK-22AA1E</t>
-  </si>
-  <si>
-    <t>Algoritmusok és adatszerkezetek I</t>
-  </si>
-  <si>
-    <t>K</t>
-  </si>
-  <si>
-    <t>IKSEK-22AA1G (gyenge)</t>
-  </si>
-  <si>
-    <t>2+0+0+0</t>
-  </si>
-  <si>
-    <t>Szám</t>
-  </si>
-  <si>
-    <t>IKSEK-22AA1G</t>
-  </si>
-  <si>
-    <t>IKSEK-22MATAG, IKSEK-22PROGEG</t>
-  </si>
-  <si>
-    <t>0+2+0+1</t>
-  </si>
-  <si>
-    <t>IKSEK-22DM1E</t>
-  </si>
-  <si>
-    <t>Diszkrét matematika I</t>
-  </si>
-  <si>
-    <t>IKSEK-22DM1G (gyenge)</t>
-  </si>
-  <si>
-    <t>IKSEK-22DM1G</t>
-  </si>
-  <si>
-    <t>IKSEK-22AN1E</t>
-  </si>
-  <si>
-    <t>Analízis I</t>
-  </si>
-  <si>
-    <t>IKSEK-22AN1G (gyenge)</t>
-  </si>
-  <si>
-    <t>IKSEK-22AN1G</t>
-  </si>
-  <si>
-    <t>IKSEK-22AA2E</t>
-  </si>
-  <si>
-    <t>Algoritmusok és adatszerkezetek II</t>
-  </si>
-  <si>
-    <t>IKSEK-22AA2G (gyenge)</t>
-  </si>
-  <si>
-    <t>IKSEK-22AA2G</t>
-  </si>
-  <si>
-    <t>IKSEK-22OPREG</t>
-  </si>
-  <si>
-    <t>Operációs rendszerek</t>
-  </si>
-  <si>
-    <t>IKSEK-22SZGREG, IKSEK-122PNYEG</t>
-  </si>
-  <si>
-    <t>1+0+1+1</t>
-  </si>
-  <si>
-    <t>IKSEK-22AB1E</t>
-  </si>
-  <si>
-    <t>Adatbázisok I</t>
-  </si>
-  <si>
-    <t>IKSEK-22AB1G (gyenge)</t>
-  </si>
-  <si>
-    <t>IKSEK-22AB1G</t>
-  </si>
-  <si>
-    <t>0+0+2+0</t>
-  </si>
-  <si>
-    <t>IKSEK-22KPROGEG</t>
-  </si>
-  <si>
-    <t>Konkurrens programozás</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> IKSEK-22PNYEG</t>
-  </si>
-  <si>
-    <t>IKSEK-22TKHE</t>
-  </si>
-  <si>
-    <t>Telekommunikációs hálózatok</t>
-  </si>
-  <si>
-    <t>IKSEK-22TKHG (gyenge)</t>
-  </si>
-  <si>
-    <t>IKSEK-22TKHG</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> IKSEK-22OEPROGEG </t>
-  </si>
-  <si>
-    <t>0+0+2+1</t>
-  </si>
-  <si>
-    <t>IKSEK-22MIAE</t>
-  </si>
-  <si>
-    <t>Mesterséges intelligencia</t>
-  </si>
-  <si>
-    <t>IKSEK-122AA2E (gyenge)</t>
-  </si>
-  <si>
-    <t>2+0+0+1</t>
-  </si>
-  <si>
-    <t>IKSEK-22JIE</t>
-  </si>
-  <si>
-    <t>Jogi ismeretek</t>
-  </si>
-  <si>
-    <t>Törzsanyag kredit</t>
-  </si>
-  <si>
-    <t>Specializáció kötelező tárgyai</t>
-  </si>
-  <si>
-    <t>IKSEK-22WPROGEG</t>
-  </si>
-  <si>
-    <t>Webprogramozás</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>IKSEK-22WF1EG</t>
-  </si>
-  <si>
-    <t>1+0+2+1</t>
-  </si>
-  <si>
-    <t>IKSEK-22EVPROGEG</t>
-  </si>
-  <si>
-    <t>Eseményvezérelt programozás</t>
-  </si>
-  <si>
-    <t>IKSEK-22OEPROGEG</t>
-  </si>
-  <si>
-    <t>IKSEK-22AN2E</t>
-  </si>
-  <si>
-    <t>Analízis II</t>
-  </si>
-  <si>
-    <t>IKSEK-22AN2G (gyenge)</t>
-  </si>
-  <si>
-    <t>IKSEK-22AN2G</t>
-  </si>
-  <si>
-    <t>IKSEK-22DM2E</t>
-  </si>
-  <si>
-    <t>Diszkrét matematika II</t>
-  </si>
-  <si>
-    <t>IKSEK-22DM2G (gyenge)</t>
-  </si>
-  <si>
-    <t>IKSEK-22DM2G</t>
-  </si>
-  <si>
-    <t>IKSEK-22SZTA1E</t>
-  </si>
-  <si>
-    <t>Számítástudomány alapjai I</t>
-  </si>
-  <si>
-    <t>IKSEK-22SZTA1G</t>
-  </si>
-  <si>
-    <t>IKSEK-22SZTEG</t>
-  </si>
-  <si>
-    <t>Szoftvertechnológia</t>
-  </si>
-  <si>
-    <t>IKSEK-22NME</t>
-  </si>
-  <si>
-    <t>Numerikus módszerek</t>
-  </si>
-  <si>
-    <t>IKSEK-22NMG (gyenge)</t>
-  </si>
-  <si>
-    <t>IKSEK-22NMG</t>
-  </si>
-  <si>
-    <t>IKSEK-22SZTA2E</t>
-  </si>
-  <si>
-    <t>Számítástudomány alapjai II.</t>
-  </si>
-  <si>
-    <t>IKSEK-22SZTA2G (gyenge)</t>
-  </si>
-  <si>
-    <t>IKSEK-22SZTA2G</t>
-  </si>
-  <si>
-    <t>IKSEK-22ADTAE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Adattudomány alapjai </t>
-  </si>
-  <si>
-    <t>IKSEK-22ADTAG (gyenge)</t>
-  </si>
-  <si>
-    <t>IKSEK-22ADTAG</t>
-  </si>
-  <si>
-    <t>IIKSEK-22AN1E, IKSEK-22DM1E</t>
-  </si>
-  <si>
-    <t>Specializáció kötelezően választható tárgyai</t>
-  </si>
-  <si>
-    <t>Python</t>
-  </si>
-  <si>
-    <t>IKSEK-22KVWCPROGEG</t>
-  </si>
-  <si>
-    <t>Web és Cloud programozás C# nyelven</t>
-  </si>
-  <si>
-    <t>5</t>
-  </si>
-  <si>
-    <t>IKSEK-22PNYEG, IKSEK-122OEPROGEG</t>
-  </si>
-  <si>
-    <t>IKSEK-22KVIOTPROGEG</t>
-  </si>
-  <si>
-    <t>IoT ipari programozás</t>
-  </si>
-  <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t>IKSEK-22EVPROGEG, IKSEK-22SZGREG</t>
-  </si>
-  <si>
-    <t>IKSEK-22KVBEEG</t>
-  </si>
-  <si>
-    <t>Beágyazott eszközök</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>IKSEK-22PROGEG (gyenge), IKSEK-22SZGREG</t>
-  </si>
-  <si>
-    <t>IKSEK-22KVPLG</t>
-  </si>
-  <si>
-    <t>Projektlabor</t>
-  </si>
-  <si>
-    <t>0+5+0+0</t>
-  </si>
-  <si>
-    <t>IKSEK-22KVIBEG</t>
-  </si>
-  <si>
-    <t>Informatikai biztonság</t>
-  </si>
-  <si>
-    <t>6</t>
-  </si>
-  <si>
-    <t>Számítógéppel támogatott tervezés</t>
-  </si>
-  <si>
-    <t>IKSEK-22KVGTEG</t>
-  </si>
-  <si>
-    <t>A gépi tanulás alapjai</t>
-  </si>
-  <si>
-    <t>2+2+0+1</t>
-  </si>
-  <si>
-    <t>IKSEK-22KVNMALG</t>
-  </si>
-  <si>
-    <t>Numerikus számítási algoritmusok</t>
-  </si>
-  <si>
-    <t>IKSEK-22KVAN3E</t>
-  </si>
-  <si>
-    <t>Analízis III.</t>
-  </si>
-  <si>
-    <t>IKSEK-22KVAN3G (gyenge)</t>
-  </si>
-  <si>
-    <t>IKSEK-22KVAN3G</t>
-  </si>
-  <si>
-    <t>IKSEK-22KVIVM2EG</t>
-  </si>
-  <si>
-    <t>Innovatív vállalkozásmenedzsment II.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mérnöki alapismeretek informatikusoknak I. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mérnöki alapismeretek informatikusoknak II. </t>
-  </si>
-  <si>
-    <t>Kötelezően választandó tárgyak összesen</t>
-  </si>
-  <si>
-    <t>Specializáció kötelező tárgyak összesen</t>
-  </si>
-  <si>
-    <t>3,4,5</t>
-  </si>
-  <si>
-    <t>20 Erasmus blokk</t>
-  </si>
-  <si>
-    <t>Specializáció összesen (törzsanyaggal együtt)</t>
-  </si>
-  <si>
-    <t>1-6</t>
-  </si>
-  <si>
-    <t>Specializáció összesen (törzsanyaggal és kötvál tárgyakkal együtt)</t>
-  </si>
-  <si>
-    <t>Szabadon választható tárgyak ütemezése kreditértékkel</t>
-  </si>
-  <si>
-    <t>IKSEK-22SZDDIP</t>
-  </si>
-  <si>
-    <t>Szakdolgozati konzultáció*</t>
-  </si>
-  <si>
-    <t>Összes kredit félévben</t>
-  </si>
-  <si>
-    <t>Összes kredit</t>
-  </si>
-  <si>
-    <t>Informatika</t>
-  </si>
-  <si>
-    <t>Matematika</t>
-  </si>
-  <si>
-    <t>Számítástudomány</t>
-  </si>
-  <si>
-    <t>Megjegyzés: Ahol előadás és gyakorlat is van, ott az előadásnak az azonos nevű gyakorlat mindig gyenge előfeltétele</t>
-  </si>
-  <si>
-    <t>A programtervező informatikus BSc szakos hallgatók - a  18 /2016. (VIII. 5.) EMMI. rendelet 3. számú mellékletének megfelelően - 320 órás szakmai gyakorlaton kötelesek részt venni. Kredit értéke nincs, de teljesítése kritériumként szükséges feltétele az abszolutórium megszerzésének.</t>
-  </si>
-  <si>
-    <t>https://www.inf.elte.hu/content/szakmai-gyakorlat-bsc-kepzes.t.1185?m=217</t>
-  </si>
-  <si>
-    <t>* Szakdolgozati konzultáció: Bővebb információ:</t>
-  </si>
-  <si>
-    <t>https://www.inf.elte.hu/content/a-szakdolgozat-diploma-konzultacio-rendje.t.1730?m=360</t>
-  </si>
-  <si>
-    <t>Tárgy neve</t>
-  </si>
-  <si>
-    <t>Félév</t>
-  </si>
-  <si>
-    <t>Számonkérés módja</t>
-  </si>
-  <si>
-    <t>Tárgyfelelős</t>
-  </si>
-  <si>
-    <t>Felelős tanszék</t>
-  </si>
-  <si>
-    <t>Előfeltétel 1</t>
-  </si>
-  <si>
-    <t>X és GY</t>
-  </si>
-  <si>
-    <t>Illés Zoltán</t>
-  </si>
-  <si>
-    <t>MOT</t>
-  </si>
-  <si>
-    <t>2+2</t>
-  </si>
-  <si>
-    <t>Zsakó László</t>
-  </si>
-  <si>
-    <t>2+3</t>
-  </si>
-  <si>
-    <t>Kozsik Tamás</t>
-  </si>
-  <si>
-    <t>PNYF</t>
-  </si>
-  <si>
-    <t>X és Gy</t>
-  </si>
-  <si>
-    <t>Horváth Zoltán</t>
-  </si>
-  <si>
-    <t>Gy</t>
-  </si>
-  <si>
-    <t>Gergó Lajos</t>
-  </si>
-  <si>
-    <t>NA</t>
-  </si>
-  <si>
-    <t>Takács Rita</t>
-  </si>
-  <si>
-    <t>DH</t>
-  </si>
-  <si>
-    <t>Hegyi Barbara</t>
-  </si>
-  <si>
-    <t>CLC</t>
-  </si>
-  <si>
-    <t>kredit/félév1</t>
-  </si>
-  <si>
-    <t>Programozási nyelvek I</t>
-  </si>
-  <si>
-    <t>Pataki Norbert</t>
-  </si>
-  <si>
-    <t>Programozási nyelvek II</t>
-  </si>
-  <si>
-    <t>Gregorics Tibor</t>
-  </si>
-  <si>
-    <t>PSZT</t>
-  </si>
-  <si>
-    <t>Abonyi-Tóth Andor</t>
-  </si>
-  <si>
-    <t>K+Gy</t>
-  </si>
-  <si>
-    <t>Ásványi Tibor</t>
-  </si>
-  <si>
-    <t>ALAL</t>
-  </si>
-  <si>
-    <t>Burcsi Péter</t>
-  </si>
-  <si>
-    <t>KA</t>
-  </si>
-  <si>
-    <t>K+GY</t>
-  </si>
-  <si>
-    <t>Szili László</t>
-  </si>
-  <si>
-    <t>kredit/félév2</t>
-  </si>
-  <si>
-    <t>Algoritmusok és adatszerkezetek I.</t>
-  </si>
-  <si>
-    <t>kredit/félév3</t>
-  </si>
-  <si>
-    <t>K és GYJ</t>
-  </si>
-  <si>
-    <t>Hajas Csilla</t>
-  </si>
-  <si>
-    <t>IRTSZ</t>
-  </si>
-  <si>
-    <t>kredit/félév4</t>
-  </si>
-  <si>
-    <t>Konkurens programozás</t>
-  </si>
-  <si>
-    <t>Laki Sándor</t>
-  </si>
-  <si>
-    <t>Programozási nyelvek I.</t>
-  </si>
-  <si>
-    <t>Algoritmusok és adatszerkezetek II.</t>
-  </si>
-  <si>
-    <t>kredit/félév5</t>
-  </si>
-  <si>
-    <t>Nikovits Tibor</t>
-  </si>
-  <si>
-    <t>kredit/félév6</t>
-  </si>
-  <si>
-    <t>Eseményvezérelt alkalmazások</t>
-  </si>
-  <si>
-    <t>Várkonyi Teréz</t>
-  </si>
-  <si>
-    <t>Diszkrét  Matematika I</t>
-  </si>
-  <si>
-    <t>Numerikus módszerek I</t>
-  </si>
-  <si>
-    <t>Krebsz Anna</t>
-  </si>
-  <si>
-    <t>Kötelezően választandó</t>
-  </si>
-  <si>
-    <t>Bevezetés a számításelméletbe</t>
-  </si>
-  <si>
-    <t>Tichler Krisztián</t>
-  </si>
-  <si>
-    <t>Numerikus módszerek II</t>
-  </si>
-  <si>
-    <t>Valószínűségszámítás</t>
-  </si>
-  <si>
-    <t>Arató Miklós</t>
-  </si>
-  <si>
-    <t>VSZ TTK</t>
-  </si>
-  <si>
-    <t>Analízis III</t>
-  </si>
-  <si>
-    <t>Fridli Sándor</t>
-  </si>
-  <si>
-    <t>Szoftvertechnológia TM</t>
-  </si>
-  <si>
-    <t>K és GY</t>
-  </si>
-  <si>
-    <t>Varga László Zsolt</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Eseményvezérelt alkalmazások</t>
-  </si>
-  <si>
-    <t>Diszkrét matematikai modellek és alkalmazásaik</t>
-  </si>
-  <si>
-    <t>Ligeti Péter</t>
-  </si>
-  <si>
-    <t>Diszkrét matematika I.</t>
-  </si>
-  <si>
-    <t>Matematikai statisztika</t>
-  </si>
-  <si>
-    <t>Analízis alkalmazásai</t>
-  </si>
-  <si>
-    <t>Weisz Ferenc</t>
-  </si>
-  <si>
-    <t>Kötelezően választható tárgyak</t>
-  </si>
-  <si>
-    <t>Számítógépes grafika</t>
-  </si>
-  <si>
-    <t>Hajder Levente</t>
-  </si>
-  <si>
-    <t>Web-es alkalmazások fejlesztése</t>
-  </si>
-  <si>
-    <t>GPU programozás</t>
-  </si>
-  <si>
-    <t>X+GY</t>
-  </si>
-  <si>
-    <t>Kliensoldali webprogramozás</t>
-  </si>
-  <si>
-    <t>4-6</t>
-  </si>
-  <si>
-    <t>Horváth Győző</t>
-  </si>
-  <si>
-    <t>Szerveroldali webprogramozás</t>
-  </si>
-  <si>
-    <t>Full stack webprogramozás</t>
-  </si>
-  <si>
-    <t>Natív mobilalkalmazás-fejlesztés</t>
-  </si>
-  <si>
-    <t>Multiplatform mobilalkalmazás-fejlesztés</t>
-  </si>
-  <si>
-    <t>Web-alapú mobilalkalmazás-fejlesztés</t>
-  </si>
-  <si>
-    <t>Vállalati információs rendszerek és architektúrák</t>
-  </si>
-  <si>
-    <t>Kollokvium és GYJ</t>
-  </si>
-  <si>
-    <t>Molnár BÁlint</t>
-  </si>
-  <si>
-    <t>Tesztelési módszerek</t>
-  </si>
-  <si>
-    <t>Kovács Attila</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Big Data architektúrák és elemző módszerek </t>
-  </si>
-  <si>
-    <t>K és Gy</t>
-  </si>
-  <si>
-    <t>Haladó Java</t>
-  </si>
-  <si>
-    <t>4,6</t>
-  </si>
-  <si>
-    <t>GYJ</t>
-  </si>
-  <si>
-    <t>Haladó C++</t>
-  </si>
-  <si>
-    <t>Porkoláb Zoltán</t>
-  </si>
-  <si>
-    <t>Kutatásfejlesztési és innovációs labor</t>
-  </si>
-  <si>
-    <t>bármelyik</t>
-  </si>
-  <si>
-    <t>Málnay Barnabás</t>
-  </si>
-  <si>
-    <t>Szoftver mély neuronhálók matematikájához</t>
-  </si>
-  <si>
-    <t>3-5</t>
-  </si>
-  <si>
-    <t>Lőrincz András</t>
-  </si>
-  <si>
-    <t>Szoftver mély neuronhálók alkalmazásához</t>
-  </si>
-  <si>
-    <t>Mély neuronhálok fajtái</t>
-  </si>
-  <si>
-    <t>Mély neuronhálók state-of-the-art alkalmazásai</t>
-  </si>
-  <si>
-    <t>Szabadon választható</t>
-  </si>
-  <si>
-    <t>M specializáció kredit</t>
-  </si>
-  <si>
-    <t>Szakdolgozat</t>
-  </si>
-  <si>
-    <t>Szabvál</t>
-  </si>
-  <si>
-    <t>IKSEK-22SZTTEG</t>
-  </si>
-  <si>
-    <t>IKSEK-22MAI1E</t>
-  </si>
-  <si>
-    <t>IKSEK-22MAI2E</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Erasmus mobilitási ablak                              </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <i/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="238"/>
-      </rPr>
-      <t>(Informatika és számítástudomány ismeretkörű tárgyak)</t>
-    </r>
-  </si>
-  <si>
-    <t>G: Gyakorlati jegy számonkérésű tárgy    K: Kollokvium számonkérésű tárgy    FG: Folyamatos számonkérésű gyakorlat       XG: Összevont, gyakorlati jegy számonkérésű tárgy       XFG: Összevont, folyamatos számonkérésű gyakorlat    XK: Összevont, kollokvium számonkérésű tárgy</t>
-  </si>
-  <si>
-    <t>IKSEK-22OBPROGEG</t>
-  </si>
-  <si>
-    <t>IKSEK-22KVPYEG</t>
   </si>
   <si>
     <r>
@@ -1075,12 +135,956 @@
 · tanulmányainak során legalább 3 hónapos angol nyelvű külföldi részképzésen vesz részt.</t>
     </r>
   </si>
+  <si>
+    <t>Törzsanyag</t>
+  </si>
+  <si>
+    <t>Kód</t>
+  </si>
+  <si>
+    <t>Tanegység</t>
+  </si>
+  <si>
+    <t>Előadás</t>
+  </si>
+  <si>
+    <t>Gyakorlat</t>
+  </si>
+  <si>
+    <t>Labor</t>
+  </si>
+  <si>
+    <t>Konzultáció</t>
+  </si>
+  <si>
+    <t>Számonkérés</t>
+  </si>
+  <si>
+    <t>Kredit</t>
+  </si>
+  <si>
+    <t>Ajánlott félév</t>
+  </si>
+  <si>
+    <t>Előfeltétel(ek)</t>
+  </si>
+  <si>
+    <t>1. félév</t>
+  </si>
+  <si>
+    <t>2. félév</t>
+  </si>
+  <si>
+    <t>3. félév</t>
+  </si>
+  <si>
+    <t>4. félév</t>
+  </si>
+  <si>
+    <t>5. félév</t>
+  </si>
+  <si>
+    <t>6. félév</t>
+  </si>
+  <si>
+    <t>Ismeretkör</t>
+  </si>
+  <si>
+    <t>IKSEK-22SZGREG</t>
+  </si>
+  <si>
+    <t>Számítógépes rendszerek</t>
+  </si>
+  <si>
+    <t>XFG</t>
+  </si>
+  <si>
+    <t>2+0+2+1</t>
+  </si>
+  <si>
+    <t>Inf.</t>
+  </si>
+  <si>
+    <t>IKSEK-22PROGEG</t>
+  </si>
+  <si>
+    <t>Programozás</t>
+  </si>
+  <si>
+    <t>2+0+3+1</t>
+  </si>
+  <si>
+    <t>IKSEK-22IMPROGEG</t>
+  </si>
+  <si>
+    <t>Imperatív programozás</t>
+  </si>
+  <si>
+    <t>2+0+3+0</t>
+  </si>
+  <si>
+    <t>IKSEK-22FUNPEG</t>
+  </si>
+  <si>
+    <t>Funkcionális programozás</t>
+  </si>
+  <si>
+    <t>XK</t>
+  </si>
+  <si>
+    <t>IKSEK-22MATAG</t>
+  </si>
+  <si>
+    <t>Matematikai alapok</t>
+  </si>
+  <si>
+    <t>FG</t>
+  </si>
+  <si>
+    <t>0+4+0+0</t>
+  </si>
+  <si>
+    <t>Mat</t>
+  </si>
+  <si>
+    <t>IKSEK-22TMKG</t>
+  </si>
+  <si>
+    <t>Egyetemi alapozó és tanulásmódszertani kurzus</t>
+  </si>
+  <si>
+    <t>G</t>
+  </si>
+  <si>
+    <t>0+1+0+1</t>
+  </si>
+  <si>
+    <t>Egyéb</t>
+  </si>
+  <si>
+    <t>IKSEK-22IVM1EG</t>
+  </si>
+  <si>
+    <t>Innovatív vállalkozás menedzsment</t>
+  </si>
+  <si>
+    <t>XG</t>
+  </si>
+  <si>
+    <t>1+2+0+0</t>
+  </si>
+  <si>
+    <t>IKSEK-22PNYEG</t>
+  </si>
+  <si>
+    <t>Programozási nyelvek</t>
+  </si>
+  <si>
+    <t>2+0+2+2</t>
+  </si>
+  <si>
+    <t>Inf</t>
+  </si>
+  <si>
+    <t>IKSEK-22OBPROGEG</t>
+  </si>
+  <si>
+    <t>Objektumelvű programozás</t>
+  </si>
+  <si>
+    <t>IKSEK-22WF1EG</t>
+  </si>
+  <si>
+    <t>Web-fejlesztés</t>
+  </si>
+  <si>
+    <t>IKSEK-22SZGREG (gyenge)</t>
+  </si>
+  <si>
+    <t>1+0+2+0</t>
+  </si>
+  <si>
+    <t>IKSEK-22AA1E</t>
+  </si>
+  <si>
+    <t>Algoritmusok és adatszerkezetek I</t>
+  </si>
+  <si>
+    <t>K</t>
+  </si>
+  <si>
+    <t>IKSEK-22AA1G (gyenge)</t>
+  </si>
+  <si>
+    <t>2+0+0+0</t>
+  </si>
+  <si>
+    <t>Szám</t>
+  </si>
+  <si>
+    <t>IKSEK-22AA1G</t>
+  </si>
+  <si>
+    <t>IKSEK-22MATAG, IKSEK-22PROGEG</t>
+  </si>
+  <si>
+    <t>0+2+0+1</t>
+  </si>
+  <si>
+    <t>IKSEK-22DM1E</t>
+  </si>
+  <si>
+    <t>Diszkrét matematika I</t>
+  </si>
+  <si>
+    <t>IKSEK-22DM1G (gyenge)</t>
+  </si>
+  <si>
+    <t>IKSEK-22DM1G</t>
+  </si>
+  <si>
+    <t>IKSEK-22AN1E</t>
+  </si>
+  <si>
+    <t>Analízis I</t>
+  </si>
+  <si>
+    <t>IKSEK-22AN1G (gyenge)</t>
+  </si>
+  <si>
+    <t>IKSEK-22AN1G</t>
+  </si>
+  <si>
+    <t>IKSEK-22AA2E</t>
+  </si>
+  <si>
+    <t>Algoritmusok és adatszerkezetek II</t>
+  </si>
+  <si>
+    <t>IKSEK-22AA2G (gyenge)</t>
+  </si>
+  <si>
+    <t>IKSEK-22AA2G</t>
+  </si>
+  <si>
+    <t>IKSEK-22OPREG</t>
+  </si>
+  <si>
+    <t>Operációs rendszerek</t>
+  </si>
+  <si>
+    <t>IKSEK-22SZGREG, IKSEK-122PNYEG</t>
+  </si>
+  <si>
+    <t>1+0+1+1</t>
+  </si>
+  <si>
+    <t>IKSEK-22AB1E</t>
+  </si>
+  <si>
+    <t>Adatbázisok I</t>
+  </si>
+  <si>
+    <t>IKSEK-22AB1G (gyenge)</t>
+  </si>
+  <si>
+    <t>IKSEK-22AB1G</t>
+  </si>
+  <si>
+    <t>0+0+2+0</t>
+  </si>
+  <si>
+    <t>IKSEK-22KPROGEG</t>
+  </si>
+  <si>
+    <t>Konkurrens programozás</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> IKSEK-22PNYEG</t>
+  </si>
+  <si>
+    <t>IKSEK-22TKHE</t>
+  </si>
+  <si>
+    <t>Telekommunikációs hálózatok</t>
+  </si>
+  <si>
+    <t>IKSEK-22TKHG (gyenge)</t>
+  </si>
+  <si>
+    <t>IKSEK-22TKHG</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> IKSEK-22OEPROGEG </t>
+  </si>
+  <si>
+    <t>0+0+2+1</t>
+  </si>
+  <si>
+    <t>IKSEK-22MIAE</t>
+  </si>
+  <si>
+    <t>Mesterséges intelligencia</t>
+  </si>
+  <si>
+    <t>IKSEK-122AA2E (gyenge)</t>
+  </si>
+  <si>
+    <t>2+0+0+1</t>
+  </si>
+  <si>
+    <t>IKSEK-22JIE</t>
+  </si>
+  <si>
+    <t>Jogi ismeretek</t>
+  </si>
+  <si>
+    <t>Törzsanyag kredit</t>
+  </si>
+  <si>
+    <t>Specializáció kötelező tárgyai</t>
+  </si>
+  <si>
+    <t>IKSEK-22WPROGEG</t>
+  </si>
+  <si>
+    <t>Webprogramozás</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>1+0+2+1</t>
+  </si>
+  <si>
+    <t>IKSEK-22EVPROGEG</t>
+  </si>
+  <si>
+    <t>Eseményvezérelt programozás</t>
+  </si>
+  <si>
+    <t>IKSEK-22OEPROGEG</t>
+  </si>
+  <si>
+    <t>IKSEK-22AN2E</t>
+  </si>
+  <si>
+    <t>Analízis II</t>
+  </si>
+  <si>
+    <t>IKSEK-22AN2G (gyenge)</t>
+  </si>
+  <si>
+    <t>IKSEK-22AN2G</t>
+  </si>
+  <si>
+    <t>IKSEK-22DM2E</t>
+  </si>
+  <si>
+    <t>Diszkrét matematika II</t>
+  </si>
+  <si>
+    <t>IKSEK-22DM2G (gyenge)</t>
+  </si>
+  <si>
+    <t>IKSEK-22DM2G</t>
+  </si>
+  <si>
+    <t>IKSEK-22SZTA1E</t>
+  </si>
+  <si>
+    <t>Számítástudomány alapjai I</t>
+  </si>
+  <si>
+    <t>IKSEK-22SZTA1G</t>
+  </si>
+  <si>
+    <t>IKSEK-22SZTEG</t>
+  </si>
+  <si>
+    <t>Szoftvertechnológia</t>
+  </si>
+  <si>
+    <t>IKSEK-22NME</t>
+  </si>
+  <si>
+    <t>Numerikus módszerek</t>
+  </si>
+  <si>
+    <t>IKSEK-22NMG (gyenge)</t>
+  </si>
+  <si>
+    <t>IKSEK-22NMG</t>
+  </si>
+  <si>
+    <t>IKSEK-22SZTTEG</t>
+  </si>
+  <si>
+    <t>Számítógéppel támogatott tervezés</t>
+  </si>
+  <si>
+    <t>IKSEK-22MAI1E</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mérnöki alapismeretek informatikusoknak I. </t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>IKSEK-22MAI2E</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mérnöki alapismeretek informatikusoknak II. </t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>IKSEK-22SZTA2E</t>
+  </si>
+  <si>
+    <t>Számítástudomány alapjai II.</t>
+  </si>
+  <si>
+    <t>IKSEK-22SZTA2G (gyenge)</t>
+  </si>
+  <si>
+    <t>IKSEK-22SZTA2G</t>
+  </si>
+  <si>
+    <t>IKSEK-22ADTAE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Adattudomány alapjai </t>
+  </si>
+  <si>
+    <t>IKSEK-22ADTAG (gyenge)</t>
+  </si>
+  <si>
+    <t>IKSEK-22ADTAG</t>
+  </si>
+  <si>
+    <t>IIKSEK-22AN1E, IKSEK-22DM1E</t>
+  </si>
+  <si>
+    <t>Specializáció kötelezően választható tárgyai</t>
+  </si>
+  <si>
+    <t>IKSEK-22KVPYEG</t>
+  </si>
+  <si>
+    <t>Python</t>
+  </si>
+  <si>
+    <t>IKSEK-22KVWCPROGEG</t>
+  </si>
+  <si>
+    <t>Web és Cloud programozás C# nyelven</t>
+  </si>
+  <si>
+    <t>IKSEK-22PNYEG, IKSEK-122OEPROGEG</t>
+  </si>
+  <si>
+    <t>IKSEK-22KVIOTPROGEG</t>
+  </si>
+  <si>
+    <t>IoT ipari programozás</t>
+  </si>
+  <si>
+    <t>IKSEK-22EVPROGEG, IKSEK-22SZGREG</t>
+  </si>
+  <si>
+    <t>IKSEK-22KVBEEG</t>
+  </si>
+  <si>
+    <t>Beágyazott eszközök</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>IKSEK-22PROGEG (gyenge), IKSEK-22SZGREG</t>
+  </si>
+  <si>
+    <t>IKSEK-22KVPLG</t>
+  </si>
+  <si>
+    <t>Projektlabor</t>
+  </si>
+  <si>
+    <t>0+5+0+0</t>
+  </si>
+  <si>
+    <t>IKSEK-22KVIBEG</t>
+  </si>
+  <si>
+    <t>Informatikai biztonság</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>IKSEK-22KVGTEG</t>
+  </si>
+  <si>
+    <t>A gépi tanulás alapjai</t>
+  </si>
+  <si>
+    <t>2+2+0+1</t>
+  </si>
+  <si>
+    <t>IKSEK-22KVNMALG</t>
+  </si>
+  <si>
+    <t>Numerikus számítási algoritmusok</t>
+  </si>
+  <si>
+    <t>IKSEK-22KVAN3E</t>
+  </si>
+  <si>
+    <t>Analízis III.</t>
+  </si>
+  <si>
+    <t>IKSEK-22KVAN3G (gyenge)</t>
+  </si>
+  <si>
+    <t>IKSEK-22KVAN3G</t>
+  </si>
+  <si>
+    <t>IKSEK-22KVIVM2EG</t>
+  </si>
+  <si>
+    <t>Innovatív vállalkozásmenedzsment II.</t>
+  </si>
+  <si>
+    <t>Kötelezően választandó tárgyak összesen</t>
+  </si>
+  <si>
+    <t>Specializáció kötelező tárgyak összesen</t>
+  </si>
+  <si>
+    <t>3,4,5</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Erasmus mobilitási ablak                              </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+      </rPr>
+      <t>(Informatika és számítástudomány ismeretkörű tárgyak)</t>
+    </r>
+  </si>
+  <si>
+    <t>20 Erasmus blokk</t>
+  </si>
+  <si>
+    <t>Specializáció összesen (törzsanyaggal együtt)</t>
+  </si>
+  <si>
+    <t>1-6</t>
+  </si>
+  <si>
+    <t>Specializáció összesen (törzsanyaggal és kötvál tárgyakkal együtt)</t>
+  </si>
+  <si>
+    <t>Szabadon választható tárgyak ütemezése kreditértékkel</t>
+  </si>
+  <si>
+    <t>IKSEK-22SZDDIP</t>
+  </si>
+  <si>
+    <t>Szakdolgozati konzultáció*</t>
+  </si>
+  <si>
+    <t>Összes kredit félévben</t>
+  </si>
+  <si>
+    <t>Összes kredit</t>
+  </si>
+  <si>
+    <t>Informatika</t>
+  </si>
+  <si>
+    <t>Matematika</t>
+  </si>
+  <si>
+    <t>Számítástudomány</t>
+  </si>
+  <si>
+    <t>Megjegyzés: Ahol előadás és gyakorlat is van, ott az előadásnak az azonos nevű gyakorlat mindig gyenge előfeltétele</t>
+  </si>
+  <si>
+    <t>G: Gyakorlati jegy számonkérésű tárgy    K: Kollokvium számonkérésű tárgy    FG: Folyamatos számonkérésű gyakorlat       XG: Összevont, gyakorlati jegy számonkérésű tárgy       XFG: Összevont, folyamatos számonkérésű gyakorlat    XK: Összevont, kollokvium számonkérésű tárgy</t>
+  </si>
+  <si>
+    <t>A programtervező informatikus BSc szakos hallgatók - a  18 /2016. (VIII. 5.) EMMI. rendelet 3. számú mellékletének megfelelően - 320 órás szakmai gyakorlaton kötelesek részt venni. Kredit értéke nincs, de teljesítése kritériumként szükséges feltétele az abszolutórium megszerzésének.</t>
+  </si>
+  <si>
+    <t>https://www.inf.elte.hu/content/szakmai-gyakorlat-bsc-kepzes.t.1185?m=217</t>
+  </si>
+  <si>
+    <t>* Szakdolgozati konzultáció: Bővebb információ:</t>
+  </si>
+  <si>
+    <t>https://www.inf.elte.hu/content/a-szakdolgozat-diploma-konzultacio-rendje.t.1730?m=360</t>
+  </si>
+  <si>
+    <t>Tárgy neve</t>
+  </si>
+  <si>
+    <t>Félév</t>
+  </si>
+  <si>
+    <t>Számonkérés módja</t>
+  </si>
+  <si>
+    <t>Tárgyfelelős</t>
+  </si>
+  <si>
+    <t>Felelős tanszék</t>
+  </si>
+  <si>
+    <t>Előfeltétel 1</t>
+  </si>
+  <si>
+    <t>X és GY</t>
+  </si>
+  <si>
+    <t>Illés Zoltán</t>
+  </si>
+  <si>
+    <t>MOT</t>
+  </si>
+  <si>
+    <t>2+2</t>
+  </si>
+  <si>
+    <t>Zsakó László</t>
+  </si>
+  <si>
+    <t>2+3</t>
+  </si>
+  <si>
+    <t>Kozsik Tamás</t>
+  </si>
+  <si>
+    <t>PNYF</t>
+  </si>
+  <si>
+    <t>X és Gy</t>
+  </si>
+  <si>
+    <t>Horváth Zoltán</t>
+  </si>
+  <si>
+    <t>Gy</t>
+  </si>
+  <si>
+    <t>Gergó Lajos</t>
+  </si>
+  <si>
+    <t>NA</t>
+  </si>
+  <si>
+    <t>Takács Rita</t>
+  </si>
+  <si>
+    <t>DH</t>
+  </si>
+  <si>
+    <t>Hegyi Barbara</t>
+  </si>
+  <si>
+    <t>CLC</t>
+  </si>
+  <si>
+    <t>kredit/félév1</t>
+  </si>
+  <si>
+    <t>Programozási nyelvek I</t>
+  </si>
+  <si>
+    <t>Pataki Norbert</t>
+  </si>
+  <si>
+    <t>Programozási nyelvek II</t>
+  </si>
+  <si>
+    <t>Gregorics Tibor</t>
+  </si>
+  <si>
+    <t>PSZT</t>
+  </si>
+  <si>
+    <t>Abonyi-Tóth Andor</t>
+  </si>
+  <si>
+    <t>K+Gy</t>
+  </si>
+  <si>
+    <t>Ásványi Tibor</t>
+  </si>
+  <si>
+    <t>ALAL</t>
+  </si>
+  <si>
+    <t>Burcsi Péter</t>
+  </si>
+  <si>
+    <t>KA</t>
+  </si>
+  <si>
+    <t>K+GY</t>
+  </si>
+  <si>
+    <t>Szili László</t>
+  </si>
+  <si>
+    <t>kredit/félév2</t>
+  </si>
+  <si>
+    <t>Algoritmusok és adatszerkezetek I.</t>
+  </si>
+  <si>
+    <t>kredit/félév3</t>
+  </si>
+  <si>
+    <t>K és GYJ</t>
+  </si>
+  <si>
+    <t>Hajas Csilla</t>
+  </si>
+  <si>
+    <t>IRTSZ</t>
+  </si>
+  <si>
+    <t>kredit/félév4</t>
+  </si>
+  <si>
+    <t>Konkurens programozás</t>
+  </si>
+  <si>
+    <t>Laki Sándor</t>
+  </si>
+  <si>
+    <t>Programozási nyelvek I.</t>
+  </si>
+  <si>
+    <t>Algoritmusok és adatszerkezetek II.</t>
+  </si>
+  <si>
+    <t>kredit/félév5</t>
+  </si>
+  <si>
+    <t>Nikovits Tibor</t>
+  </si>
+  <si>
+    <t>kredit/félév6</t>
+  </si>
+  <si>
+    <t>Eseményvezérelt alkalmazások</t>
+  </si>
+  <si>
+    <t>Várkonyi Teréz</t>
+  </si>
+  <si>
+    <t>Diszkrét  Matematika I</t>
+  </si>
+  <si>
+    <t>Numerikus módszerek I</t>
+  </si>
+  <si>
+    <t>Krebsz Anna</t>
+  </si>
+  <si>
+    <t>Kötelezően választandó</t>
+  </si>
+  <si>
+    <t>Bevezetés a számításelméletbe</t>
+  </si>
+  <si>
+    <t>Tichler Krisztián</t>
+  </si>
+  <si>
+    <t>Numerikus módszerek II</t>
+  </si>
+  <si>
+    <t>Valószínűségszámítás</t>
+  </si>
+  <si>
+    <t>Arató Miklós</t>
+  </si>
+  <si>
+    <t>VSZ TTK</t>
+  </si>
+  <si>
+    <t>Analízis III</t>
+  </si>
+  <si>
+    <t>Fridli Sándor</t>
+  </si>
+  <si>
+    <t>Szoftvertechnológia TM</t>
+  </si>
+  <si>
+    <t>K és GY</t>
+  </si>
+  <si>
+    <t>Varga László Zsolt</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Eseményvezérelt alkalmazások</t>
+  </si>
+  <si>
+    <t>Diszkrét matematikai modellek és alkalmazásaik</t>
+  </si>
+  <si>
+    <t>Ligeti Péter</t>
+  </si>
+  <si>
+    <t>Diszkrét matematika I.</t>
+  </si>
+  <si>
+    <t>Matematikai statisztika</t>
+  </si>
+  <si>
+    <t>Analízis alkalmazásai</t>
+  </si>
+  <si>
+    <t>Weisz Ferenc</t>
+  </si>
+  <si>
+    <t>Kötelezően választható tárgyak</t>
+  </si>
+  <si>
+    <t>Számítógépes grafika</t>
+  </si>
+  <si>
+    <t>Hajder Levente</t>
+  </si>
+  <si>
+    <t>Web-es alkalmazások fejlesztése</t>
+  </si>
+  <si>
+    <t>GPU programozás</t>
+  </si>
+  <si>
+    <t>X+GY</t>
+  </si>
+  <si>
+    <t>Kliensoldali webprogramozás</t>
+  </si>
+  <si>
+    <t>4-6</t>
+  </si>
+  <si>
+    <t>Horváth Győző</t>
+  </si>
+  <si>
+    <t>Szerveroldali webprogramozás</t>
+  </si>
+  <si>
+    <t>Full stack webprogramozás</t>
+  </si>
+  <si>
+    <t>Natív mobilalkalmazás-fejlesztés</t>
+  </si>
+  <si>
+    <t>Multiplatform mobilalkalmazás-fejlesztés</t>
+  </si>
+  <si>
+    <t>Web-alapú mobilalkalmazás-fejlesztés</t>
+  </si>
+  <si>
+    <t>Vállalati információs rendszerek és architektúrák</t>
+  </si>
+  <si>
+    <t>Kollokvium és GYJ</t>
+  </si>
+  <si>
+    <t>Molnár BÁlint</t>
+  </si>
+  <si>
+    <t>Tesztelési módszerek</t>
+  </si>
+  <si>
+    <t>Kovács Attila</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Big Data architektúrák és elemző módszerek </t>
+  </si>
+  <si>
+    <t>K és Gy</t>
+  </si>
+  <si>
+    <t>Haladó Java</t>
+  </si>
+  <si>
+    <t>4,6</t>
+  </si>
+  <si>
+    <t>GYJ</t>
+  </si>
+  <si>
+    <t>Haladó C++</t>
+  </si>
+  <si>
+    <t>Porkoláb Zoltán</t>
+  </si>
+  <si>
+    <t>Kutatásfejlesztési és innovációs labor</t>
+  </si>
+  <si>
+    <t>bármelyik</t>
+  </si>
+  <si>
+    <t>Málnay Barnabás</t>
+  </si>
+  <si>
+    <t>Szoftver mély neuronhálók matematikájához</t>
+  </si>
+  <si>
+    <t>3-5</t>
+  </si>
+  <si>
+    <t>Lőrincz András</t>
+  </si>
+  <si>
+    <t>Szoftver mély neuronhálók alkalmazásához</t>
+  </si>
+  <si>
+    <t>Mély neuronhálok fajtái</t>
+  </si>
+  <si>
+    <t>Mély neuronhálók state-of-the-art alkalmazásai</t>
+  </si>
+  <si>
+    <t>Szabadon választható</t>
+  </si>
+  <si>
+    <t>M specializáció kredit</t>
+  </si>
+  <si>
+    <t>Szakdolgozat</t>
+  </si>
+  <si>
+    <t>Szabvál</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="35" x14ac:knownFonts="1">
+  <fonts count="35">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2321,7 +2325,6 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="2" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2337,11 +2340,9 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2354,15 +2355,18 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="40" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="41" xfId="2" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="42" xfId="2" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="40" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hivatkozás" xfId="2" builtinId="8"/>
@@ -2680,11 +2684,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1FFF99A-C51B-413D-8100-23CEE578C48A}">
   <dimension ref="A1:T100"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="S5" sqref="S5"/>
+    <sheetView tabSelected="1" topLeftCell="A76" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I81" sqref="I81"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75"/>
   <cols>
     <col min="1" max="1" width="25.5703125" style="2" customWidth="1"/>
     <col min="2" max="2" width="38.140625" style="2" customWidth="1"/>
@@ -2706,66 +2710,66 @@
     <col min="18" max="16384" width="9.28515625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="167" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="168"/>
-      <c r="C1" s="168"/>
-      <c r="D1" s="168"/>
-      <c r="E1" s="168"/>
-      <c r="F1" s="168"/>
-      <c r="G1" s="168"/>
-      <c r="H1" s="168"/>
-      <c r="I1" s="168"/>
-      <c r="J1" s="168"/>
-      <c r="K1" s="168"/>
-      <c r="L1" s="168"/>
-      <c r="M1" s="168"/>
-      <c r="N1" s="168"/>
-      <c r="O1" s="168"/>
-      <c r="P1" s="168"/>
-      <c r="Q1" s="168"/>
-    </row>
-    <row r="2" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="168"/>
-      <c r="B2" s="168"/>
-      <c r="C2" s="168"/>
-      <c r="D2" s="168"/>
-      <c r="E2" s="168"/>
-      <c r="F2" s="168"/>
-      <c r="G2" s="168"/>
-      <c r="H2" s="168"/>
-      <c r="I2" s="168"/>
-      <c r="J2" s="168"/>
-      <c r="K2" s="168"/>
-      <c r="L2" s="168"/>
-      <c r="M2" s="168"/>
-      <c r="N2" s="168"/>
-      <c r="O2" s="168"/>
-      <c r="P2" s="168"/>
-      <c r="Q2" s="168"/>
-    </row>
-    <row r="3" spans="1:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="168"/>
-      <c r="B3" s="168"/>
-      <c r="C3" s="168"/>
-      <c r="D3" s="168"/>
-      <c r="E3" s="168"/>
-      <c r="F3" s="168"/>
-      <c r="G3" s="168"/>
-      <c r="H3" s="168"/>
-      <c r="I3" s="168"/>
-      <c r="J3" s="168"/>
-      <c r="K3" s="168"/>
-      <c r="L3" s="168"/>
-      <c r="M3" s="168"/>
-      <c r="N3" s="168"/>
-      <c r="O3" s="168"/>
-      <c r="P3" s="168"/>
-      <c r="Q3" s="168"/>
-    </row>
-    <row r="4" spans="1:20" ht="11.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:20" ht="15.75" customHeight="1">
+      <c r="A1" s="166" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="175"/>
+      <c r="C1" s="175"/>
+      <c r="D1" s="175"/>
+      <c r="E1" s="175"/>
+      <c r="F1" s="175"/>
+      <c r="G1" s="175"/>
+      <c r="H1" s="175"/>
+      <c r="I1" s="175"/>
+      <c r="J1" s="175"/>
+      <c r="K1" s="175"/>
+      <c r="L1" s="175"/>
+      <c r="M1" s="175"/>
+      <c r="N1" s="175"/>
+      <c r="O1" s="175"/>
+      <c r="P1" s="175"/>
+      <c r="Q1" s="175"/>
+    </row>
+    <row r="2" spans="1:20" ht="15.75" customHeight="1">
+      <c r="A2" s="175"/>
+      <c r="B2" s="175"/>
+      <c r="C2" s="175"/>
+      <c r="D2" s="175"/>
+      <c r="E2" s="175"/>
+      <c r="F2" s="175"/>
+      <c r="G2" s="175"/>
+      <c r="H2" s="175"/>
+      <c r="I2" s="175"/>
+      <c r="J2" s="175"/>
+      <c r="K2" s="175"/>
+      <c r="L2" s="175"/>
+      <c r="M2" s="175"/>
+      <c r="N2" s="175"/>
+      <c r="O2" s="175"/>
+      <c r="P2" s="175"/>
+      <c r="Q2" s="175"/>
+    </row>
+    <row r="3" spans="1:20" ht="11.25" customHeight="1">
+      <c r="A3" s="175"/>
+      <c r="B3" s="175"/>
+      <c r="C3" s="175"/>
+      <c r="D3" s="175"/>
+      <c r="E3" s="175"/>
+      <c r="F3" s="175"/>
+      <c r="G3" s="175"/>
+      <c r="H3" s="175"/>
+      <c r="I3" s="175"/>
+      <c r="J3" s="175"/>
+      <c r="K3" s="175"/>
+      <c r="L3" s="175"/>
+      <c r="M3" s="175"/>
+      <c r="N3" s="175"/>
+      <c r="O3" s="175"/>
+      <c r="P3" s="175"/>
+      <c r="Q3" s="175"/>
+    </row>
+    <row r="4" spans="1:20" ht="11.25" customHeight="1" thickBot="1">
       <c r="A4" s="160"/>
       <c r="B4" s="160"/>
       <c r="C4" s="160"/>
@@ -2784,28 +2788,28 @@
       <c r="P4" s="160"/>
       <c r="Q4" s="160"/>
     </row>
-    <row r="5" spans="1:20" ht="330.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="177" t="s">
-        <v>311</v>
-      </c>
-      <c r="B5" s="175"/>
-      <c r="C5" s="175"/>
-      <c r="D5" s="175"/>
-      <c r="E5" s="175"/>
-      <c r="F5" s="175"/>
-      <c r="G5" s="175"/>
-      <c r="H5" s="175"/>
-      <c r="I5" s="175"/>
-      <c r="J5" s="175"/>
-      <c r="K5" s="175"/>
-      <c r="L5" s="175"/>
-      <c r="M5" s="175"/>
-      <c r="N5" s="175"/>
-      <c r="O5" s="175"/>
-      <c r="P5" s="175"/>
-      <c r="Q5" s="176"/>
-    </row>
-    <row r="6" spans="1:20" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:20" ht="330.75" customHeight="1" thickBot="1">
+      <c r="A5" s="172" t="s">
+        <v>1</v>
+      </c>
+      <c r="B5" s="173"/>
+      <c r="C5" s="173"/>
+      <c r="D5" s="173"/>
+      <c r="E5" s="173"/>
+      <c r="F5" s="173"/>
+      <c r="G5" s="173"/>
+      <c r="H5" s="173"/>
+      <c r="I5" s="173"/>
+      <c r="J5" s="173"/>
+      <c r="K5" s="173"/>
+      <c r="L5" s="173"/>
+      <c r="M5" s="173"/>
+      <c r="N5" s="173"/>
+      <c r="O5" s="173"/>
+      <c r="P5" s="173"/>
+      <c r="Q5" s="174"/>
+    </row>
+    <row r="6" spans="1:20" ht="24.75" customHeight="1">
       <c r="A6"/>
       <c r="B6"/>
       <c r="C6"/>
@@ -2824,87 +2828,87 @@
       <c r="P6"/>
       <c r="Q6"/>
     </row>
-    <row r="7" spans="1:20" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="169" t="s">
-        <v>1</v>
-      </c>
-      <c r="B7" s="170"/>
-      <c r="C7" s="170"/>
-      <c r="D7" s="170"/>
-      <c r="E7" s="170"/>
-      <c r="F7" s="170"/>
-      <c r="G7" s="170"/>
-      <c r="H7" s="170"/>
-      <c r="I7" s="170"/>
-      <c r="J7" s="170"/>
-      <c r="K7" s="170"/>
-      <c r="L7" s="170"/>
-      <c r="M7" s="170"/>
-      <c r="N7" s="170"/>
-      <c r="O7" s="170"/>
-      <c r="P7" s="170"/>
-      <c r="Q7" s="170"/>
-    </row>
-    <row r="8" spans="1:20" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="9" spans="1:20" ht="96" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:20" ht="22.5" customHeight="1">
+      <c r="A7" s="167" t="s">
+        <v>2</v>
+      </c>
+      <c r="B7" s="176"/>
+      <c r="C7" s="176"/>
+      <c r="D7" s="176"/>
+      <c r="E7" s="176"/>
+      <c r="F7" s="176"/>
+      <c r="G7" s="176"/>
+      <c r="H7" s="176"/>
+      <c r="I7" s="176"/>
+      <c r="J7" s="176"/>
+      <c r="K7" s="176"/>
+      <c r="L7" s="176"/>
+      <c r="M7" s="176"/>
+      <c r="N7" s="176"/>
+      <c r="O7" s="176"/>
+      <c r="P7" s="176"/>
+      <c r="Q7" s="176"/>
+    </row>
+    <row r="8" spans="1:20" ht="16.5" thickBot="1"/>
+    <row r="9" spans="1:20" ht="96" customHeight="1" thickBot="1">
       <c r="A9" s="36" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B9" s="40" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C9" s="41" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D9" s="41" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E9" s="41" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F9" s="41" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G9" s="41" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H9" s="41" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="I9" s="41" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="J9" s="41" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="K9" s="41" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="L9" s="41" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="M9" s="41" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="N9" s="41" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="O9" s="41" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="P9" s="41" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="Q9" s="42" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="10" spans="1:20" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" ht="23.25" customHeight="1">
       <c r="A10" s="82" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B10" s="81" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C10" s="83">
         <v>2</v>
@@ -2919,7 +2923,7 @@
         <v>1</v>
       </c>
       <c r="G10" s="83" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H10" s="83">
         <v>5</v>
@@ -2929,7 +2933,7 @@
       </c>
       <c r="J10" s="83"/>
       <c r="K10" s="83" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="L10" s="84"/>
       <c r="M10" s="84"/>
@@ -2937,15 +2941,15 @@
       <c r="O10" s="84"/>
       <c r="P10" s="84"/>
       <c r="Q10" s="85" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="11" spans="1:20" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" ht="24.75" customHeight="1">
       <c r="A11" s="66" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B11" s="62" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C11" s="68">
         <v>2</v>
@@ -2960,7 +2964,7 @@
         <v>1</v>
       </c>
       <c r="G11" s="86" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H11" s="68">
         <v>6</v>
@@ -2970,7 +2974,7 @@
       </c>
       <c r="J11" s="68"/>
       <c r="K11" s="68" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="L11" s="70"/>
       <c r="M11" s="70"/>
@@ -2978,15 +2982,15 @@
       <c r="O11" s="70"/>
       <c r="P11" s="70"/>
       <c r="Q11" s="87" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="12" spans="1:20" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20" ht="24" customHeight="1">
       <c r="A12" s="66" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B12" s="62" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C12" s="68">
         <v>2</v>
@@ -3001,7 +3005,7 @@
         <v>0</v>
       </c>
       <c r="G12" s="86" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H12" s="68">
         <v>5</v>
@@ -3011,7 +3015,7 @@
       </c>
       <c r="J12" s="68"/>
       <c r="K12" s="68" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="L12" s="70"/>
       <c r="M12" s="70"/>
@@ -3019,18 +3023,18 @@
       <c r="O12" s="70"/>
       <c r="P12" s="70"/>
       <c r="Q12" s="87" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="R12" s="38"/>
       <c r="S12" s="38"/>
       <c r="T12" s="38"/>
     </row>
-    <row r="13" spans="1:20" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:20" ht="27.75" customHeight="1">
       <c r="A13" s="66" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B13" s="62" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C13" s="68">
         <v>2</v>
@@ -3045,7 +3049,7 @@
         <v>1</v>
       </c>
       <c r="G13" s="68" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H13" s="68">
         <v>5</v>
@@ -3055,7 +3059,7 @@
       </c>
       <c r="J13" s="68"/>
       <c r="K13" s="68" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="L13" s="70"/>
       <c r="M13" s="70"/>
@@ -3063,15 +3067,15 @@
       <c r="O13" s="70"/>
       <c r="P13" s="70"/>
       <c r="Q13" s="87" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="14" spans="1:20" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" ht="24" customHeight="1">
       <c r="A14" s="66" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B14" s="62" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C14" s="68">
         <v>0</v>
@@ -3086,7 +3090,7 @@
         <v>0</v>
       </c>
       <c r="G14" s="86" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H14" s="68">
         <v>4</v>
@@ -3096,7 +3100,7 @@
       </c>
       <c r="J14" s="68"/>
       <c r="K14" s="68" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="L14" s="70"/>
       <c r="M14" s="70"/>
@@ -3104,15 +3108,15 @@
       <c r="O14" s="70"/>
       <c r="P14" s="70"/>
       <c r="Q14" s="88" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="15" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" ht="30" customHeight="1">
       <c r="A15" s="66" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B15" s="104" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C15" s="68">
         <v>0</v>
@@ -3127,7 +3131,7 @@
         <v>0</v>
       </c>
       <c r="G15" s="68" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H15" s="68">
         <v>1</v>
@@ -3137,7 +3141,7 @@
       </c>
       <c r="J15" s="68"/>
       <c r="K15" s="68" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="L15" s="70"/>
       <c r="M15" s="70"/>
@@ -3145,15 +3149,15 @@
       <c r="O15" s="70"/>
       <c r="P15" s="70"/>
       <c r="Q15" s="89" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="16" spans="1:20" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" ht="22.5" customHeight="1">
       <c r="A16" s="66" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B16" s="62" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C16" s="68">
         <v>1</v>
@@ -3168,7 +3172,7 @@
         <v>0</v>
       </c>
       <c r="G16" s="68" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H16" s="68">
         <v>3</v>
@@ -3178,7 +3182,7 @@
       </c>
       <c r="J16" s="68"/>
       <c r="K16" s="68" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="L16" s="70"/>
       <c r="M16" s="70"/>
@@ -3186,15 +3190,15 @@
       <c r="O16" s="70"/>
       <c r="P16" s="70"/>
       <c r="Q16" s="88" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" ht="32.25" customHeight="1">
       <c r="A17" s="66" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B17" s="90" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C17" s="68">
         <v>2</v>
@@ -3209,7 +3213,7 @@
         <v>2</v>
       </c>
       <c r="G17" s="86" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H17" s="68">
         <v>6</v>
@@ -3218,26 +3222,26 @@
         <v>2</v>
       </c>
       <c r="J17" s="91" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="K17" s="70"/>
       <c r="L17" s="68" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="M17" s="70"/>
       <c r="N17" s="70"/>
       <c r="O17" s="70"/>
       <c r="P17" s="70"/>
       <c r="Q17" s="88" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" ht="33" customHeight="1">
       <c r="A18" s="66" t="s">
-        <v>309</v>
+        <v>52</v>
       </c>
       <c r="B18" s="62" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C18" s="68">
         <v>2</v>
@@ -3252,7 +3256,7 @@
         <v>1</v>
       </c>
       <c r="G18" s="86" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H18" s="68">
         <v>6</v>
@@ -3261,26 +3265,26 @@
         <v>2</v>
       </c>
       <c r="J18" s="91" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="K18" s="70"/>
       <c r="L18" s="68" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="M18" s="70"/>
       <c r="N18" s="70"/>
       <c r="O18" s="70"/>
       <c r="P18" s="70"/>
       <c r="Q18" s="88" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17" ht="48" customHeight="1" x14ac:dyDescent="0.25">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" ht="48" customHeight="1">
       <c r="A19" s="66" t="s">
-        <v>105</v>
+        <v>54</v>
       </c>
       <c r="B19" s="62" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="C19" s="68">
         <v>1</v>
@@ -3295,7 +3299,7 @@
         <v>0</v>
       </c>
       <c r="G19" s="86" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H19" s="68">
         <v>3</v>
@@ -3304,26 +3308,26 @@
         <v>2</v>
       </c>
       <c r="J19" s="69" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="K19" s="70"/>
       <c r="L19" s="68" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="M19" s="70"/>
       <c r="N19" s="70"/>
       <c r="O19" s="70"/>
       <c r="P19" s="70"/>
       <c r="Q19" s="88" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" ht="34.5" customHeight="1">
       <c r="A20" s="66" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="B20" s="62" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="C20" s="68">
         <v>2</v>
@@ -3338,7 +3342,7 @@
         <v>0</v>
       </c>
       <c r="G20" s="68" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="H20" s="68">
         <v>2</v>
@@ -3347,26 +3351,26 @@
         <v>2</v>
       </c>
       <c r="J20" s="69" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="K20" s="71"/>
       <c r="L20" s="68" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="M20" s="70"/>
       <c r="N20" s="70"/>
       <c r="O20" s="70"/>
       <c r="P20" s="70"/>
       <c r="Q20" s="88" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17" ht="37.5" customHeight="1">
       <c r="A21" s="66" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="B21" s="62" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="C21" s="68">
         <v>0</v>
@@ -3381,7 +3385,7 @@
         <v>1</v>
       </c>
       <c r="G21" s="68" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H21" s="68">
         <v>3</v>
@@ -3390,42 +3394,42 @@
         <v>2</v>
       </c>
       <c r="J21" s="91" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="K21" s="71"/>
       <c r="L21" s="68" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="M21" s="70"/>
       <c r="N21" s="70"/>
       <c r="O21" s="70"/>
       <c r="P21" s="70"/>
       <c r="Q21" s="88" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" ht="38.25" customHeight="1">
+      <c r="A22" s="66" t="s">
+        <v>67</v>
+      </c>
+      <c r="B22" s="62" t="s">
+        <v>68</v>
+      </c>
+      <c r="C22" s="68">
+        <v>2</v>
+      </c>
+      <c r="D22" s="68">
+        <v>0</v>
+      </c>
+      <c r="E22" s="68">
+        <v>0</v>
+      </c>
+      <c r="F22" s="68">
+        <v>0</v>
+      </c>
+      <c r="G22" s="68" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="22" spans="1:17" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="66" t="s">
-        <v>64</v>
-      </c>
-      <c r="B22" s="62" t="s">
-        <v>65</v>
-      </c>
-      <c r="C22" s="68">
-        <v>2</v>
-      </c>
-      <c r="D22" s="68">
-        <v>0</v>
-      </c>
-      <c r="E22" s="68">
-        <v>0</v>
-      </c>
-      <c r="F22" s="68">
-        <v>0</v>
-      </c>
-      <c r="G22" s="68" t="s">
-        <v>57</v>
-      </c>
       <c r="H22" s="68">
         <v>2</v>
       </c>
@@ -3433,26 +3437,26 @@
         <v>2</v>
       </c>
       <c r="J22" s="69" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="K22" s="71"/>
       <c r="L22" s="68" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="M22" s="70"/>
       <c r="N22" s="70"/>
       <c r="O22" s="70"/>
       <c r="P22" s="70"/>
       <c r="Q22" s="88" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17" ht="36" customHeight="1">
       <c r="A23" s="66" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="B23" s="62" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="C23" s="68">
         <v>0</v>
@@ -3467,7 +3471,7 @@
         <v>1</v>
       </c>
       <c r="G23" s="68" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H23" s="68">
         <v>3</v>
@@ -3476,26 +3480,26 @@
         <v>2</v>
       </c>
       <c r="J23" s="91" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="K23" s="71"/>
       <c r="L23" s="68" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="M23" s="70"/>
       <c r="N23" s="70"/>
       <c r="O23" s="70"/>
       <c r="P23" s="70"/>
       <c r="Q23" s="88" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17" ht="39" customHeight="1">
       <c r="A24" s="66" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="B24" s="62" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="C24" s="68">
         <v>2</v>
@@ -3510,7 +3514,7 @@
         <v>0</v>
       </c>
       <c r="G24" s="68" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="H24" s="68">
         <v>2</v>
@@ -3519,26 +3523,26 @@
         <v>2</v>
       </c>
       <c r="J24" s="69" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="K24" s="71"/>
       <c r="L24" s="68" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="M24" s="70"/>
       <c r="N24" s="70"/>
       <c r="O24" s="70"/>
       <c r="P24" s="70"/>
       <c r="Q24" s="88" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" ht="31.5" customHeight="1">
       <c r="A25" s="66" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="B25" s="62" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="C25" s="68">
         <v>0</v>
@@ -3553,7 +3557,7 @@
         <v>1</v>
       </c>
       <c r="G25" s="68" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H25" s="68">
         <v>3</v>
@@ -3562,26 +3566,26 @@
         <v>2</v>
       </c>
       <c r="J25" s="91" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="K25" s="71"/>
       <c r="L25" s="68" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="M25" s="70"/>
       <c r="N25" s="70"/>
       <c r="O25" s="70"/>
       <c r="P25" s="70"/>
       <c r="Q25" s="88" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="26" spans="1:17" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" ht="40.5" customHeight="1">
       <c r="A26" s="66" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="B26" s="62" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="C26" s="68">
         <v>2</v>
@@ -3596,7 +3600,7 @@
         <v>0</v>
       </c>
       <c r="G26" s="68" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="H26" s="68">
         <v>2</v>
@@ -3605,26 +3609,26 @@
         <v>3</v>
       </c>
       <c r="J26" s="69" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="K26" s="71"/>
       <c r="L26" s="70"/>
       <c r="M26" s="68" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="N26" s="70"/>
       <c r="O26" s="70"/>
       <c r="P26" s="70"/>
       <c r="Q26" s="88" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="27" spans="1:17" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" ht="36" customHeight="1">
       <c r="A27" s="66" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="B27" s="62" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="C27" s="68">
         <v>0</v>
@@ -3639,7 +3643,7 @@
         <v>1</v>
       </c>
       <c r="G27" s="68" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H27" s="68">
         <v>3</v>
@@ -3648,26 +3652,26 @@
         <v>3</v>
       </c>
       <c r="J27" s="69" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="K27" s="71"/>
       <c r="L27" s="70"/>
       <c r="M27" s="68" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="N27" s="70"/>
       <c r="O27" s="70"/>
       <c r="P27" s="70"/>
       <c r="Q27" s="88" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="28" spans="1:17" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" ht="43.5" customHeight="1">
       <c r="A28" s="66" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B28" s="62" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="C28" s="68">
         <v>1</v>
@@ -3682,7 +3686,7 @@
         <v>1</v>
       </c>
       <c r="G28" s="86" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H28" s="68">
         <v>3</v>
@@ -3691,26 +3695,26 @@
         <v>4</v>
       </c>
       <c r="J28" s="91" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="K28" s="70"/>
       <c r="L28" s="70"/>
       <c r="M28" s="70"/>
       <c r="N28" s="68" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="O28" s="70"/>
       <c r="P28" s="70"/>
       <c r="Q28" s="88" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="29" spans="1:17" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17" ht="37.5" customHeight="1">
       <c r="A29" s="66" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="B29" s="62" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="C29" s="68">
         <v>2</v>
@@ -3725,7 +3729,7 @@
         <v>0</v>
       </c>
       <c r="G29" s="68" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="H29" s="68">
         <v>2</v>
@@ -3734,26 +3738,26 @@
         <v>4</v>
       </c>
       <c r="J29" s="69" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="K29" s="70"/>
       <c r="L29" s="70"/>
       <c r="M29" s="70"/>
       <c r="N29" s="68" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="O29" s="70"/>
       <c r="P29" s="70"/>
       <c r="Q29" s="88" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="30" spans="1:17" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17" ht="29.25" customHeight="1">
       <c r="A30" s="66" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="B30" s="62" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="C30" s="68">
         <v>0</v>
@@ -3768,7 +3772,7 @@
         <v>0</v>
       </c>
       <c r="G30" s="86" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H30" s="68">
         <v>2</v>
@@ -3777,26 +3781,26 @@
         <v>4</v>
       </c>
       <c r="J30" s="69" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="K30" s="71"/>
       <c r="L30" s="70"/>
       <c r="M30" s="70"/>
       <c r="N30" s="68" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="O30" s="70"/>
       <c r="P30" s="70"/>
       <c r="Q30" s="88" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="31" spans="1:17" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17" ht="27" customHeight="1">
       <c r="A31" s="92" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="B31" s="62" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="C31" s="68">
         <v>1</v>
@@ -3811,7 +3815,7 @@
         <v>1</v>
       </c>
       <c r="G31" s="86" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H31" s="68">
         <v>3</v>
@@ -3820,26 +3824,26 @@
         <v>5</v>
       </c>
       <c r="J31" s="91" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="K31" s="71"/>
       <c r="L31" s="70"/>
       <c r="M31" s="70"/>
       <c r="N31" s="70"/>
       <c r="O31" s="68" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="P31" s="70"/>
       <c r="Q31" s="88" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="32" spans="1:17" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" ht="33.75" customHeight="1">
       <c r="A32" s="92" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B32" s="62" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="C32" s="68">
         <v>2</v>
@@ -3854,7 +3858,7 @@
         <v>0</v>
       </c>
       <c r="G32" s="68" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="H32" s="68">
         <v>2</v>
@@ -3863,26 +3867,26 @@
         <v>5</v>
       </c>
       <c r="J32" s="69" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="K32" s="71"/>
       <c r="L32" s="70"/>
       <c r="M32" s="70"/>
       <c r="N32" s="70"/>
       <c r="O32" s="68" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="P32" s="70"/>
       <c r="Q32" s="88" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="33" spans="1:19" ht="37.9" customHeight="1" x14ac:dyDescent="0.25">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="33" spans="1:19" ht="37.9" customHeight="1">
       <c r="A33" s="92" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="B33" s="62" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="C33" s="68">
         <v>0</v>
@@ -3897,7 +3901,7 @@
         <v>1</v>
       </c>
       <c r="G33" s="86" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H33" s="68">
         <v>3</v>
@@ -3906,26 +3910,26 @@
         <v>5</v>
       </c>
       <c r="J33" s="91" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="K33" s="71"/>
       <c r="L33" s="70"/>
       <c r="M33" s="70"/>
       <c r="N33" s="70"/>
       <c r="O33" s="68" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="P33" s="70"/>
       <c r="Q33" s="88" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="34" spans="1:19" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="34" spans="1:19" ht="36" customHeight="1">
       <c r="A34" s="66" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="B34" s="62" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="C34" s="68">
         <v>2</v>
@@ -3940,7 +3944,7 @@
         <v>1</v>
       </c>
       <c r="G34" s="68" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="H34" s="68">
         <v>3</v>
@@ -3949,41 +3953,41 @@
         <v>5</v>
       </c>
       <c r="J34" s="69" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="K34" s="71"/>
       <c r="L34" s="70"/>
       <c r="M34" s="70"/>
       <c r="N34" s="70"/>
       <c r="O34" s="68" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="P34" s="70"/>
       <c r="Q34" s="88" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="35" spans="1:19" ht="22.5" customHeight="1" thickBot="1">
+      <c r="A35" s="73" t="s">
+        <v>101</v>
+      </c>
+      <c r="B35" s="74" t="s">
+        <v>102</v>
+      </c>
+      <c r="C35" s="76">
+        <v>2</v>
+      </c>
+      <c r="D35" s="76">
+        <v>0</v>
+      </c>
+      <c r="E35" s="76">
+        <v>0</v>
+      </c>
+      <c r="F35" s="76">
+        <v>1</v>
+      </c>
+      <c r="G35" s="76" t="s">
         <v>60</v>
-      </c>
-    </row>
-    <row r="35" spans="1:19" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="73" t="s">
-        <v>98</v>
-      </c>
-      <c r="B35" s="74" t="s">
-        <v>99</v>
-      </c>
-      <c r="C35" s="76">
-        <v>2</v>
-      </c>
-      <c r="D35" s="76">
-        <v>0</v>
-      </c>
-      <c r="E35" s="76">
-        <v>0</v>
-      </c>
-      <c r="F35" s="76">
-        <v>1</v>
-      </c>
-      <c r="G35" s="76" t="s">
-        <v>57</v>
       </c>
       <c r="H35" s="76">
         <v>3</v>
@@ -3998,17 +4002,17 @@
       <c r="N35" s="78"/>
       <c r="O35" s="78"/>
       <c r="P35" s="76" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="Q35" s="94" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="S35" s="37"/>
     </row>
-    <row r="36" spans="1:19" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:19" ht="25.5" customHeight="1" thickBot="1">
       <c r="A36" s="53"/>
       <c r="B36" s="54" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="C36" s="55"/>
       <c r="D36" s="55"/>
@@ -4047,7 +4051,7 @@
       <c r="Q36" s="58"/>
       <c r="S36" s="37"/>
     </row>
-    <row r="37" spans="1:19" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:19" ht="25.5" customHeight="1">
       <c r="A37" s="156"/>
       <c r="B37" s="157"/>
       <c r="C37" s="156"/>
@@ -4067,7 +4071,7 @@
       <c r="Q37" s="156"/>
       <c r="S37" s="37"/>
     </row>
-    <row r="38" spans="1:19" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:19" ht="25.5" customHeight="1">
       <c r="A38" s="156"/>
       <c r="B38" s="157"/>
       <c r="C38" s="156"/>
@@ -4087,7 +4091,7 @@
       <c r="Q38" s="156"/>
       <c r="S38" s="37"/>
     </row>
-    <row r="39" spans="1:19" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:19" ht="25.5" customHeight="1">
       <c r="A39" s="156"/>
       <c r="B39" s="157"/>
       <c r="C39" s="156"/>
@@ -4107,89 +4111,89 @@
       <c r="Q39" s="156"/>
       <c r="S39" s="37"/>
     </row>
-    <row r="40" spans="1:19" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A40" s="169" t="s">
-        <v>101</v>
-      </c>
-      <c r="B40" s="170"/>
-      <c r="C40" s="170"/>
-      <c r="D40" s="170"/>
-      <c r="E40" s="170"/>
-      <c r="F40" s="170"/>
-      <c r="G40" s="170"/>
-      <c r="H40" s="170"/>
-      <c r="I40" s="170"/>
-      <c r="J40" s="170"/>
-      <c r="K40" s="170"/>
-      <c r="L40" s="170"/>
-      <c r="M40" s="170"/>
-      <c r="N40" s="170"/>
-      <c r="O40" s="170"/>
-      <c r="P40" s="170"/>
-      <c r="Q40" s="170"/>
-    </row>
-    <row r="41" spans="1:19" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:19" ht="23.25">
+      <c r="A40" s="167" t="s">
+        <v>104</v>
+      </c>
+      <c r="B40" s="176"/>
+      <c r="C40" s="176"/>
+      <c r="D40" s="176"/>
+      <c r="E40" s="176"/>
+      <c r="F40" s="176"/>
+      <c r="G40" s="176"/>
+      <c r="H40" s="176"/>
+      <c r="I40" s="176"/>
+      <c r="J40" s="176"/>
+      <c r="K40" s="176"/>
+      <c r="L40" s="176"/>
+      <c r="M40" s="176"/>
+      <c r="N40" s="176"/>
+      <c r="O40" s="176"/>
+      <c r="P40" s="176"/>
+      <c r="Q40" s="176"/>
+    </row>
+    <row r="41" spans="1:19" ht="22.5" customHeight="1" thickBot="1">
       <c r="A41" s="44"/>
     </row>
-    <row r="42" spans="1:19" ht="102.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:19" ht="102.75" customHeight="1" thickBot="1">
       <c r="A42" s="36" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B42" s="40" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C42" s="41" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D42" s="41" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E42" s="41" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F42" s="41" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G42" s="41" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H42" s="41" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="I42" s="41" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="J42" s="41" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="K42" s="41" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="L42" s="41" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="M42" s="41" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="N42" s="41" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="O42" s="41" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="P42" s="39" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="Q42" s="42" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="43" spans="1:19" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="43" spans="1:19" ht="36.75" customHeight="1">
       <c r="A43" s="95" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="B43" s="96" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="C43" s="97">
         <v>1</v>
@@ -4204,35 +4208,35 @@
         <v>1</v>
       </c>
       <c r="G43" s="86" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H43" s="86">
         <v>4</v>
       </c>
       <c r="I43" s="98" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="J43" s="99" t="s">
-        <v>105</v>
+        <v>54</v>
       </c>
       <c r="K43" s="86"/>
       <c r="L43" s="86"/>
       <c r="M43" s="86" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="N43" s="86"/>
       <c r="O43" s="86"/>
       <c r="P43" s="86"/>
       <c r="Q43" s="100" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="44" spans="1:19" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="44" spans="1:19" ht="30" customHeight="1">
       <c r="A44" s="66" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B44" s="62" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="C44" s="67">
         <v>2</v>
@@ -4247,7 +4251,7 @@
         <v>1</v>
       </c>
       <c r="G44" s="68" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H44" s="68">
         <v>5</v>
@@ -4256,26 +4260,26 @@
         <v>3</v>
       </c>
       <c r="J44" s="91" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="K44" s="70"/>
       <c r="L44" s="70"/>
       <c r="M44" s="68" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="N44" s="71"/>
       <c r="O44" s="70"/>
       <c r="P44" s="70"/>
       <c r="Q44" s="72" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="45" spans="1:19" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="45" spans="1:19" ht="36.75" customHeight="1">
       <c r="A45" s="66" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B45" s="62" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="C45" s="67">
         <v>2</v>
@@ -4290,7 +4294,7 @@
         <v>0</v>
       </c>
       <c r="G45" s="68" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="H45" s="68">
         <v>2</v>
@@ -4299,27 +4303,27 @@
         <v>3</v>
       </c>
       <c r="J45" s="69" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="K45" s="70"/>
       <c r="L45" s="70"/>
       <c r="M45" s="68" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="N45" s="71"/>
       <c r="O45" s="70"/>
       <c r="P45" s="70"/>
       <c r="Q45" s="72" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="46" spans="1:19" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="46" spans="1:19" ht="33" customHeight="1">
       <c r="A46" s="66" t="s">
+        <v>115</v>
+      </c>
+      <c r="B46" s="62" t="s">
         <v>113</v>
       </c>
-      <c r="B46" s="62" t="s">
-        <v>111</v>
-      </c>
       <c r="C46" s="67">
         <v>0</v>
       </c>
@@ -4333,7 +4337,7 @@
         <v>1</v>
       </c>
       <c r="G46" s="68" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H46" s="68">
         <v>3</v>
@@ -4342,26 +4346,26 @@
         <v>3</v>
       </c>
       <c r="J46" s="69" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="K46" s="70"/>
       <c r="L46" s="70"/>
       <c r="M46" s="68" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="N46" s="71"/>
       <c r="O46" s="70"/>
       <c r="P46" s="70"/>
       <c r="Q46" s="72" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="47" spans="1:19" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="47" spans="1:19" ht="39.75" customHeight="1">
       <c r="A47" s="66" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B47" s="62" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="C47" s="67">
         <v>2</v>
@@ -4376,7 +4380,7 @@
         <v>1</v>
       </c>
       <c r="G47" s="68" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="H47" s="68">
         <v>3</v>
@@ -4385,27 +4389,27 @@
         <v>3</v>
       </c>
       <c r="J47" s="69" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="K47" s="70"/>
       <c r="L47" s="70"/>
       <c r="M47" s="68" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="N47" s="71"/>
       <c r="O47" s="70"/>
       <c r="P47" s="70"/>
       <c r="Q47" s="72" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="48" spans="1:19" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="48" spans="1:19" ht="28.5" customHeight="1">
       <c r="A48" s="66" t="s">
+        <v>119</v>
+      </c>
+      <c r="B48" s="62" t="s">
         <v>117</v>
       </c>
-      <c r="B48" s="62" t="s">
-        <v>115</v>
-      </c>
       <c r="C48" s="67">
         <v>0</v>
       </c>
@@ -4419,7 +4423,7 @@
         <v>1</v>
       </c>
       <c r="G48" s="68" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H48" s="68">
         <v>3</v>
@@ -4428,26 +4432,26 @@
         <v>3</v>
       </c>
       <c r="J48" s="69" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="K48" s="70"/>
       <c r="L48" s="70"/>
       <c r="M48" s="68" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="N48" s="71"/>
       <c r="O48" s="70"/>
       <c r="P48" s="70"/>
       <c r="Q48" s="72" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="49" spans="1:17" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="49" spans="1:17" ht="29.25" customHeight="1">
       <c r="A49" s="66" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B49" s="90" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="C49" s="67">
         <v>2</v>
@@ -4462,7 +4466,7 @@
         <v>0</v>
       </c>
       <c r="G49" s="68" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="H49" s="68">
         <v>2</v>
@@ -4471,26 +4475,26 @@
         <v>3</v>
       </c>
       <c r="J49" s="69" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="K49" s="70"/>
       <c r="L49" s="70"/>
       <c r="M49" s="68" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="N49" s="101"/>
       <c r="O49" s="70"/>
       <c r="P49" s="70"/>
       <c r="Q49" s="72" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="50" spans="1:17" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="50" spans="1:17" ht="27.75" customHeight="1">
       <c r="A50" s="66" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B50" s="90" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="C50" s="67">
         <v>0</v>
@@ -4505,7 +4509,7 @@
         <v>1</v>
       </c>
       <c r="G50" s="68" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H50" s="68">
         <v>3</v>
@@ -4517,21 +4521,21 @@
       <c r="K50" s="70"/>
       <c r="L50" s="70"/>
       <c r="M50" s="68" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="N50" s="101"/>
       <c r="O50" s="70"/>
       <c r="P50" s="70"/>
       <c r="Q50" s="72" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="51" spans="1:17" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="51" spans="1:17" ht="33" customHeight="1">
       <c r="A51" s="66" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B51" s="62" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="C51" s="67">
         <v>2</v>
@@ -4546,7 +4550,7 @@
         <v>1</v>
       </c>
       <c r="G51" s="68" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H51" s="68">
         <v>5</v>
@@ -4555,26 +4559,26 @@
         <v>4</v>
       </c>
       <c r="J51" s="91" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="K51" s="70"/>
       <c r="L51" s="70"/>
       <c r="M51" s="71"/>
       <c r="N51" s="68" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="O51" s="70"/>
       <c r="P51" s="70"/>
       <c r="Q51" s="72" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="52" spans="1:17" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="52" spans="1:17" ht="35.25" customHeight="1">
       <c r="A52" s="102" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B52" s="62" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="C52" s="67">
         <v>2</v>
@@ -4589,7 +4593,7 @@
         <v>0</v>
       </c>
       <c r="G52" s="68" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="H52" s="68">
         <v>2</v>
@@ -4598,27 +4602,27 @@
         <v>4</v>
       </c>
       <c r="J52" s="69" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="K52" s="70"/>
       <c r="L52" s="70"/>
       <c r="M52" s="71"/>
       <c r="N52" s="68" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="O52" s="70"/>
       <c r="P52" s="70"/>
       <c r="Q52" s="72" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="53" spans="1:17" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="53" spans="1:17" ht="28.5" customHeight="1">
       <c r="A53" s="102" t="s">
+        <v>128</v>
+      </c>
+      <c r="B53" s="62" t="s">
         <v>126</v>
       </c>
-      <c r="B53" s="62" t="s">
-        <v>124</v>
-      </c>
       <c r="C53" s="67">
         <v>0</v>
       </c>
@@ -4632,7 +4636,7 @@
         <v>1</v>
       </c>
       <c r="G53" s="68" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H53" s="68">
         <v>3</v>
@@ -4641,26 +4645,26 @@
         <v>4</v>
       </c>
       <c r="J53" s="69" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="K53" s="70"/>
       <c r="L53" s="70"/>
       <c r="M53" s="71"/>
       <c r="N53" s="68" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="O53" s="70"/>
       <c r="P53" s="70"/>
       <c r="Q53" s="72" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="54" spans="1:17" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="54" spans="1:17" ht="36.75" customHeight="1">
       <c r="A54" s="66" t="s">
-        <v>304</v>
+        <v>129</v>
       </c>
       <c r="B54" s="52" t="s">
-        <v>156</v>
+        <v>130</v>
       </c>
       <c r="C54" s="68">
         <v>1</v>
@@ -4675,7 +4679,7 @@
         <v>0</v>
       </c>
       <c r="G54" s="68" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H54" s="68">
         <v>3</v>
@@ -4688,20 +4692,20 @@
       <c r="L54" s="68"/>
       <c r="M54" s="101"/>
       <c r="N54" s="68" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="O54" s="101"/>
       <c r="P54" s="101"/>
       <c r="Q54" s="103" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="55" spans="1:17" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="55" spans="1:17" ht="36" customHeight="1">
       <c r="A55" s="66" t="s">
-        <v>305</v>
+        <v>131</v>
       </c>
       <c r="B55" s="104" t="s">
-        <v>168</v>
+        <v>132</v>
       </c>
       <c r="C55" s="105">
         <v>2</v>
@@ -4716,32 +4720,32 @@
         <v>1</v>
       </c>
       <c r="G55" s="68" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H55" s="68">
         <v>4</v>
       </c>
       <c r="I55" s="106" t="s">
-        <v>144</v>
+        <v>133</v>
       </c>
       <c r="J55" s="69"/>
       <c r="K55" s="68"/>
       <c r="L55" s="68"/>
       <c r="M55" s="68"/>
       <c r="N55" s="68" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="P55" s="68"/>
       <c r="Q55" s="72" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="56" spans="1:17" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="56" spans="1:17" ht="38.25" customHeight="1">
       <c r="A56" s="107" t="s">
-        <v>306</v>
+        <v>134</v>
       </c>
       <c r="B56" s="108" t="s">
-        <v>169</v>
+        <v>135</v>
       </c>
       <c r="C56" s="109">
         <v>2</v>
@@ -4756,13 +4760,13 @@
         <v>1</v>
       </c>
       <c r="G56" s="110" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H56" s="110">
         <v>3</v>
       </c>
       <c r="I56" s="111" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="J56" s="112"/>
       <c r="K56" s="110"/>
@@ -4770,19 +4774,19 @@
       <c r="M56" s="110"/>
       <c r="N56" s="110"/>
       <c r="O56" s="110" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="P56" s="110"/>
       <c r="Q56" s="113" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="57" spans="1:17" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="57" spans="1:17" ht="38.25" customHeight="1">
       <c r="A57" s="92" t="s">
-        <v>127</v>
+        <v>137</v>
       </c>
       <c r="B57" s="62" t="s">
-        <v>128</v>
+        <v>138</v>
       </c>
       <c r="C57" s="67">
         <v>2</v>
@@ -4797,7 +4801,7 @@
         <v>0</v>
       </c>
       <c r="G57" s="68" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="H57" s="68">
         <v>2</v>
@@ -4806,26 +4810,26 @@
         <v>5</v>
       </c>
       <c r="J57" s="69" t="s">
-        <v>129</v>
+        <v>139</v>
       </c>
       <c r="K57" s="70"/>
       <c r="L57" s="70"/>
       <c r="M57" s="71"/>
       <c r="N57" s="68"/>
       <c r="O57" s="68" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="P57" s="70"/>
       <c r="Q57" s="72" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="58" spans="1:17" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="58" spans="1:17" ht="38.25" customHeight="1">
       <c r="A58" s="92" t="s">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="B58" s="62" t="s">
-        <v>128</v>
+        <v>138</v>
       </c>
       <c r="C58" s="67">
         <v>0</v>
@@ -4840,7 +4844,7 @@
         <v>1</v>
       </c>
       <c r="G58" s="68" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H58" s="68">
         <v>3</v>
@@ -4849,41 +4853,41 @@
         <v>5</v>
       </c>
       <c r="J58" s="69" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="K58" s="70"/>
       <c r="L58" s="70"/>
       <c r="M58" s="71"/>
       <c r="N58" s="68"/>
       <c r="O58" s="68" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="P58" s="70"/>
       <c r="Q58" s="72" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="59" spans="1:17" ht="41.25" customHeight="1">
+      <c r="A59" s="66" t="s">
+        <v>141</v>
+      </c>
+      <c r="B59" s="62" t="s">
+        <v>142</v>
+      </c>
+      <c r="C59" s="67">
+        <v>2</v>
+      </c>
+      <c r="D59" s="68">
+        <v>0</v>
+      </c>
+      <c r="E59" s="68">
+        <v>0</v>
+      </c>
+      <c r="F59" s="68">
+        <v>0</v>
+      </c>
+      <c r="G59" s="68" t="s">
         <v>60</v>
-      </c>
-    </row>
-    <row r="59" spans="1:17" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="66" t="s">
-        <v>131</v>
-      </c>
-      <c r="B59" s="62" t="s">
-        <v>132</v>
-      </c>
-      <c r="C59" s="67">
-        <v>2</v>
-      </c>
-      <c r="D59" s="68">
-        <v>0</v>
-      </c>
-      <c r="E59" s="68">
-        <v>0</v>
-      </c>
-      <c r="F59" s="68">
-        <v>0</v>
-      </c>
-      <c r="G59" s="68" t="s">
-        <v>57</v>
       </c>
       <c r="H59" s="68">
         <v>2</v>
@@ -4892,26 +4896,26 @@
         <v>5</v>
       </c>
       <c r="J59" s="69" t="s">
-        <v>133</v>
+        <v>143</v>
       </c>
       <c r="K59" s="70"/>
       <c r="L59" s="70"/>
       <c r="M59" s="71"/>
       <c r="N59" s="71"/>
       <c r="O59" s="68" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="P59" s="70"/>
       <c r="Q59" s="72" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="60" spans="1:17" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="60" spans="1:17" ht="39" customHeight="1" thickBot="1">
       <c r="A60" s="73" t="s">
-        <v>134</v>
+        <v>144</v>
       </c>
       <c r="B60" s="74" t="s">
-        <v>132</v>
+        <v>142</v>
       </c>
       <c r="C60" s="75">
         <v>0</v>
@@ -4926,7 +4930,7 @@
         <v>1</v>
       </c>
       <c r="G60" s="76" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H60" s="76">
         <v>3</v>
@@ -4935,21 +4939,21 @@
         <v>5</v>
       </c>
       <c r="J60" s="77" t="s">
-        <v>135</v>
+        <v>145</v>
       </c>
       <c r="K60" s="78"/>
       <c r="L60" s="78"/>
       <c r="M60" s="79"/>
       <c r="N60" s="79"/>
       <c r="O60" s="76" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="P60" s="78"/>
       <c r="Q60" s="80" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="61" spans="1:17" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="61" spans="1:17" ht="27" customHeight="1">
       <c r="A61" s="48"/>
       <c r="B61" s="59"/>
       <c r="C61" s="43"/>
@@ -4968,7 +4972,7 @@
       <c r="P61" s="48"/>
       <c r="Q61" s="48"/>
     </row>
-    <row r="62" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:17">
       <c r="A62" s="45"/>
       <c r="B62" s="46"/>
       <c r="C62" s="43"/>
@@ -4987,28 +4991,28 @@
       <c r="P62" s="48"/>
       <c r="Q62" s="48"/>
     </row>
-    <row r="63" spans="1:17" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A63" s="171" t="s">
-        <v>136</v>
-      </c>
-      <c r="B63" s="162"/>
-      <c r="C63" s="162"/>
-      <c r="D63" s="162"/>
-      <c r="E63" s="162"/>
-      <c r="F63" s="162"/>
-      <c r="G63" s="162"/>
-      <c r="H63" s="162"/>
-      <c r="I63" s="162"/>
-      <c r="J63" s="162"/>
-      <c r="K63" s="162"/>
-      <c r="L63" s="162"/>
-      <c r="M63" s="162"/>
-      <c r="N63" s="162"/>
-      <c r="O63" s="162"/>
-      <c r="P63" s="162"/>
-      <c r="Q63" s="162"/>
-    </row>
-    <row r="64" spans="1:17" ht="13.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:17" ht="26.25">
+      <c r="A63" s="168" t="s">
+        <v>146</v>
+      </c>
+      <c r="B63" s="177"/>
+      <c r="C63" s="177"/>
+      <c r="D63" s="177"/>
+      <c r="E63" s="177"/>
+      <c r="F63" s="177"/>
+      <c r="G63" s="177"/>
+      <c r="H63" s="177"/>
+      <c r="I63" s="177"/>
+      <c r="J63" s="177"/>
+      <c r="K63" s="177"/>
+      <c r="L63" s="177"/>
+      <c r="M63" s="177"/>
+      <c r="N63" s="177"/>
+      <c r="O63" s="177"/>
+      <c r="P63" s="177"/>
+      <c r="Q63" s="177"/>
+    </row>
+    <row r="64" spans="1:17" ht="13.9" customHeight="1" thickBot="1">
       <c r="A64" s="63"/>
       <c r="B64"/>
       <c r="C64"/>
@@ -5027,65 +5031,65 @@
       <c r="P64"/>
       <c r="Q64"/>
     </row>
-    <row r="65" spans="1:17" ht="93.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:17" ht="93.75" customHeight="1" thickBot="1">
       <c r="A65" s="36" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B65" s="51" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C65" s="41" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D65" s="41" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E65" s="41" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F65" s="41" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G65" s="41" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H65" s="41" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="I65" s="41" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="J65" s="41" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="K65" s="41" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="L65" s="41" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="M65" s="41" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="N65" s="41" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="O65" s="41" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="P65" s="41" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="Q65" s="42" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="66" spans="1:17" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="66" spans="1:17" ht="42.75" customHeight="1">
       <c r="A66" s="154" t="s">
-        <v>310</v>
+        <v>147</v>
       </c>
       <c r="B66" s="148" t="s">
-        <v>137</v>
+        <v>148</v>
       </c>
       <c r="C66" s="86">
         <v>2</v>
@@ -5100,7 +5104,7 @@
         <v>1</v>
       </c>
       <c r="G66" s="86" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H66" s="86">
         <v>5</v>
@@ -5109,28 +5113,28 @@
         <v>3.5</v>
       </c>
       <c r="J66" s="155" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="K66" s="86"/>
       <c r="L66" s="86"/>
       <c r="M66" s="86" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="N66" s="86"/>
       <c r="O66" s="86" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="P66" s="86"/>
       <c r="Q66" s="100" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="67" spans="1:17" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="67" spans="1:17" ht="52.5" customHeight="1">
       <c r="A67" s="66" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="B67" s="62" t="s">
-        <v>139</v>
+        <v>150</v>
       </c>
       <c r="C67" s="105">
         <v>2</v>
@@ -5145,35 +5149,35 @@
         <v>1</v>
       </c>
       <c r="G67" s="68" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H67" s="68">
         <v>5</v>
       </c>
       <c r="I67" s="106" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="J67" s="91" t="s">
-        <v>141</v>
+        <v>151</v>
       </c>
       <c r="K67" s="68"/>
       <c r="L67" s="68"/>
       <c r="M67" s="68"/>
       <c r="N67" s="68"/>
       <c r="O67" s="68" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="P67" s="68"/>
       <c r="Q67" s="100" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="68" spans="1:17" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="68" spans="1:17" ht="52.5" customHeight="1">
       <c r="A68" s="66" t="s">
-        <v>142</v>
+        <v>152</v>
       </c>
       <c r="B68" s="62" t="s">
-        <v>143</v>
+        <v>153</v>
       </c>
       <c r="C68" s="105">
         <v>2</v>
@@ -5188,35 +5192,35 @@
         <v>1</v>
       </c>
       <c r="G68" s="68" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H68" s="68">
         <v>5</v>
       </c>
       <c r="I68" s="106" t="s">
-        <v>144</v>
+        <v>133</v>
       </c>
       <c r="J68" s="149" t="s">
-        <v>145</v>
+        <v>154</v>
       </c>
       <c r="K68" s="68"/>
       <c r="L68" s="68"/>
       <c r="M68" s="68"/>
       <c r="N68" s="68" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="O68" s="68"/>
       <c r="P68" s="68"/>
       <c r="Q68" s="100" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="69" spans="1:17" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="69" spans="1:17" ht="56.25" customHeight="1">
       <c r="A69" s="66" t="s">
-        <v>146</v>
+        <v>155</v>
       </c>
       <c r="B69" s="61" t="s">
-        <v>147</v>
+        <v>156</v>
       </c>
       <c r="C69" s="105">
         <v>2</v>
@@ -5231,35 +5235,35 @@
         <v>1</v>
       </c>
       <c r="G69" s="68" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H69" s="68">
         <v>5</v>
       </c>
       <c r="I69" s="106" t="s">
-        <v>148</v>
+        <v>157</v>
       </c>
       <c r="J69" s="69" t="s">
-        <v>149</v>
+        <v>158</v>
       </c>
       <c r="K69" s="68"/>
       <c r="L69" s="68" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="M69" s="68"/>
       <c r="N69" s="68"/>
       <c r="O69" s="68"/>
       <c r="P69" s="68"/>
       <c r="Q69" s="100" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="70" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="70" spans="1:17" ht="30" customHeight="1">
       <c r="A70" s="114" t="s">
-        <v>150</v>
+        <v>159</v>
       </c>
       <c r="B70" s="61" t="s">
-        <v>151</v>
+        <v>160</v>
       </c>
       <c r="C70" s="105">
         <v>0</v>
@@ -5274,33 +5278,33 @@
         <v>0</v>
       </c>
       <c r="G70" s="68" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H70" s="68">
         <v>5</v>
       </c>
       <c r="I70" s="106" t="s">
-        <v>144</v>
+        <v>133</v>
       </c>
       <c r="J70" s="69"/>
       <c r="K70" s="68"/>
       <c r="L70" s="68"/>
       <c r="M70" s="68"/>
       <c r="N70" s="68" t="s">
-        <v>152</v>
+        <v>161</v>
       </c>
       <c r="O70" s="68"/>
       <c r="P70" s="68"/>
       <c r="Q70" s="100" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="71" spans="1:17" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="71" spans="1:17" ht="31.5" customHeight="1">
       <c r="A71" s="66" t="s">
-        <v>153</v>
+        <v>162</v>
       </c>
       <c r="B71" s="62" t="s">
-        <v>154</v>
+        <v>163</v>
       </c>
       <c r="C71" s="105">
         <v>2</v>
@@ -5315,13 +5319,13 @@
         <v>1</v>
       </c>
       <c r="G71" s="68" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H71" s="68">
         <v>5</v>
       </c>
       <c r="I71" s="106" t="s">
-        <v>155</v>
+        <v>164</v>
       </c>
       <c r="J71" s="91"/>
       <c r="K71" s="68"/>
@@ -5330,18 +5334,18 @@
       <c r="N71" s="68"/>
       <c r="O71" s="68"/>
       <c r="P71" s="68" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="Q71" s="72" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="72" spans="1:17" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="72" spans="1:17" ht="32.25" customHeight="1">
       <c r="A72" s="102" t="s">
-        <v>157</v>
+        <v>165</v>
       </c>
       <c r="B72" s="62" t="s">
-        <v>158</v>
+        <v>166</v>
       </c>
       <c r="C72" s="105">
         <v>2</v>
@@ -5356,35 +5360,35 @@
         <v>1</v>
       </c>
       <c r="G72" s="68" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H72" s="68">
         <v>5</v>
       </c>
       <c r="I72" s="115" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="J72" s="91" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="K72" s="68"/>
       <c r="L72" s="68"/>
       <c r="M72" s="69"/>
       <c r="N72" s="68"/>
       <c r="O72" s="68" t="s">
-        <v>159</v>
+        <v>167</v>
       </c>
       <c r="P72" s="68"/>
       <c r="Q72" s="72" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="73" spans="1:17" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="73" spans="1:17" ht="31.5" customHeight="1">
       <c r="A73" s="66" t="s">
-        <v>160</v>
+        <v>168</v>
       </c>
       <c r="B73" s="62" t="s">
-        <v>161</v>
+        <v>169</v>
       </c>
       <c r="C73" s="105">
         <v>0</v>
@@ -5399,13 +5403,13 @@
         <v>1</v>
       </c>
       <c r="G73" s="68" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H73" s="68">
         <v>3</v>
       </c>
       <c r="I73" s="115" t="s">
-        <v>155</v>
+        <v>164</v>
       </c>
       <c r="J73" s="91"/>
       <c r="K73" s="68"/>
@@ -5414,61 +5418,61 @@
       <c r="N73" s="68"/>
       <c r="O73" s="68"/>
       <c r="P73" s="68" t="s">
+        <v>66</v>
+      </c>
+      <c r="Q73" s="72" t="s">
         <v>63</v>
       </c>
-      <c r="Q73" s="72" t="s">
+    </row>
+    <row r="74" spans="1:17" ht="41.25" customHeight="1">
+      <c r="A74" s="66" t="s">
+        <v>170</v>
+      </c>
+      <c r="B74" s="104" t="s">
+        <v>171</v>
+      </c>
+      <c r="C74" s="105">
+        <v>2</v>
+      </c>
+      <c r="D74" s="68">
+        <v>0</v>
+      </c>
+      <c r="E74" s="68">
+        <v>0</v>
+      </c>
+      <c r="F74" s="68">
+        <v>0</v>
+      </c>
+      <c r="G74" s="68" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="74" spans="1:17" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="66" t="s">
-        <v>162</v>
-      </c>
-      <c r="B74" s="104" t="s">
-        <v>163</v>
-      </c>
-      <c r="C74" s="105">
-        <v>2</v>
-      </c>
-      <c r="D74" s="68">
-        <v>0</v>
-      </c>
-      <c r="E74" s="68">
-        <v>0</v>
-      </c>
-      <c r="F74" s="68">
-        <v>0</v>
-      </c>
-      <c r="G74" s="68" t="s">
-        <v>57</v>
-      </c>
       <c r="H74" s="68">
         <v>2</v>
       </c>
       <c r="I74" s="115" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="J74" s="150" t="s">
-        <v>164</v>
+        <v>172</v>
       </c>
       <c r="K74" s="68"/>
       <c r="L74" s="68"/>
       <c r="M74" s="69"/>
       <c r="N74" s="68"/>
       <c r="O74" s="68" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="P74" s="68"/>
       <c r="Q74" s="72" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="75" spans="1:17" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="75" spans="1:17" ht="25.5" customHeight="1">
       <c r="A75" s="66" t="s">
-        <v>165</v>
+        <v>173</v>
       </c>
       <c r="B75" s="104" t="s">
-        <v>163</v>
+        <v>171</v>
       </c>
       <c r="C75" s="105">
         <v>0</v>
@@ -5483,35 +5487,35 @@
         <v>1</v>
       </c>
       <c r="G75" s="68" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H75" s="68">
         <v>3</v>
       </c>
       <c r="I75" s="106" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="J75" s="68" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="K75" s="68"/>
       <c r="L75" s="68"/>
       <c r="M75" s="68"/>
       <c r="N75" s="68"/>
       <c r="O75" s="68" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="P75" s="68"/>
       <c r="Q75" s="72" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="76" spans="1:17" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="76" spans="1:17" ht="33" customHeight="1" thickBot="1">
       <c r="A76" s="73" t="s">
-        <v>166</v>
+        <v>174</v>
       </c>
       <c r="B76" s="151" t="s">
-        <v>167</v>
+        <v>175</v>
       </c>
       <c r="C76" s="152">
         <v>2</v>
@@ -5526,7 +5530,7 @@
         <v>1</v>
       </c>
       <c r="G76" s="76" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H76" s="76">
         <v>5</v>
@@ -5535,7 +5539,7 @@
         <v>6</v>
       </c>
       <c r="J76" s="77" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K76" s="76"/>
       <c r="L76" s="76"/>
@@ -5543,16 +5547,16 @@
       <c r="N76" s="76"/>
       <c r="O76" s="76"/>
       <c r="P76" s="76" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="Q76" s="80" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="77" spans="1:17" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="77" spans="1:17" ht="31.5" customHeight="1">
       <c r="A77" s="116"/>
       <c r="B77" s="117" t="s">
-        <v>170</v>
+        <v>176</v>
       </c>
       <c r="C77" s="118"/>
       <c r="D77" s="118"/>
@@ -5578,10 +5582,10 @@
       <c r="P77" s="119"/>
       <c r="Q77" s="120"/>
     </row>
-    <row r="78" spans="1:17" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:17" ht="27" customHeight="1">
       <c r="A78" s="121"/>
       <c r="B78" s="122" t="s">
-        <v>171</v>
+        <v>177</v>
       </c>
       <c r="C78" s="123"/>
       <c r="D78" s="123"/>
@@ -5592,7 +5596,7 @@
         <v>55</v>
       </c>
       <c r="I78" s="124" t="s">
-        <v>172</v>
+        <v>178</v>
       </c>
       <c r="J78" s="123"/>
       <c r="K78" s="124">
@@ -5615,10 +5619,10 @@
       </c>
       <c r="Q78" s="125"/>
     </row>
-    <row r="79" spans="1:17" ht="51" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:17" ht="51" customHeight="1" thickBot="1">
       <c r="A79" s="126"/>
       <c r="B79" s="127" t="s">
-        <v>307</v>
+        <v>179</v>
       </c>
       <c r="C79" s="128"/>
       <c r="D79" s="128"/>
@@ -5637,15 +5641,15 @@
       <c r="M79" s="131"/>
       <c r="N79" s="131"/>
       <c r="O79" s="132" t="s">
-        <v>173</v>
+        <v>180</v>
       </c>
       <c r="P79" s="131"/>
       <c r="Q79" s="133"/>
     </row>
-    <row r="80" spans="1:17" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:17" ht="36.75" customHeight="1">
       <c r="A80" s="116"/>
       <c r="B80" s="117" t="s">
-        <v>174</v>
+        <v>181</v>
       </c>
       <c r="C80" s="134"/>
       <c r="D80" s="134"/>
@@ -5653,10 +5657,10 @@
       <c r="F80" s="134"/>
       <c r="G80" s="134"/>
       <c r="H80" s="119">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="I80" s="135" t="s">
-        <v>175</v>
+        <v>182</v>
       </c>
       <c r="J80" s="134"/>
       <c r="K80" s="119">
@@ -5679,10 +5683,10 @@
       </c>
       <c r="Q80" s="120"/>
     </row>
-    <row r="81" spans="1:17" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:17" ht="40.5" customHeight="1">
       <c r="A81" s="121"/>
       <c r="B81" s="122" t="s">
-        <v>176</v>
+        <v>183</v>
       </c>
       <c r="C81" s="123"/>
       <c r="D81" s="123"/>
@@ -5693,7 +5697,7 @@
         <v>150</v>
       </c>
       <c r="I81" s="136" t="s">
-        <v>175</v>
+        <v>182</v>
       </c>
       <c r="J81" s="123"/>
       <c r="K81" s="124">
@@ -5716,10 +5720,10 @@
       </c>
       <c r="Q81" s="125"/>
     </row>
-    <row r="82" spans="1:17" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:17" ht="39" customHeight="1">
       <c r="A82" s="121"/>
       <c r="B82" s="122" t="s">
-        <v>177</v>
+        <v>184</v>
       </c>
       <c r="C82" s="137"/>
       <c r="D82" s="137"/>
@@ -5747,12 +5751,12 @@
       </c>
       <c r="Q82" s="125"/>
     </row>
-    <row r="83" spans="1:17" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:17" ht="22.5" customHeight="1">
       <c r="A83" s="138" t="s">
-        <v>178</v>
+        <v>185</v>
       </c>
       <c r="B83" s="122" t="s">
-        <v>179</v>
+        <v>186</v>
       </c>
       <c r="C83" s="137"/>
       <c r="D83" s="137"/>
@@ -5776,10 +5780,10 @@
       </c>
       <c r="Q83" s="125"/>
     </row>
-    <row r="84" spans="1:17" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:17" ht="21.75" customHeight="1">
       <c r="A84" s="139"/>
       <c r="B84" s="123" t="s">
-        <v>180</v>
+        <v>187</v>
       </c>
       <c r="C84" s="140"/>
       <c r="D84" s="140"/>
@@ -5811,10 +5815,10 @@
       </c>
       <c r="Q84" s="141"/>
     </row>
-    <row r="85" spans="1:17" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:17" ht="27" customHeight="1" thickBot="1">
       <c r="A85" s="142"/>
       <c r="B85" s="146" t="s">
-        <v>181</v>
+        <v>188</v>
       </c>
       <c r="C85" s="143"/>
       <c r="D85" s="143"/>
@@ -5834,57 +5838,57 @@
       <c r="P85" s="144"/>
       <c r="Q85" s="145"/>
     </row>
-    <row r="87" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:17" ht="15.75" customHeight="1">
       <c r="A87" s="50"/>
       <c r="B87" s="50"/>
     </row>
-    <row r="88" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:17" ht="15.75" customHeight="1">
       <c r="A88" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="89" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="89" spans="1:17" ht="15.75" customHeight="1">
       <c r="A89" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="90" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="90" spans="1:17" ht="15.75" customHeight="1">
       <c r="A90" s="1" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="91" spans="1:17" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="92" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A92" s="172" t="s">
-        <v>185</v>
-      </c>
-      <c r="B92" s="173"/>
-      <c r="C92" s="173"/>
-      <c r="D92" s="173"/>
-      <c r="E92" s="173"/>
-      <c r="F92" s="173"/>
-      <c r="G92" s="173"/>
-      <c r="H92" s="173"/>
-      <c r="I92" s="173"/>
-      <c r="J92" s="173"/>
-      <c r="K92" s="173"/>
-      <c r="L92" s="173"/>
-      <c r="M92" s="173"/>
-      <c r="N92" s="173"/>
-      <c r="O92" s="173"/>
-      <c r="P92" s="173"/>
-      <c r="Q92" s="173"/>
-    </row>
-    <row r="93" spans="1:17" x14ac:dyDescent="0.25">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="91" spans="1:17" ht="21" customHeight="1"/>
+    <row r="92" spans="1:17">
+      <c r="A92" s="169" t="s">
+        <v>192</v>
+      </c>
+      <c r="B92" s="170"/>
+      <c r="C92" s="170"/>
+      <c r="D92" s="170"/>
+      <c r="E92" s="170"/>
+      <c r="F92" s="170"/>
+      <c r="G92" s="170"/>
+      <c r="H92" s="170"/>
+      <c r="I92" s="170"/>
+      <c r="J92" s="170"/>
+      <c r="K92" s="170"/>
+      <c r="L92" s="170"/>
+      <c r="M92" s="170"/>
+      <c r="N92" s="170"/>
+      <c r="O92" s="170"/>
+      <c r="P92" s="170"/>
+      <c r="Q92" s="170"/>
+    </row>
+    <row r="93" spans="1:17">
       <c r="A93" s="64"/>
       <c r="B93" s="65"/>
       <c r="C93" s="65"/>
@@ -5903,30 +5907,30 @@
       <c r="P93" s="65"/>
       <c r="Q93" s="65"/>
     </row>
-    <row r="94" spans="1:17" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A94" s="174" t="s">
-        <v>308</v>
-      </c>
-      <c r="B94" s="174"/>
-      <c r="C94" s="174"/>
-      <c r="D94" s="174"/>
-      <c r="E94" s="174"/>
-      <c r="F94" s="174"/>
-      <c r="G94" s="174"/>
-      <c r="H94" s="174"/>
-      <c r="I94" s="174"/>
-      <c r="J94" s="174"/>
-      <c r="K94" s="174"/>
-      <c r="L94" s="174"/>
-      <c r="M94" s="174"/>
-      <c r="N94" s="174"/>
-      <c r="O94" s="174"/>
-      <c r="P94" s="174"/>
-      <c r="Q94" s="174"/>
-    </row>
-    <row r="96" spans="1:17" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:17" ht="47.25" customHeight="1">
+      <c r="A94" s="171" t="s">
+        <v>193</v>
+      </c>
+      <c r="B94" s="171"/>
+      <c r="C94" s="171"/>
+      <c r="D94" s="171"/>
+      <c r="E94" s="171"/>
+      <c r="F94" s="171"/>
+      <c r="G94" s="171"/>
+      <c r="H94" s="171"/>
+      <c r="I94" s="171"/>
+      <c r="J94" s="171"/>
+      <c r="K94" s="171"/>
+      <c r="L94" s="171"/>
+      <c r="M94" s="171"/>
+      <c r="N94" s="171"/>
+      <c r="O94" s="171"/>
+      <c r="P94" s="171"/>
+      <c r="Q94" s="171"/>
+    </row>
+    <row r="96" spans="1:17" ht="28.5" customHeight="1">
       <c r="A96" s="161" t="s">
-        <v>186</v>
+        <v>194</v>
       </c>
       <c r="B96" s="161"/>
       <c r="C96" s="161"/>
@@ -5942,69 +5946,69 @@
       <c r="M96" s="161"/>
       <c r="N96" s="161"/>
       <c r="O96" s="161"/>
-      <c r="P96" s="162"/>
-      <c r="Q96" s="162"/>
-    </row>
-    <row r="97" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A97" s="163" t="s">
-        <v>187</v>
-      </c>
-      <c r="B97" s="164"/>
-      <c r="C97" s="164"/>
-      <c r="D97" s="164"/>
-      <c r="E97" s="164"/>
-      <c r="F97" s="164"/>
-      <c r="G97" s="164"/>
-      <c r="H97" s="164"/>
-      <c r="I97" s="164"/>
-      <c r="J97" s="164"/>
-      <c r="K97" s="164"/>
-      <c r="L97" s="164"/>
-      <c r="M97" s="164"/>
-      <c r="N97" s="164"/>
-      <c r="O97" s="164"/>
-      <c r="P97" s="162"/>
-      <c r="Q97" s="162"/>
-    </row>
-    <row r="99" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A99" s="165" t="s">
-        <v>188</v>
-      </c>
-      <c r="B99" s="165"/>
-      <c r="C99" s="165"/>
-      <c r="D99" s="165"/>
-      <c r="E99" s="165"/>
-      <c r="F99" s="165"/>
-      <c r="G99" s="165"/>
-      <c r="H99" s="165"/>
-      <c r="I99" s="165"/>
-      <c r="J99" s="165"/>
-      <c r="K99" s="165"/>
-      <c r="L99" s="165"/>
-      <c r="M99" s="165"/>
-      <c r="N99" s="165"/>
-      <c r="O99" s="165"/>
-    </row>
-    <row r="100" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A100" s="166" t="s">
-        <v>189</v>
-      </c>
-      <c r="B100" s="165"/>
-      <c r="C100" s="165"/>
-      <c r="D100" s="165"/>
-      <c r="E100" s="165"/>
-      <c r="F100" s="165"/>
-      <c r="G100" s="165"/>
-      <c r="H100" s="165"/>
-      <c r="I100" s="165"/>
-      <c r="J100" s="165"/>
-      <c r="K100" s="165"/>
-      <c r="L100" s="165"/>
-      <c r="M100" s="165"/>
-      <c r="N100" s="165"/>
-      <c r="O100" s="165"/>
-      <c r="P100" s="162"/>
-      <c r="Q100" s="162"/>
+      <c r="P96" s="177"/>
+      <c r="Q96" s="177"/>
+    </row>
+    <row r="97" spans="1:17">
+      <c r="A97" s="162" t="s">
+        <v>195</v>
+      </c>
+      <c r="B97" s="163"/>
+      <c r="C97" s="163"/>
+      <c r="D97" s="163"/>
+      <c r="E97" s="163"/>
+      <c r="F97" s="163"/>
+      <c r="G97" s="163"/>
+      <c r="H97" s="163"/>
+      <c r="I97" s="163"/>
+      <c r="J97" s="163"/>
+      <c r="K97" s="163"/>
+      <c r="L97" s="163"/>
+      <c r="M97" s="163"/>
+      <c r="N97" s="163"/>
+      <c r="O97" s="163"/>
+      <c r="P97" s="177"/>
+      <c r="Q97" s="177"/>
+    </row>
+    <row r="99" spans="1:17">
+      <c r="A99" s="164" t="s">
+        <v>196</v>
+      </c>
+      <c r="B99" s="164"/>
+      <c r="C99" s="164"/>
+      <c r="D99" s="164"/>
+      <c r="E99" s="164"/>
+      <c r="F99" s="164"/>
+      <c r="G99" s="164"/>
+      <c r="H99" s="164"/>
+      <c r="I99" s="164"/>
+      <c r="J99" s="164"/>
+      <c r="K99" s="164"/>
+      <c r="L99" s="164"/>
+      <c r="M99" s="164"/>
+      <c r="N99" s="164"/>
+      <c r="O99" s="164"/>
+    </row>
+    <row r="100" spans="1:17">
+      <c r="A100" s="165" t="s">
+        <v>197</v>
+      </c>
+      <c r="B100" s="164"/>
+      <c r="C100" s="164"/>
+      <c r="D100" s="164"/>
+      <c r="E100" s="164"/>
+      <c r="F100" s="164"/>
+      <c r="G100" s="164"/>
+      <c r="H100" s="164"/>
+      <c r="I100" s="164"/>
+      <c r="J100" s="164"/>
+      <c r="K100" s="164"/>
+      <c r="L100" s="164"/>
+      <c r="M100" s="164"/>
+      <c r="N100" s="164"/>
+      <c r="O100" s="164"/>
+      <c r="P100" s="177"/>
+      <c r="Q100" s="177"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -6038,7 +6042,7 @@
       <selection activeCell="A61" sqref="A61:A79"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="46.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10" bestFit="1" customWidth="1"/>
@@ -6046,39 +6050,39 @@
     <col min="11" max="11" width="34.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" ht="15.75">
       <c r="A1" s="1" t="s">
-        <v>190</v>
+        <v>198</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>191</v>
+        <v>199</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>192</v>
+        <v>200</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>193</v>
+        <v>201</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>194</v>
+        <v>202</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>195</v>
+        <v>203</v>
       </c>
       <c r="L1">
         <v>1</v>
@@ -6099,9 +6103,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17" ht="15.75">
       <c r="A2" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B2" s="3">
         <v>5</v>
@@ -6119,25 +6123,25 @@
         <v>1</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>196</v>
+        <v>204</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>197</v>
+        <v>205</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>198</v>
+        <v>206</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>182</v>
+        <v>189</v>
       </c>
       <c r="K2" s="3"/>
       <c r="L2" s="35" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" ht="15.75">
       <c r="A3" s="4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B3" s="4">
         <v>6</v>
@@ -6155,25 +6159,25 @@
         <v>1</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>196</v>
+        <v>204</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>200</v>
+        <v>208</v>
       </c>
       <c r="I3" s="4" t="s">
-        <v>198</v>
+        <v>206</v>
       </c>
       <c r="J3" s="3" t="s">
-        <v>182</v>
+        <v>189</v>
       </c>
       <c r="K3" s="4"/>
       <c r="L3" s="35" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" ht="15.75">
       <c r="A4" s="4" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B4" s="4">
         <v>5</v>
@@ -6191,22 +6195,22 @@
         <v>0</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>196</v>
+        <v>204</v>
       </c>
       <c r="H4" s="4" t="s">
-        <v>202</v>
+        <v>210</v>
       </c>
       <c r="I4" s="4" t="s">
-        <v>203</v>
+        <v>211</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>182</v>
+        <v>189</v>
       </c>
       <c r="K4" s="4"/>
     </row>
-    <row r="5" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:17" ht="15.75">
       <c r="A5" s="4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B5" s="4">
         <v>5</v>
@@ -6224,22 +6228,22 @@
         <v>1</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>204</v>
+        <v>212</v>
       </c>
       <c r="H5" s="4" t="s">
-        <v>205</v>
+        <v>213</v>
       </c>
       <c r="I5" s="4" t="s">
-        <v>203</v>
+        <v>211</v>
       </c>
       <c r="J5" s="3" t="s">
-        <v>182</v>
+        <v>189</v>
       </c>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:17" ht="15.75">
       <c r="A6" s="4" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B6" s="4">
         <v>4</v>
@@ -6257,22 +6261,22 @@
         <v>0</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>206</v>
+        <v>214</v>
       </c>
       <c r="H6" s="4" t="s">
-        <v>207</v>
+        <v>215</v>
       </c>
       <c r="I6" s="4" t="s">
-        <v>208</v>
+        <v>216</v>
       </c>
       <c r="J6" s="4" t="s">
-        <v>183</v>
+        <v>190</v>
       </c>
       <c r="K6" s="4"/>
     </row>
-    <row r="7" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:17" ht="15.75">
       <c r="A7" s="4" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B7" s="4">
         <v>1</v>
@@ -6290,22 +6294,22 @@
         <v>0</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>196</v>
+        <v>204</v>
       </c>
       <c r="H7" s="4" t="s">
-        <v>209</v>
+        <v>217</v>
       </c>
       <c r="I7" s="4" t="s">
-        <v>210</v>
+        <v>218</v>
       </c>
       <c r="J7" s="4" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K7" s="4"/>
     </row>
-    <row r="8" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:17" ht="15.75">
       <c r="A8" s="4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B8" s="4">
         <v>3</v>
@@ -6323,22 +6327,22 @@
         <v>0</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>196</v>
+        <v>204</v>
       </c>
       <c r="H8" s="4" t="s">
-        <v>211</v>
+        <v>219</v>
       </c>
       <c r="I8" s="4" t="s">
-        <v>212</v>
+        <v>220</v>
       </c>
       <c r="J8" s="4" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K8" s="4"/>
     </row>
-    <row r="9" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:17" ht="15.75">
       <c r="A9" s="5" t="s">
-        <v>213</v>
+        <v>221</v>
       </c>
       <c r="B9" s="5">
         <f>SUM(B2:B8)</f>
@@ -6354,7 +6358,7 @@
       <c r="J9" s="4"/>
       <c r="K9" s="4"/>
     </row>
-    <row r="10" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:17" ht="15.75">
       <c r="A10" s="4"/>
       <c r="B10" s="4"/>
       <c r="C10" s="3"/>
@@ -6367,9 +6371,9 @@
       <c r="J10" s="4"/>
       <c r="K10" s="4"/>
     </row>
-    <row r="11" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:17" ht="15.75">
       <c r="A11" s="4" t="s">
-        <v>214</v>
+        <v>222</v>
       </c>
       <c r="B11" s="4">
         <v>3</v>
@@ -6387,24 +6391,24 @@
         <v>1</v>
       </c>
       <c r="G11" s="4" t="s">
-        <v>196</v>
+        <v>204</v>
       </c>
       <c r="H11" s="4" t="s">
-        <v>215</v>
+        <v>223</v>
       </c>
       <c r="I11" s="4" t="s">
-        <v>203</v>
+        <v>211</v>
       </c>
       <c r="J11" s="4" t="s">
-        <v>182</v>
+        <v>189</v>
       </c>
       <c r="K11" s="4" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" ht="15.75">
       <c r="A12" s="4" t="s">
-        <v>216</v>
+        <v>224</v>
       </c>
       <c r="B12" s="4">
         <v>3</v>
@@ -6422,24 +6426,24 @@
         <v>1</v>
       </c>
       <c r="G12" s="4" t="s">
-        <v>196</v>
+        <v>204</v>
       </c>
       <c r="H12" s="4" t="s">
-        <v>202</v>
+        <v>210</v>
       </c>
       <c r="I12" s="4" t="s">
-        <v>203</v>
+        <v>211</v>
       </c>
       <c r="J12" s="4" t="s">
-        <v>182</v>
+        <v>189</v>
       </c>
       <c r="K12" s="4" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" ht="15.75">
       <c r="A13" s="4" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B13" s="4">
         <v>6</v>
@@ -6457,24 +6461,24 @@
         <v>1</v>
       </c>
       <c r="G13" s="4" t="s">
-        <v>196</v>
+        <v>204</v>
       </c>
       <c r="H13" s="4" t="s">
-        <v>217</v>
+        <v>225</v>
       </c>
       <c r="I13" s="4" t="s">
-        <v>218</v>
+        <v>226</v>
       </c>
       <c r="J13" s="4" t="s">
-        <v>182</v>
+        <v>189</v>
       </c>
       <c r="K13" s="4" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" ht="15.75">
       <c r="A14" s="4" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="B14" s="4">
         <v>3</v>
@@ -6490,22 +6494,22 @@
       </c>
       <c r="F14" s="4"/>
       <c r="G14" s="4" t="s">
-        <v>196</v>
+        <v>204</v>
       </c>
       <c r="H14" s="4" t="s">
-        <v>219</v>
+        <v>227</v>
       </c>
       <c r="I14" s="4" t="s">
-        <v>198</v>
+        <v>206</v>
       </c>
       <c r="J14" s="4" t="s">
-        <v>182</v>
+        <v>189</v>
       </c>
       <c r="K14" s="4"/>
     </row>
-    <row r="15" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:17" ht="15.75">
       <c r="A15" s="4" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B15" s="4">
         <v>5</v>
@@ -6523,24 +6527,24 @@
         <v>1</v>
       </c>
       <c r="G15" s="4" t="s">
-        <v>220</v>
+        <v>228</v>
       </c>
       <c r="H15" s="4" t="s">
-        <v>221</v>
+        <v>229</v>
       </c>
       <c r="I15" s="4" t="s">
-        <v>222</v>
+        <v>230</v>
       </c>
       <c r="J15" s="4" t="s">
-        <v>184</v>
+        <v>191</v>
       </c>
       <c r="K15" s="4" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" ht="15.75">
       <c r="A16" s="4" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="B16" s="4">
         <v>5</v>
@@ -6558,24 +6562,24 @@
         <v>1</v>
       </c>
       <c r="G16" s="4" t="s">
-        <v>220</v>
+        <v>228</v>
       </c>
       <c r="H16" s="4" t="s">
-        <v>223</v>
+        <v>231</v>
       </c>
       <c r="I16" s="4" t="s">
-        <v>224</v>
+        <v>232</v>
       </c>
       <c r="J16" s="4" t="s">
-        <v>183</v>
+        <v>190</v>
       </c>
       <c r="K16" s="4" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" ht="15.75">
       <c r="A17" s="4" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="B17" s="4">
         <v>5</v>
@@ -6593,24 +6597,24 @@
         <v>1</v>
       </c>
       <c r="G17" s="4" t="s">
-        <v>225</v>
+        <v>233</v>
       </c>
       <c r="H17" s="4" t="s">
-        <v>226</v>
+        <v>234</v>
       </c>
       <c r="I17" s="4" t="s">
-        <v>208</v>
+        <v>216</v>
       </c>
       <c r="J17" s="4" t="s">
-        <v>183</v>
+        <v>190</v>
       </c>
       <c r="K17" s="4" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" ht="15.75">
       <c r="A18" s="5" t="s">
-        <v>227</v>
+        <v>235</v>
       </c>
       <c r="B18" s="5">
         <f>SUM(B11:B17)</f>
@@ -6626,7 +6630,7 @@
       <c r="J18" s="4"/>
       <c r="K18" s="4"/>
     </row>
-    <row r="19" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" ht="15.75">
       <c r="A19" s="4"/>
       <c r="B19" s="4"/>
       <c r="C19" s="4"/>
@@ -6639,9 +6643,9 @@
       <c r="J19" s="4"/>
       <c r="K19" s="4"/>
     </row>
-    <row r="20" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" ht="15.75">
       <c r="A20" s="4" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="B20" s="4">
         <v>5</v>
@@ -6659,24 +6663,24 @@
         <v>1</v>
       </c>
       <c r="G20" s="4" t="s">
-        <v>225</v>
+        <v>233</v>
       </c>
       <c r="H20" s="4" t="s">
-        <v>221</v>
+        <v>229</v>
       </c>
       <c r="I20" s="4" t="s">
-        <v>222</v>
+        <v>230</v>
       </c>
       <c r="J20" s="4" t="s">
-        <v>184</v>
+        <v>191</v>
       </c>
       <c r="K20" s="4" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" ht="15.75">
       <c r="A21" s="5" t="s">
-        <v>229</v>
+        <v>237</v>
       </c>
       <c r="B21" s="5">
         <f>SUM(B20)</f>
@@ -6692,7 +6696,7 @@
       <c r="J21" s="4"/>
       <c r="K21" s="4"/>
     </row>
-    <row r="22" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" ht="15.75">
       <c r="A22" s="4"/>
       <c r="B22" s="4"/>
       <c r="C22" s="4"/>
@@ -6705,9 +6709,9 @@
       <c r="J22" s="4"/>
       <c r="K22" s="4"/>
     </row>
-    <row r="23" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" ht="15.75">
       <c r="A23" s="4" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="B23" s="4">
         <v>3</v>
@@ -6725,22 +6729,22 @@
         <v>1</v>
       </c>
       <c r="G23" s="4" t="s">
-        <v>196</v>
+        <v>204</v>
       </c>
       <c r="H23" s="4" t="s">
-        <v>197</v>
+        <v>205</v>
       </c>
       <c r="I23" s="4" t="s">
-        <v>198</v>
+        <v>206</v>
       </c>
       <c r="J23" s="4" t="s">
-        <v>182</v>
+        <v>189</v>
       </c>
       <c r="K23" s="4"/>
     </row>
-    <row r="24" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" ht="15.75">
       <c r="A24" s="4" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="B24" s="4">
         <v>4</v>
@@ -6758,24 +6762,24 @@
         <v>0</v>
       </c>
       <c r="G24" s="4" t="s">
-        <v>230</v>
+        <v>238</v>
       </c>
       <c r="H24" s="4" t="s">
-        <v>231</v>
+        <v>239</v>
       </c>
       <c r="I24" s="4" t="s">
-        <v>232</v>
+        <v>240</v>
       </c>
       <c r="J24" s="4" t="s">
-        <v>182</v>
+        <v>189</v>
       </c>
       <c r="K24" s="4" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" ht="15.75">
       <c r="A25" s="5" t="s">
-        <v>233</v>
+        <v>241</v>
       </c>
       <c r="B25" s="5">
         <f>SUM(B23:B24)</f>
@@ -6791,9 +6795,9 @@
       <c r="J25" s="4"/>
       <c r="K25" s="4"/>
     </row>
-    <row r="26" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" ht="15.75">
       <c r="A26" s="4" t="s">
-        <v>234</v>
+        <v>242</v>
       </c>
       <c r="B26" s="4">
         <v>3</v>
@@ -6811,24 +6815,24 @@
         <v>1</v>
       </c>
       <c r="G26" s="4" t="s">
-        <v>196</v>
+        <v>204</v>
       </c>
       <c r="H26" s="4" t="s">
-        <v>202</v>
+        <v>210</v>
       </c>
       <c r="I26" s="4" t="s">
-        <v>203</v>
+        <v>211</v>
       </c>
       <c r="J26" s="4" t="s">
-        <v>182</v>
+        <v>189</v>
       </c>
       <c r="K26" s="4" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="27" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" ht="15.75">
       <c r="A27" s="4" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="B27" s="4">
         <v>5</v>
@@ -6846,24 +6850,24 @@
         <v>1</v>
       </c>
       <c r="G27" s="4" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="H27" s="4" t="s">
-        <v>235</v>
+        <v>243</v>
       </c>
       <c r="I27" s="4" t="s">
-        <v>232</v>
+        <v>240</v>
       </c>
       <c r="J27" s="4" t="s">
-        <v>182</v>
+        <v>189</v>
       </c>
       <c r="K27" s="4" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="28" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" ht="15.75">
       <c r="A28" s="4" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="B28" s="4">
         <v>3</v>
@@ -6879,24 +6883,24 @@
         <v>1</v>
       </c>
       <c r="G28" s="4" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="H28" s="4" t="s">
-        <v>217</v>
+        <v>225</v>
       </c>
       <c r="I28" s="4" t="s">
-        <v>218</v>
+        <v>226</v>
       </c>
       <c r="J28" s="4" t="s">
-        <v>184</v>
+        <v>191</v>
       </c>
       <c r="K28" s="4" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="29" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" ht="15.75">
       <c r="A29" s="5" t="s">
-        <v>238</v>
+        <v>246</v>
       </c>
       <c r="B29" s="5">
         <v>11</v>
@@ -6911,9 +6915,9 @@
       <c r="J29" s="4"/>
       <c r="K29" s="4"/>
     </row>
-    <row r="30" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" ht="15.75">
       <c r="A30" s="4" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="B30" s="4">
         <v>3</v>
@@ -6929,22 +6933,22 @@
         <v>1</v>
       </c>
       <c r="G30" s="4" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="H30" s="4" t="s">
-        <v>239</v>
+        <v>247</v>
       </c>
       <c r="I30" s="4" t="s">
-        <v>232</v>
+        <v>240</v>
       </c>
       <c r="J30" s="4" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K30" s="4"/>
     </row>
-    <row r="31" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" ht="15.75">
       <c r="A31" s="6" t="s">
-        <v>240</v>
+        <v>248</v>
       </c>
       <c r="B31" s="6">
         <f>SUM(B30)</f>
@@ -6960,7 +6964,7 @@
       <c r="J31" s="7"/>
       <c r="K31" s="7"/>
     </row>
-    <row r="32" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" ht="15.75">
       <c r="A32" s="2"/>
       <c r="B32" s="2"/>
       <c r="C32" s="2"/>
@@ -6973,9 +6977,9 @@
       <c r="J32" s="2"/>
       <c r="K32" s="2"/>
     </row>
-    <row r="33" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11" ht="15.75">
       <c r="A33" s="23" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="B33" s="23">
         <f>B9+B18+B21+B25+B29+B31</f>
@@ -6991,9 +6995,9 @@
       <c r="J33" s="2"/>
       <c r="K33" s="2"/>
     </row>
-    <row r="35" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11" ht="15.75">
       <c r="A35" s="4" t="s">
-        <v>241</v>
+        <v>249</v>
       </c>
       <c r="B35" s="4">
         <v>5</v>
@@ -7011,24 +7015,24 @@
         <v>1</v>
       </c>
       <c r="G35" s="4" t="s">
-        <v>196</v>
+        <v>204</v>
       </c>
       <c r="H35" s="4" t="s">
-        <v>242</v>
+        <v>250</v>
       </c>
       <c r="I35" s="4" t="s">
-        <v>218</v>
+        <v>226</v>
       </c>
       <c r="J35" s="4" t="s">
-        <v>182</v>
+        <v>189</v>
       </c>
       <c r="K35" s="4" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="36" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" ht="15.75">
       <c r="A36" s="4" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B36" s="4">
         <v>5</v>
@@ -7046,24 +7050,24 @@
         <v>1</v>
       </c>
       <c r="G36" s="4" t="s">
-        <v>225</v>
+        <v>233</v>
       </c>
       <c r="H36" s="4" t="s">
-        <v>226</v>
+        <v>234</v>
       </c>
       <c r="I36" s="4" t="s">
-        <v>208</v>
+        <v>216</v>
       </c>
       <c r="J36" s="4" t="s">
-        <v>183</v>
+        <v>190</v>
       </c>
       <c r="K36" s="4" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="37" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" ht="15.75">
       <c r="A37" s="4" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B37" s="4">
         <v>5</v>
@@ -7081,24 +7085,24 @@
         <v>1</v>
       </c>
       <c r="G37" s="4" t="s">
-        <v>220</v>
+        <v>228</v>
       </c>
       <c r="H37" s="4" t="s">
-        <v>223</v>
+        <v>231</v>
       </c>
       <c r="I37" s="4" t="s">
-        <v>224</v>
+        <v>232</v>
       </c>
       <c r="J37" s="4" t="s">
-        <v>183</v>
+        <v>190</v>
       </c>
       <c r="K37" s="4" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="38" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" ht="15.75">
       <c r="A38" s="4" t="s">
-        <v>244</v>
+        <v>252</v>
       </c>
       <c r="B38" s="4">
         <v>5</v>
@@ -7116,24 +7120,24 @@
         <v>1</v>
       </c>
       <c r="G38" s="4" t="s">
-        <v>225</v>
+        <v>233</v>
       </c>
       <c r="H38" s="4" t="s">
-        <v>245</v>
+        <v>253</v>
       </c>
       <c r="I38" s="4" t="s">
-        <v>208</v>
+        <v>216</v>
       </c>
       <c r="J38" s="4" t="s">
-        <v>183</v>
+        <v>190</v>
       </c>
       <c r="K38" s="4" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="39" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" ht="15.75">
       <c r="A39" s="4" t="s">
-        <v>246</v>
+        <v>254</v>
       </c>
       <c r="B39" s="4">
         <v>3</v>
@@ -7148,13 +7152,13 @@
       <c r="H39" s="4"/>
       <c r="I39" s="4"/>
       <c r="J39" s="4" t="s">
-        <v>182</v>
+        <v>189</v>
       </c>
       <c r="K39" s="4"/>
     </row>
-    <row r="40" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:11" ht="16.5" thickBot="1">
       <c r="A40" s="7" t="s">
-        <v>246</v>
+        <v>254</v>
       </c>
       <c r="B40" s="7">
         <v>2</v>
@@ -7169,11 +7173,11 @@
       <c r="H40" s="4"/>
       <c r="I40" s="4"/>
       <c r="J40" s="4" t="s">
-        <v>184</v>
+        <v>191</v>
       </c>
       <c r="K40" s="4"/>
     </row>
-    <row r="41" spans="1:11" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:11" ht="17.25" thickTop="1" thickBot="1">
       <c r="A41" s="25"/>
       <c r="B41" s="26"/>
       <c r="C41" s="18"/>
@@ -7186,7 +7190,7 @@
       <c r="J41" s="4"/>
       <c r="K41" s="4"/>
     </row>
-    <row r="42" spans="1:11" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:11" ht="16.5" thickTop="1">
       <c r="A42" s="30"/>
       <c r="B42" s="31"/>
       <c r="C42" s="22"/>
@@ -7199,9 +7203,9 @@
       <c r="J42" s="4"/>
       <c r="K42" s="4"/>
     </row>
-    <row r="43" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:11" ht="15.75">
       <c r="A43" s="4" t="s">
-        <v>247</v>
+        <v>255</v>
       </c>
       <c r="B43" s="4">
         <v>5</v>
@@ -7219,24 +7223,24 @@
         <v>1</v>
       </c>
       <c r="G43" s="18" t="s">
-        <v>225</v>
+        <v>233</v>
       </c>
       <c r="H43" s="4" t="s">
-        <v>248</v>
+        <v>256</v>
       </c>
       <c r="I43" s="4" t="s">
-        <v>222</v>
+        <v>230</v>
       </c>
       <c r="J43" s="4" t="s">
-        <v>184</v>
+        <v>191</v>
       </c>
       <c r="K43" s="4" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="44" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" ht="15.75">
       <c r="A44" s="4" t="s">
-        <v>249</v>
+        <v>257</v>
       </c>
       <c r="B44" s="4">
         <v>5</v>
@@ -7254,24 +7258,24 @@
         <v>1</v>
       </c>
       <c r="G44" s="18" t="s">
-        <v>225</v>
+        <v>233</v>
       </c>
       <c r="H44" s="4" t="s">
-        <v>245</v>
+        <v>253</v>
       </c>
       <c r="I44" s="4" t="s">
-        <v>208</v>
+        <v>216</v>
       </c>
       <c r="J44" s="4" t="s">
-        <v>183</v>
+        <v>190</v>
       </c>
       <c r="K44" s="4" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="45" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" ht="15.75">
       <c r="A45" s="4" t="s">
-        <v>250</v>
+        <v>258</v>
       </c>
       <c r="B45" s="4">
         <v>4</v>
@@ -7289,22 +7293,22 @@
         <v>1</v>
       </c>
       <c r="G45" s="18" t="s">
-        <v>196</v>
+        <v>204</v>
       </c>
       <c r="H45" s="4" t="s">
-        <v>251</v>
+        <v>259</v>
       </c>
       <c r="I45" s="4" t="s">
-        <v>252</v>
+        <v>260</v>
       </c>
       <c r="J45" s="4" t="s">
-        <v>183</v>
+        <v>190</v>
       </c>
       <c r="K45" s="4"/>
     </row>
-    <row r="46" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:11" ht="15.75">
       <c r="A46" s="4" t="s">
-        <v>253</v>
+        <v>261</v>
       </c>
       <c r="B46" s="4">
         <v>5</v>
@@ -7322,24 +7326,24 @@
         <v>1</v>
       </c>
       <c r="G46" s="18" t="s">
-        <v>225</v>
+        <v>233</v>
       </c>
       <c r="H46" s="4" t="s">
-        <v>254</v>
+        <v>262</v>
       </c>
       <c r="I46" s="4" t="s">
-        <v>208</v>
+        <v>216</v>
       </c>
       <c r="J46" s="4" t="s">
-        <v>183</v>
+        <v>190</v>
       </c>
       <c r="K46" s="4" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="47" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" ht="15.75">
       <c r="A47" s="4" t="s">
-        <v>255</v>
+        <v>263</v>
       </c>
       <c r="B47" s="4">
         <v>5</v>
@@ -7357,22 +7361,22 @@
         <v>1</v>
       </c>
       <c r="G47" s="18" t="s">
-        <v>256</v>
+        <v>264</v>
       </c>
       <c r="H47" s="4" t="s">
-        <v>257</v>
+        <v>265</v>
       </c>
       <c r="I47" s="4" t="s">
-        <v>218</v>
+        <v>226</v>
       </c>
       <c r="J47" s="4" t="s">
-        <v>182</v>
+        <v>189</v>
       </c>
       <c r="K47" s="4" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="48" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" ht="16.5" thickBot="1">
       <c r="A48" s="27"/>
       <c r="B48" s="28"/>
       <c r="C48" s="20"/>
@@ -7385,7 +7389,7 @@
       <c r="J48" s="4"/>
       <c r="K48" s="4"/>
     </row>
-    <row r="49" spans="1:11" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:11" ht="16.5" thickTop="1">
       <c r="A49" s="30"/>
       <c r="B49" s="31"/>
       <c r="C49" s="20"/>
@@ -7398,9 +7402,9 @@
       <c r="J49" s="4"/>
       <c r="K49" s="4"/>
     </row>
-    <row r="50" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:11" ht="15.75">
       <c r="A50" s="4" t="s">
-        <v>259</v>
+        <v>267</v>
       </c>
       <c r="B50" s="4">
         <v>3</v>
@@ -7418,22 +7422,22 @@
         <v>1</v>
       </c>
       <c r="G50" s="18" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="H50" s="4" t="s">
-        <v>260</v>
+        <v>268</v>
       </c>
       <c r="I50" s="4"/>
       <c r="J50" s="4" t="s">
-        <v>183</v>
+        <v>190</v>
       </c>
       <c r="K50" s="4" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="51" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11" ht="15.75">
       <c r="A51" s="3" t="s">
-        <v>262</v>
+        <v>270</v>
       </c>
       <c r="B51" s="3">
         <v>4</v>
@@ -7451,22 +7455,22 @@
         <v>1</v>
       </c>
       <c r="G51" s="4" t="s">
-        <v>196</v>
+        <v>204</v>
       </c>
       <c r="H51" s="4" t="s">
-        <v>251</v>
+        <v>259</v>
       </c>
       <c r="I51" s="4" t="s">
-        <v>252</v>
+        <v>260</v>
       </c>
       <c r="J51" s="4" t="s">
-        <v>183</v>
+        <v>190</v>
       </c>
       <c r="K51" s="4"/>
     </row>
-    <row r="52" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:11" ht="16.5" thickBot="1">
       <c r="A52" s="7" t="s">
-        <v>263</v>
+        <v>271</v>
       </c>
       <c r="B52" s="7">
         <v>5</v>
@@ -7484,22 +7488,22 @@
         <v>1</v>
       </c>
       <c r="G52" s="4" t="s">
-        <v>225</v>
+        <v>233</v>
       </c>
       <c r="H52" s="4" t="s">
-        <v>264</v>
+        <v>272</v>
       </c>
       <c r="I52" s="4" t="s">
-        <v>208</v>
+        <v>216</v>
       </c>
       <c r="J52" s="4" t="s">
-        <v>183</v>
+        <v>190</v>
       </c>
       <c r="K52" s="4" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="53" spans="1:11" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11" ht="17.25" thickTop="1" thickBot="1">
       <c r="A53" s="25"/>
       <c r="B53" s="26"/>
       <c r="C53" s="22"/>
@@ -7512,8 +7516,8 @@
       <c r="J53" s="7"/>
       <c r="K53" s="7"/>
     </row>
-    <row r="54" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="55" spans="1:11" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:11" ht="16.5" thickTop="1" thickBot="1"/>
+    <row r="55" spans="1:11" ht="17.25" thickTop="1" thickBot="1">
       <c r="A55" s="29"/>
       <c r="B55" s="26"/>
       <c r="C55" s="2"/>
@@ -7526,18 +7530,18 @@
       <c r="J55" s="2"/>
       <c r="K55" s="2"/>
     </row>
-    <row r="56" spans="1:11" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:11" ht="15.75" thickTop="1"/>
+    <row r="57" spans="1:11">
       <c r="A57" s="33" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="B57" s="33">
         <v>61</v>
       </c>
     </row>
-    <row r="59" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:11" ht="15.75">
       <c r="A59" s="34" t="s">
-        <v>246</v>
+        <v>254</v>
       </c>
       <c r="B59" s="34">
         <v>4</v>
@@ -7552,24 +7556,24 @@
       <c r="H59" s="4"/>
       <c r="I59" s="4"/>
       <c r="J59" s="4" t="s">
-        <v>182</v>
+        <v>189</v>
       </c>
       <c r="K59" s="4"/>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:11">
       <c r="A60" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="61" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11" ht="15.75">
       <c r="A61" s="4" t="s">
-        <v>266</v>
+        <v>274</v>
       </c>
       <c r="B61" s="4">
         <v>5</v>
       </c>
       <c r="C61" s="9" t="s">
-        <v>172</v>
+        <v>178</v>
       </c>
       <c r="D61" s="4">
         <v>2</v>
@@ -7581,21 +7585,21 @@
         <v>1</v>
       </c>
       <c r="G61" s="4" t="s">
-        <v>220</v>
+        <v>228</v>
       </c>
       <c r="H61" s="4" t="s">
-        <v>267</v>
+        <v>275</v>
       </c>
       <c r="I61" s="4" t="s">
-        <v>222</v>
+        <v>230</v>
       </c>
       <c r="J61" s="4" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="62" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11" ht="15.75">
       <c r="A62" s="4" t="s">
-        <v>268</v>
+        <v>276</v>
       </c>
       <c r="B62" s="4">
         <v>3</v>
@@ -7613,27 +7617,27 @@
         <v>1</v>
       </c>
       <c r="G62" s="4" t="s">
-        <v>196</v>
+        <v>204</v>
       </c>
       <c r="H62" s="4" t="s">
-        <v>242</v>
+        <v>250</v>
       </c>
       <c r="I62" s="4" t="s">
-        <v>218</v>
+        <v>226</v>
       </c>
       <c r="J62" s="4" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="63" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11" ht="16.5" thickBot="1">
       <c r="A63" s="7" t="s">
-        <v>269</v>
+        <v>277</v>
       </c>
       <c r="B63" s="7">
         <v>3</v>
       </c>
       <c r="C63" s="4" t="s">
-        <v>172</v>
+        <v>178</v>
       </c>
       <c r="D63" s="4">
         <v>1</v>
@@ -7643,27 +7647,27 @@
       </c>
       <c r="F63" s="4"/>
       <c r="G63" s="4" t="s">
-        <v>270</v>
+        <v>278</v>
       </c>
       <c r="H63" s="4" t="s">
-        <v>267</v>
+        <v>275</v>
       </c>
       <c r="I63" s="4" t="s">
-        <v>222</v>
+        <v>230</v>
       </c>
       <c r="J63" s="4" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="64" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11" ht="15.75">
       <c r="A64" s="10" t="s">
-        <v>271</v>
+        <v>279</v>
       </c>
       <c r="B64" s="11">
         <v>4</v>
       </c>
       <c r="C64" s="12" t="s">
-        <v>272</v>
+        <v>280</v>
       </c>
       <c r="D64" s="4">
         <v>1</v>
@@ -7675,27 +7679,27 @@
         <v>1</v>
       </c>
       <c r="G64" s="4" t="s">
-        <v>196</v>
+        <v>204</v>
       </c>
       <c r="H64" s="4" t="s">
-        <v>273</v>
+        <v>281</v>
       </c>
       <c r="I64" s="4" t="s">
-        <v>198</v>
+        <v>206</v>
       </c>
       <c r="J64" s="4" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="65" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10" ht="15.75">
       <c r="A65" s="13" t="s">
-        <v>274</v>
+        <v>282</v>
       </c>
       <c r="B65" s="14">
         <v>4</v>
       </c>
       <c r="C65" s="15" t="s">
-        <v>272</v>
+        <v>280</v>
       </c>
       <c r="D65" s="4">
         <v>1</v>
@@ -7707,27 +7711,27 @@
         <v>1</v>
       </c>
       <c r="G65" s="4" t="s">
-        <v>196</v>
+        <v>204</v>
       </c>
       <c r="H65" s="4" t="s">
-        <v>273</v>
+        <v>281</v>
       </c>
       <c r="I65" s="4" t="s">
-        <v>198</v>
+        <v>206</v>
       </c>
       <c r="J65" s="4" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="66" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10" ht="16.5" thickBot="1">
       <c r="A66" s="16" t="s">
-        <v>275</v>
+        <v>283</v>
       </c>
       <c r="B66" s="17">
         <v>3</v>
       </c>
       <c r="C66" s="15" t="s">
-        <v>272</v>
+        <v>280</v>
       </c>
       <c r="D66" s="4"/>
       <c r="E66" s="4">
@@ -7737,21 +7741,21 @@
         <v>1</v>
       </c>
       <c r="G66" s="4" t="s">
-        <v>196</v>
+        <v>204</v>
       </c>
       <c r="H66" s="4" t="s">
-        <v>273</v>
+        <v>281</v>
       </c>
       <c r="I66" s="4" t="s">
-        <v>198</v>
+        <v>206</v>
       </c>
       <c r="J66" s="4" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="67" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10" ht="15.75">
       <c r="A67" s="10" t="s">
-        <v>276</v>
+        <v>284</v>
       </c>
       <c r="B67" s="11">
         <v>4</v>
@@ -7764,12 +7768,12 @@
       <c r="H67" s="4"/>
       <c r="I67" s="4"/>
       <c r="J67" s="4" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="68" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10" ht="15.75">
       <c r="A68" s="13" t="s">
-        <v>277</v>
+        <v>285</v>
       </c>
       <c r="B68" s="14">
         <v>4</v>
@@ -7782,12 +7786,12 @@
       <c r="H68" s="4"/>
       <c r="I68" s="4"/>
       <c r="J68" s="4" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="69" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10" ht="16.5" thickBot="1">
       <c r="A69" s="16" t="s">
-        <v>278</v>
+        <v>286</v>
       </c>
       <c r="B69" s="17">
         <v>3</v>
@@ -7800,12 +7804,12 @@
       <c r="H69" s="4"/>
       <c r="I69" s="4"/>
       <c r="J69" s="4" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="70" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10" ht="15.75">
       <c r="A70" s="3" t="s">
-        <v>279</v>
+        <v>287</v>
       </c>
       <c r="B70" s="3">
         <v>5</v>
@@ -7823,21 +7827,21 @@
         <v>1</v>
       </c>
       <c r="G70" s="4" t="s">
-        <v>280</v>
+        <v>288</v>
       </c>
       <c r="H70" s="4" t="s">
-        <v>281</v>
+        <v>289</v>
       </c>
       <c r="I70" s="4" t="s">
-        <v>232</v>
+        <v>240</v>
       </c>
       <c r="J70" s="4" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="71" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10" ht="15.75">
       <c r="A71" s="4" t="s">
-        <v>282</v>
+        <v>290</v>
       </c>
       <c r="B71" s="4">
         <v>5</v>
@@ -7849,21 +7853,21 @@
       <c r="E71" s="4"/>
       <c r="F71" s="4"/>
       <c r="G71" s="4" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="H71" s="32" t="s">
-        <v>283</v>
+        <v>291</v>
       </c>
       <c r="I71" s="32" t="s">
-        <v>224</v>
+        <v>232</v>
       </c>
       <c r="J71" s="4" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="72" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10" ht="15.75">
       <c r="A72" s="4" t="s">
-        <v>284</v>
+        <v>292</v>
       </c>
       <c r="B72" s="4">
         <v>5</v>
@@ -7881,27 +7885,27 @@
         <v>1</v>
       </c>
       <c r="G72" s="4" t="s">
-        <v>285</v>
+        <v>293</v>
       </c>
       <c r="H72" s="4" t="s">
-        <v>235</v>
+        <v>243</v>
       </c>
       <c r="I72" s="4" t="s">
-        <v>232</v>
+        <v>240</v>
       </c>
       <c r="J72" s="4" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="73" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10" ht="15.75">
       <c r="A73" s="4" t="s">
-        <v>286</v>
+        <v>294</v>
       </c>
       <c r="B73" s="4">
         <v>5</v>
       </c>
       <c r="C73" s="21" t="s">
-        <v>287</v>
+        <v>295</v>
       </c>
       <c r="D73" s="4">
         <v>2</v>
@@ -7913,27 +7917,27 @@
         <v>1</v>
       </c>
       <c r="G73" s="4" t="s">
-        <v>288</v>
+        <v>296</v>
       </c>
       <c r="H73" s="4" t="s">
-        <v>202</v>
+        <v>210</v>
       </c>
       <c r="I73" s="4" t="s">
-        <v>203</v>
+        <v>211</v>
       </c>
       <c r="J73" s="4" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="74" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10" ht="15.75">
       <c r="A74" s="4" t="s">
-        <v>289</v>
+        <v>297</v>
       </c>
       <c r="B74" s="4">
         <v>5</v>
       </c>
       <c r="C74" s="21" t="s">
-        <v>287</v>
+        <v>295</v>
       </c>
       <c r="D74" s="4">
         <v>2</v>
@@ -7945,27 +7949,27 @@
         <v>1</v>
       </c>
       <c r="G74" s="4" t="s">
-        <v>288</v>
+        <v>296</v>
       </c>
       <c r="H74" s="4" t="s">
-        <v>290</v>
+        <v>298</v>
       </c>
       <c r="I74" s="4" t="s">
-        <v>203</v>
+        <v>211</v>
       </c>
       <c r="J74" s="4" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="75" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10" ht="15.75">
       <c r="A75" s="4" t="s">
-        <v>291</v>
+        <v>299</v>
       </c>
       <c r="B75" s="4">
         <v>5</v>
       </c>
       <c r="C75" s="9" t="s">
-        <v>292</v>
+        <v>300</v>
       </c>
       <c r="D75" s="4">
         <v>0</v>
@@ -7977,27 +7981,27 @@
         <v>2</v>
       </c>
       <c r="G75" s="4" t="s">
-        <v>288</v>
+        <v>296</v>
       </c>
       <c r="H75" s="4" t="s">
-        <v>293</v>
+        <v>301</v>
       </c>
       <c r="I75" s="4" t="s">
-        <v>203</v>
+        <v>211</v>
       </c>
       <c r="J75" s="4" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="76" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10" ht="15.75">
       <c r="A76" s="4" t="s">
-        <v>294</v>
+        <v>302</v>
       </c>
       <c r="B76" s="4">
         <v>2</v>
       </c>
       <c r="C76" s="15" t="s">
-        <v>295</v>
+        <v>303</v>
       </c>
       <c r="D76" s="19">
         <v>0</v>
@@ -8009,27 +8013,27 @@
         <v>1</v>
       </c>
       <c r="G76" s="18" t="s">
-        <v>270</v>
+        <v>278</v>
       </c>
       <c r="H76" s="4" t="s">
-        <v>296</v>
+        <v>304</v>
       </c>
       <c r="I76" s="4" t="s">
-        <v>218</v>
+        <v>226</v>
       </c>
       <c r="J76" s="3" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="77" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10" ht="15.75">
       <c r="A77" s="4" t="s">
-        <v>297</v>
+        <v>305</v>
       </c>
       <c r="B77" s="4">
         <v>2</v>
       </c>
       <c r="C77" s="15" t="s">
-        <v>295</v>
+        <v>303</v>
       </c>
       <c r="D77" s="19">
         <v>0</v>
@@ -8041,27 +8045,27 @@
         <v>1</v>
       </c>
       <c r="G77" s="18" t="s">
-        <v>270</v>
+        <v>278</v>
       </c>
       <c r="H77" s="4" t="s">
-        <v>296</v>
+        <v>304</v>
       </c>
       <c r="I77" s="4" t="s">
-        <v>218</v>
+        <v>226</v>
       </c>
       <c r="J77" s="3" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="78" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10" ht="15.75">
       <c r="A78" s="4" t="s">
-        <v>298</v>
+        <v>306</v>
       </c>
       <c r="B78" s="4">
         <v>2</v>
       </c>
       <c r="C78" s="15" t="s">
-        <v>272</v>
+        <v>280</v>
       </c>
       <c r="D78" s="19">
         <v>0</v>
@@ -8073,27 +8077,27 @@
         <v>1</v>
       </c>
       <c r="G78" s="18" t="s">
-        <v>270</v>
+        <v>278</v>
       </c>
       <c r="H78" s="4" t="s">
-        <v>296</v>
+        <v>304</v>
       </c>
       <c r="I78" s="4" t="s">
-        <v>218</v>
+        <v>226</v>
       </c>
       <c r="J78" s="3" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="79" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10" ht="15.75">
       <c r="A79" s="4" t="s">
-        <v>299</v>
+        <v>307</v>
       </c>
       <c r="B79" s="4">
         <v>2</v>
       </c>
       <c r="C79" s="15" t="s">
-        <v>272</v>
+        <v>280</v>
       </c>
       <c r="D79" s="19">
         <v>0</v>
@@ -8105,57 +8109,57 @@
         <v>1</v>
       </c>
       <c r="G79" s="18" t="s">
-        <v>270</v>
+        <v>278</v>
       </c>
       <c r="H79" s="4" t="s">
-        <v>296</v>
+        <v>304</v>
       </c>
       <c r="I79" s="4" t="s">
-        <v>218</v>
+        <v>226</v>
       </c>
       <c r="J79" s="3" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="81" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" ht="15.75">
       <c r="A81" s="2" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="85" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" ht="15.75">
       <c r="A85" s="4" t="s">
-        <v>301</v>
+        <v>309</v>
       </c>
       <c r="B85" s="4">
         <f>B66+B73+B78+B80</f>
         <v>10</v>
       </c>
     </row>
-    <row r="86" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:2" ht="15.75">
       <c r="A86" s="4" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B86" s="4">
         <v>85</v>
       </c>
     </row>
-    <row r="87" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:2" ht="15.75">
       <c r="A87" s="4" t="s">
-        <v>302</v>
+        <v>310</v>
       </c>
       <c r="B87" s="4">
         <v>20</v>
       </c>
     </row>
-    <row r="88" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:2" ht="15.75">
       <c r="A88" s="4" t="s">
-        <v>303</v>
+        <v>311</v>
       </c>
       <c r="B88" s="4">
         <v>10</v>
       </c>
     </row>
-    <row r="89" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:2" ht="15.75">
       <c r="A89" s="4"/>
       <c r="B89" s="24">
         <f>B85+B86+B87+B88</f>
@@ -8171,22 +8175,111 @@
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
+  <documentManagement>
+    <TaxCatchAll xmlns="64cee142-9623-4b63-8ea8-1d4facd6545a" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="0bdf3a53-275c-4001-b611-e41331286eb1">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
 </p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokumentum" ma:contentTypeID="0x010100CA947E63DBB18C43B0DCD636FEFAAF82" ma:contentTypeVersion="0" ma:contentTypeDescription="Új dokumentum létrehozása." ma:contentTypeScope="" ma:versionID="105f5595a234019decd898e650ffc1cd">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="f7af5af6639fca6992108c272a16dc73">
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokumentum" ma:contentTypeID="0x010100CA947E63DBB18C43B0DCD636FEFAAF82" ma:contentTypeVersion="10" ma:contentTypeDescription="Új dokumentum létrehozása." ma:contentTypeScope="" ma:versionID="add355b8eb8a1d07a5c296ebc5fa18c4">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="0bdf3a53-275c-4001-b611-e41331286eb1" xmlns:ns3="64cee142-9623-4b63-8ea8-1d4facd6545a" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="39c3d52e67d593269f3de29aa75e9200" ns2:_="" ns3:_="">
+    <xsd:import namespace="0bdf3a53-275c-4001-b611-e41331286eb1"/>
+    <xsd:import namespace="64cee142-9623-4b63-8ea8-1d4facd6545a"/>
     <xsd:element name="properties">
       <xsd:complexType>
         <xsd:sequence>
           <xsd:element name="documentManagement">
             <xsd:complexType>
-              <xsd:all/>
+              <xsd:all>
+                <xsd:element ref="ns2:MediaServiceMetadata" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceFastMetadata" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceSearchProperties" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceObjectDetectorVersions" minOccurs="0"/>
+                <xsd:element ref="ns2:lcf76f155ced4ddcb4097134ff3c332f" minOccurs="0"/>
+                <xsd:element ref="ns3:TaxCatchAll" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceOCR" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceGenerationTime" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceEventHashCode" minOccurs="0"/>
+              </xsd:all>
             </xsd:complexType>
           </xsd:element>
         </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="0bdf3a53-275c-4001-b611-e41331286eb1" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="MediaServiceMetadata" ma:index="8" nillable="true" ma:displayName="MediaServiceMetadata" ma:hidden="true" ma:internalName="MediaServiceMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceFastMetadata" ma:index="9" nillable="true" ma:displayName="MediaServiceFastMetadata" ma:hidden="true" ma:internalName="MediaServiceFastMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceSearchProperties" ma:index="10" nillable="true" ma:displayName="MediaServiceSearchProperties" ma:hidden="true" ma:internalName="MediaServiceSearchProperties" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceObjectDetectorVersions" ma:index="11" nillable="true" ma:displayName="MediaServiceObjectDetectorVersions" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceObjectDetectorVersions" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="lcf76f155ced4ddcb4097134ff3c332f" ma:index="13" nillable="true" ma:taxonomy="true" ma:internalName="lcf76f155ced4ddcb4097134ff3c332f" ma:taxonomyFieldName="MediaServiceImageTags" ma:displayName="Képcímkék" ma:readOnly="false" ma:fieldId="{5cf76f15-5ced-4ddc-b409-7134ff3c332f}" ma:taxonomyMulti="true" ma:sspId="34308edd-cbe0-477a-9645-3c56fd718a83" ma:termSetId="09814cd3-568e-fe90-9814-8d621ff8fb84" ma:anchorId="fba54fb3-c3e1-fe81-a776-ca4b69148c4d" ma:open="true" ma:isKeyword="false">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element ref="pc:Terms" minOccurs="0" maxOccurs="1"/>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="MediaServiceOCR" ma:index="15" nillable="true" ma:displayName="Extracted Text" ma:internalName="MediaServiceOCR" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceGenerationTime" ma:index="16" nillable="true" ma:displayName="MediaServiceGenerationTime" ma:hidden="true" ma:internalName="MediaServiceGenerationTime" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceEventHashCode" ma:index="17" nillable="true" ma:displayName="MediaServiceEventHashCode" ma:hidden="true" ma:internalName="MediaServiceEventHashCode" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="64cee142-9623-4b63-8ea8-1d4facd6545a" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="TaxCatchAll" ma:index="14" nillable="true" ma:displayName="Taxonomy Catch All Column" ma:hidden="true" ma:list="{f1ba0df1-07b1-4dfb-b07f-236e884041b3}" ma:internalName="TaxCatchAll" ma:showField="CatchAllData" ma:web="64cee142-9623-4b63-8ea8-1d4facd6545a">
+      <xsd:complexType>
+        <xsd:complexContent>
+          <xsd:extension base="dms:MultiChoiceLookup">
+            <xsd:sequence>
+              <xsd:element name="Value" type="dms:Lookup" maxOccurs="unbounded" minOccurs="0" nillable="true"/>
+            </xsd:sequence>
+          </xsd:extension>
+        </xsd:complexContent>
       </xsd:complexType>
     </xsd:element>
   </xsd:schema>
@@ -8289,40 +8382,14 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EEC19807-1D77-45D9-8A38-16ABA4B332F9}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="99baf28a-82e9-4c87-9b96-ad37a2c3c6a3"/>
-    <ds:schemaRef ds:uri="edf1378a-a36c-46aa-a4a9-a6a6bc4d43dd"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EEC19807-1D77-45D9-8A38-16ABA4B332F9}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8941267B-7276-43A3-9F4E-8CBC307F18BB}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{668D240C-1AD7-4EBD-8F3F-178CB9505E17}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{668D240C-1AD7-4EBD-8F3F-178CB9505E17}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3FCE3B96-D318-4C5C-BB52-5270B962E8F2}"/>
 </file>
--- a/backend/django_subject_manager/input/szombathely.xlsx
+++ b/backend/django_subject_manager/input/szombathely.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27420"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10512"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\D\Andrasjó\tantervi hálók 2009-2010\tantervi hálók 2016\új mintatantervek\2024 január\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mathearnoldattila/Arnold/egyetem/6felev/subject_manager/backend/django_subject_manager/input/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="8_{1D6B3D71-4798-4F40-845A-70D153EEA9AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F2DEDF7B-F098-45EA-9236-793243AE18D0}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44848E29-9C8D-C04D-B578-496D1D29351D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13290" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="D specializáció végleges" sheetId="11" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="727" uniqueCount="312">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="727" uniqueCount="311">
   <si>
     <t>Programtervező informatikus BSc 2022,  Szoftvermérnök (D) specializáció ajánlott tantervi háló</t>
   </si>
@@ -286,9 +286,6 @@
     <t>Inf</t>
   </si>
   <si>
-    <t>IKSEK-22OBPROGEG</t>
-  </si>
-  <si>
     <t>Objektumelvű programozás</t>
   </si>
   <si>
@@ -373,9 +370,6 @@
     <t>Operációs rendszerek</t>
   </si>
   <si>
-    <t>IKSEK-22SZGREG, IKSEK-122PNYEG</t>
-  </si>
-  <si>
     <t>1+0+1+1</t>
   </si>
   <si>
@@ -427,9 +421,6 @@
     <t>Mesterséges intelligencia</t>
   </si>
   <si>
-    <t>IKSEK-122AA2E (gyenge)</t>
-  </si>
-  <si>
     <t>2+0+0+1</t>
   </si>
   <si>
@@ -563,9 +554,6 @@
   </si>
   <si>
     <t>IKSEK-22ADTAG</t>
-  </si>
-  <si>
-    <t>IIKSEK-22AN1E, IKSEK-22DM1E</t>
   </si>
   <si>
     <t>Specializáció kötelezően választható tárgyai</t>
@@ -1079,12 +1067,21 @@
   <si>
     <t>Szabvál</t>
   </si>
+  <si>
+    <t>IKSEK-22SZGREG, IKSEK-22PNYEG</t>
+  </si>
+  <si>
+    <t>IKSEK-22AA2E (gyenge)</t>
+  </si>
+  <si>
+    <t>IKSEK-22AN1E, IKSEK-22DM1E</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="35">
+  <fonts count="35" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2325,6 +2322,7 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="2" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2340,9 +2338,11 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2364,9 +2364,6 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="42" xfId="2" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hivatkozás" xfId="2" builtinId="8"/>
@@ -2684,92 +2681,92 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1FFF99A-C51B-413D-8100-23CEE578C48A}">
   <dimension ref="A1:T100"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A76" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I81" sqref="I81"/>
+    <sheetView tabSelected="1" topLeftCell="A61" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C65" sqref="C65"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.33203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="25.5703125" style="2" customWidth="1"/>
-    <col min="2" max="2" width="38.140625" style="2" customWidth="1"/>
-    <col min="3" max="3" width="4.140625" style="2" customWidth="1"/>
-    <col min="4" max="4" width="4.28515625" style="2" customWidth="1"/>
-    <col min="5" max="5" width="4.42578125" style="2" customWidth="1"/>
-    <col min="6" max="6" width="4.7109375" style="2" customWidth="1"/>
-    <col min="7" max="7" width="6.85546875" style="2" customWidth="1"/>
-    <col min="8" max="8" width="4.85546875" style="2" customWidth="1"/>
-    <col min="9" max="9" width="6.140625" style="2" customWidth="1"/>
-    <col min="10" max="10" width="22.28515625" style="2" customWidth="1"/>
-    <col min="11" max="11" width="9.85546875" style="2" customWidth="1"/>
+    <col min="1" max="1" width="25.5" style="2" customWidth="1"/>
+    <col min="2" max="2" width="38.1640625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="4.1640625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="4.33203125" style="2" customWidth="1"/>
+    <col min="5" max="5" width="4.5" style="2" customWidth="1"/>
+    <col min="6" max="6" width="4.6640625" style="2" customWidth="1"/>
+    <col min="7" max="7" width="6.83203125" style="2" customWidth="1"/>
+    <col min="8" max="8" width="4.83203125" style="2" customWidth="1"/>
+    <col min="9" max="9" width="6.1640625" style="2" customWidth="1"/>
+    <col min="10" max="10" width="22.33203125" style="2" customWidth="1"/>
+    <col min="11" max="11" width="9.83203125" style="2" customWidth="1"/>
     <col min="12" max="12" width="9" style="2" customWidth="1"/>
-    <col min="13" max="13" width="9.85546875" style="2" customWidth="1"/>
-    <col min="14" max="14" width="10.140625" style="2" customWidth="1"/>
-    <col min="15" max="15" width="9.85546875" style="2" customWidth="1"/>
-    <col min="16" max="16" width="11.42578125" style="2" customWidth="1"/>
-    <col min="17" max="17" width="6.28515625" style="2" customWidth="1"/>
-    <col min="18" max="16384" width="9.28515625" style="2"/>
+    <col min="13" max="13" width="9.83203125" style="2" customWidth="1"/>
+    <col min="14" max="14" width="10.1640625" style="2" customWidth="1"/>
+    <col min="15" max="15" width="9.83203125" style="2" customWidth="1"/>
+    <col min="16" max="16" width="11.5" style="2" customWidth="1"/>
+    <col min="17" max="17" width="6.33203125" style="2" customWidth="1"/>
+    <col min="18" max="16384" width="9.33203125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" ht="15.75" customHeight="1">
-      <c r="A1" s="166" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="175"/>
-      <c r="C1" s="175"/>
-      <c r="D1" s="175"/>
-      <c r="E1" s="175"/>
-      <c r="F1" s="175"/>
-      <c r="G1" s="175"/>
-      <c r="H1" s="175"/>
-      <c r="I1" s="175"/>
-      <c r="J1" s="175"/>
-      <c r="K1" s="175"/>
-      <c r="L1" s="175"/>
-      <c r="M1" s="175"/>
-      <c r="N1" s="175"/>
-      <c r="O1" s="175"/>
-      <c r="P1" s="175"/>
-      <c r="Q1" s="175"/>
-    </row>
-    <row r="2" spans="1:20" ht="15.75" customHeight="1">
-      <c r="A2" s="175"/>
-      <c r="B2" s="175"/>
-      <c r="C2" s="175"/>
-      <c r="D2" s="175"/>
-      <c r="E2" s="175"/>
-      <c r="F2" s="175"/>
-      <c r="G2" s="175"/>
-      <c r="H2" s="175"/>
-      <c r="I2" s="175"/>
-      <c r="J2" s="175"/>
-      <c r="K2" s="175"/>
-      <c r="L2" s="175"/>
-      <c r="M2" s="175"/>
-      <c r="N2" s="175"/>
-      <c r="O2" s="175"/>
-      <c r="P2" s="175"/>
-      <c r="Q2" s="175"/>
-    </row>
-    <row r="3" spans="1:20" ht="11.25" customHeight="1">
-      <c r="A3" s="175"/>
-      <c r="B3" s="175"/>
-      <c r="C3" s="175"/>
-      <c r="D3" s="175"/>
-      <c r="E3" s="175"/>
-      <c r="F3" s="175"/>
-      <c r="G3" s="175"/>
-      <c r="H3" s="175"/>
-      <c r="I3" s="175"/>
-      <c r="J3" s="175"/>
-      <c r="K3" s="175"/>
-      <c r="L3" s="175"/>
-      <c r="M3" s="175"/>
-      <c r="N3" s="175"/>
-      <c r="O3" s="175"/>
-      <c r="P3" s="175"/>
-      <c r="Q3" s="175"/>
-    </row>
-    <row r="4" spans="1:20" ht="11.25" customHeight="1" thickBot="1">
+    <row r="1" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="167" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="168"/>
+      <c r="C1" s="168"/>
+      <c r="D1" s="168"/>
+      <c r="E1" s="168"/>
+      <c r="F1" s="168"/>
+      <c r="G1" s="168"/>
+      <c r="H1" s="168"/>
+      <c r="I1" s="168"/>
+      <c r="J1" s="168"/>
+      <c r="K1" s="168"/>
+      <c r="L1" s="168"/>
+      <c r="M1" s="168"/>
+      <c r="N1" s="168"/>
+      <c r="O1" s="168"/>
+      <c r="P1" s="168"/>
+      <c r="Q1" s="168"/>
+    </row>
+    <row r="2" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="168"/>
+      <c r="B2" s="168"/>
+      <c r="C2" s="168"/>
+      <c r="D2" s="168"/>
+      <c r="E2" s="168"/>
+      <c r="F2" s="168"/>
+      <c r="G2" s="168"/>
+      <c r="H2" s="168"/>
+      <c r="I2" s="168"/>
+      <c r="J2" s="168"/>
+      <c r="K2" s="168"/>
+      <c r="L2" s="168"/>
+      <c r="M2" s="168"/>
+      <c r="N2" s="168"/>
+      <c r="O2" s="168"/>
+      <c r="P2" s="168"/>
+      <c r="Q2" s="168"/>
+    </row>
+    <row r="3" spans="1:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="168"/>
+      <c r="B3" s="168"/>
+      <c r="C3" s="168"/>
+      <c r="D3" s="168"/>
+      <c r="E3" s="168"/>
+      <c r="F3" s="168"/>
+      <c r="G3" s="168"/>
+      <c r="H3" s="168"/>
+      <c r="I3" s="168"/>
+      <c r="J3" s="168"/>
+      <c r="K3" s="168"/>
+      <c r="L3" s="168"/>
+      <c r="M3" s="168"/>
+      <c r="N3" s="168"/>
+      <c r="O3" s="168"/>
+      <c r="P3" s="168"/>
+      <c r="Q3" s="168"/>
+    </row>
+    <row r="4" spans="1:20" ht="11.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="160"/>
       <c r="B4" s="160"/>
       <c r="C4" s="160"/>
@@ -2788,28 +2785,28 @@
       <c r="P4" s="160"/>
       <c r="Q4" s="160"/>
     </row>
-    <row r="5" spans="1:20" ht="330.75" customHeight="1" thickBot="1">
-      <c r="A5" s="172" t="s">
-        <v>1</v>
-      </c>
-      <c r="B5" s="173"/>
-      <c r="C5" s="173"/>
-      <c r="D5" s="173"/>
-      <c r="E5" s="173"/>
-      <c r="F5" s="173"/>
-      <c r="G5" s="173"/>
-      <c r="H5" s="173"/>
-      <c r="I5" s="173"/>
-      <c r="J5" s="173"/>
-      <c r="K5" s="173"/>
-      <c r="L5" s="173"/>
-      <c r="M5" s="173"/>
-      <c r="N5" s="173"/>
-      <c r="O5" s="173"/>
-      <c r="P5" s="173"/>
-      <c r="Q5" s="174"/>
-    </row>
-    <row r="6" spans="1:20" ht="24.75" customHeight="1">
+    <row r="5" spans="1:20" ht="330.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="175" t="s">
+        <v>1</v>
+      </c>
+      <c r="B5" s="176"/>
+      <c r="C5" s="176"/>
+      <c r="D5" s="176"/>
+      <c r="E5" s="176"/>
+      <c r="F5" s="176"/>
+      <c r="G5" s="176"/>
+      <c r="H5" s="176"/>
+      <c r="I5" s="176"/>
+      <c r="J5" s="176"/>
+      <c r="K5" s="176"/>
+      <c r="L5" s="176"/>
+      <c r="M5" s="176"/>
+      <c r="N5" s="176"/>
+      <c r="O5" s="176"/>
+      <c r="P5" s="176"/>
+      <c r="Q5" s="177"/>
+    </row>
+    <row r="6" spans="1:20" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6"/>
       <c r="B6"/>
       <c r="C6"/>
@@ -2828,29 +2825,29 @@
       <c r="P6"/>
       <c r="Q6"/>
     </row>
-    <row r="7" spans="1:20" ht="22.5" customHeight="1">
-      <c r="A7" s="167" t="s">
-        <v>2</v>
-      </c>
-      <c r="B7" s="176"/>
-      <c r="C7" s="176"/>
-      <c r="D7" s="176"/>
-      <c r="E7" s="176"/>
-      <c r="F7" s="176"/>
-      <c r="G7" s="176"/>
-      <c r="H7" s="176"/>
-      <c r="I7" s="176"/>
-      <c r="J7" s="176"/>
-      <c r="K7" s="176"/>
-      <c r="L7" s="176"/>
-      <c r="M7" s="176"/>
-      <c r="N7" s="176"/>
-      <c r="O7" s="176"/>
-      <c r="P7" s="176"/>
-      <c r="Q7" s="176"/>
-    </row>
-    <row r="8" spans="1:20" ht="16.5" thickBot="1"/>
-    <row r="9" spans="1:20" ht="96" customHeight="1" thickBot="1">
+    <row r="7" spans="1:20" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="169" t="s">
+        <v>2</v>
+      </c>
+      <c r="B7" s="170"/>
+      <c r="C7" s="170"/>
+      <c r="D7" s="170"/>
+      <c r="E7" s="170"/>
+      <c r="F7" s="170"/>
+      <c r="G7" s="170"/>
+      <c r="H7" s="170"/>
+      <c r="I7" s="170"/>
+      <c r="J7" s="170"/>
+      <c r="K7" s="170"/>
+      <c r="L7" s="170"/>
+      <c r="M7" s="170"/>
+      <c r="N7" s="170"/>
+      <c r="O7" s="170"/>
+      <c r="P7" s="170"/>
+      <c r="Q7" s="170"/>
+    </row>
+    <row r="8" spans="1:20" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="9" spans="1:20" ht="96" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" s="36" t="s">
         <v>3</v>
       </c>
@@ -2903,7 +2900,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="10" spans="1:20" ht="23.25" customHeight="1">
+    <row r="10" spans="1:20" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="82" t="s">
         <v>20</v>
       </c>
@@ -2944,7 +2941,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="11" spans="1:20" ht="24.75" customHeight="1">
+    <row r="11" spans="1:20" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="66" t="s">
         <v>25</v>
       </c>
@@ -2985,7 +2982,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="12" spans="1:20" ht="24" customHeight="1">
+    <row r="12" spans="1:20" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="66" t="s">
         <v>28</v>
       </c>
@@ -3029,7 +3026,7 @@
       <c r="S12" s="38"/>
       <c r="T12" s="38"/>
     </row>
-    <row r="13" spans="1:20" ht="27.75" customHeight="1">
+    <row r="13" spans="1:20" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="66" t="s">
         <v>31</v>
       </c>
@@ -3070,7 +3067,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="14" spans="1:20" ht="24" customHeight="1">
+    <row r="14" spans="1:20" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="66" t="s">
         <v>34</v>
       </c>
@@ -3111,7 +3108,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="15" spans="1:20" ht="30" customHeight="1">
+    <row r="15" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="66" t="s">
         <v>39</v>
       </c>
@@ -3152,7 +3149,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="16" spans="1:20" ht="22.5" customHeight="1">
+    <row r="16" spans="1:20" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="66" t="s">
         <v>44</v>
       </c>
@@ -3193,7 +3190,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="17" spans="1:17" ht="32.25" customHeight="1">
+    <row r="17" spans="1:17" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="66" t="s">
         <v>48</v>
       </c>
@@ -3236,12 +3233,12 @@
         <v>51</v>
       </c>
     </row>
-    <row r="18" spans="1:17" ht="33" customHeight="1">
+    <row r="18" spans="1:17" ht="33" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="66" t="s">
+        <v>108</v>
+      </c>
+      <c r="B18" s="62" t="s">
         <v>52</v>
-      </c>
-      <c r="B18" s="62" t="s">
-        <v>53</v>
       </c>
       <c r="C18" s="68">
         <v>2</v>
@@ -3279,12 +3276,12 @@
         <v>51</v>
       </c>
     </row>
-    <row r="19" spans="1:17" ht="48" customHeight="1">
+    <row r="19" spans="1:17" ht="48" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="66" t="s">
+        <v>53</v>
+      </c>
+      <c r="B19" s="62" t="s">
         <v>54</v>
-      </c>
-      <c r="B19" s="62" t="s">
-        <v>55</v>
       </c>
       <c r="C19" s="68">
         <v>1</v>
@@ -3308,11 +3305,11 @@
         <v>2</v>
       </c>
       <c r="J19" s="69" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K19" s="70"/>
       <c r="L19" s="68" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="M19" s="70"/>
       <c r="N19" s="70"/>
@@ -3322,55 +3319,55 @@
         <v>51</v>
       </c>
     </row>
-    <row r="20" spans="1:17" ht="34.5" customHeight="1">
+    <row r="20" spans="1:17" ht="34.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="66" t="s">
+        <v>57</v>
+      </c>
+      <c r="B20" s="62" t="s">
         <v>58</v>
       </c>
-      <c r="B20" s="62" t="s">
+      <c r="C20" s="68">
+        <v>2</v>
+      </c>
+      <c r="D20" s="68">
+        <v>0</v>
+      </c>
+      <c r="E20" s="68">
+        <v>0</v>
+      </c>
+      <c r="F20" s="68">
+        <v>0</v>
+      </c>
+      <c r="G20" s="68" t="s">
         <v>59</v>
       </c>
-      <c r="C20" s="68">
-        <v>2</v>
-      </c>
-      <c r="D20" s="68">
-        <v>0</v>
-      </c>
-      <c r="E20" s="68">
-        <v>0</v>
-      </c>
-      <c r="F20" s="68">
-        <v>0</v>
-      </c>
-      <c r="G20" s="68" t="s">
+      <c r="H20" s="68">
+        <v>2</v>
+      </c>
+      <c r="I20" s="68">
+        <v>2</v>
+      </c>
+      <c r="J20" s="69" t="s">
         <v>60</v>
-      </c>
-      <c r="H20" s="68">
-        <v>2</v>
-      </c>
-      <c r="I20" s="68">
-        <v>2</v>
-      </c>
-      <c r="J20" s="69" t="s">
-        <v>61</v>
       </c>
       <c r="K20" s="71"/>
       <c r="L20" s="68" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="M20" s="70"/>
       <c r="N20" s="70"/>
       <c r="O20" s="70"/>
       <c r="P20" s="70"/>
       <c r="Q20" s="88" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="66" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="21" spans="1:17" ht="37.5" customHeight="1">
-      <c r="A21" s="66" t="s">
-        <v>64</v>
-      </c>
       <c r="B21" s="62" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C21" s="68">
         <v>0</v>
@@ -3394,54 +3391,54 @@
         <v>2</v>
       </c>
       <c r="J21" s="91" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="K21" s="71"/>
       <c r="L21" s="68" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="M21" s="70"/>
       <c r="N21" s="70"/>
       <c r="O21" s="70"/>
       <c r="P21" s="70"/>
       <c r="Q21" s="88" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" ht="38.25" customHeight="1">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="66" t="s">
+        <v>66</v>
+      </c>
+      <c r="B22" s="62" t="s">
         <v>67</v>
       </c>
-      <c r="B22" s="62" t="s">
+      <c r="C22" s="68">
+        <v>2</v>
+      </c>
+      <c r="D22" s="68">
+        <v>0</v>
+      </c>
+      <c r="E22" s="68">
+        <v>0</v>
+      </c>
+      <c r="F22" s="68">
+        <v>0</v>
+      </c>
+      <c r="G22" s="68" t="s">
+        <v>59</v>
+      </c>
+      <c r="H22" s="68">
+        <v>2</v>
+      </c>
+      <c r="I22" s="68">
+        <v>2</v>
+      </c>
+      <c r="J22" s="69" t="s">
         <v>68</v>
-      </c>
-      <c r="C22" s="68">
-        <v>2</v>
-      </c>
-      <c r="D22" s="68">
-        <v>0</v>
-      </c>
-      <c r="E22" s="68">
-        <v>0</v>
-      </c>
-      <c r="F22" s="68">
-        <v>0</v>
-      </c>
-      <c r="G22" s="68" t="s">
-        <v>60</v>
-      </c>
-      <c r="H22" s="68">
-        <v>2</v>
-      </c>
-      <c r="I22" s="68">
-        <v>2</v>
-      </c>
-      <c r="J22" s="69" t="s">
-        <v>69</v>
       </c>
       <c r="K22" s="71"/>
       <c r="L22" s="68" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="M22" s="70"/>
       <c r="N22" s="70"/>
@@ -3451,12 +3448,12 @@
         <v>38</v>
       </c>
     </row>
-    <row r="23" spans="1:17" ht="36" customHeight="1">
+    <row r="23" spans="1:17" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="66" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B23" s="62" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C23" s="68">
         <v>0</v>
@@ -3484,7 +3481,7 @@
       </c>
       <c r="K23" s="71"/>
       <c r="L23" s="68" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="M23" s="70"/>
       <c r="N23" s="70"/>
@@ -3494,40 +3491,40 @@
         <v>38</v>
       </c>
     </row>
-    <row r="24" spans="1:17" ht="39" customHeight="1">
+    <row r="24" spans="1:17" ht="39" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="66" t="s">
+        <v>70</v>
+      </c>
+      <c r="B24" s="62" t="s">
         <v>71</v>
       </c>
-      <c r="B24" s="62" t="s">
+      <c r="C24" s="68">
+        <v>2</v>
+      </c>
+      <c r="D24" s="68">
+        <v>0</v>
+      </c>
+      <c r="E24" s="68">
+        <v>0</v>
+      </c>
+      <c r="F24" s="68">
+        <v>0</v>
+      </c>
+      <c r="G24" s="68" t="s">
+        <v>59</v>
+      </c>
+      <c r="H24" s="68">
+        <v>2</v>
+      </c>
+      <c r="I24" s="68">
+        <v>2</v>
+      </c>
+      <c r="J24" s="69" t="s">
         <v>72</v>
-      </c>
-      <c r="C24" s="68">
-        <v>2</v>
-      </c>
-      <c r="D24" s="68">
-        <v>0</v>
-      </c>
-      <c r="E24" s="68">
-        <v>0</v>
-      </c>
-      <c r="F24" s="68">
-        <v>0</v>
-      </c>
-      <c r="G24" s="68" t="s">
-        <v>60</v>
-      </c>
-      <c r="H24" s="68">
-        <v>2</v>
-      </c>
-      <c r="I24" s="68">
-        <v>2</v>
-      </c>
-      <c r="J24" s="69" t="s">
-        <v>73</v>
       </c>
       <c r="K24" s="71"/>
       <c r="L24" s="68" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="M24" s="70"/>
       <c r="N24" s="70"/>
@@ -3537,12 +3534,12 @@
         <v>38</v>
       </c>
     </row>
-    <row r="25" spans="1:17" ht="31.5" customHeight="1">
+    <row r="25" spans="1:17" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="66" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B25" s="62" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C25" s="68">
         <v>0</v>
@@ -3570,7 +3567,7 @@
       </c>
       <c r="K25" s="71"/>
       <c r="L25" s="68" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="M25" s="70"/>
       <c r="N25" s="70"/>
@@ -3580,13 +3577,13 @@
         <v>38</v>
       </c>
     </row>
-    <row r="26" spans="1:17" ht="40.5" customHeight="1">
+    <row r="26" spans="1:17" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="66" t="s">
+        <v>74</v>
+      </c>
+      <c r="B26" s="62" t="s">
         <v>75</v>
       </c>
-      <c r="B26" s="62" t="s">
-        <v>76</v>
-      </c>
       <c r="C26" s="68">
         <v>2</v>
       </c>
@@ -3600,7 +3597,7 @@
         <v>0</v>
       </c>
       <c r="G26" s="68" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H26" s="68">
         <v>2</v>
@@ -3609,26 +3606,26 @@
         <v>3</v>
       </c>
       <c r="J26" s="69" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="K26" s="71"/>
       <c r="L26" s="70"/>
       <c r="M26" s="68" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="N26" s="70"/>
       <c r="O26" s="70"/>
       <c r="P26" s="70"/>
       <c r="Q26" s="88" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="27" spans="1:17" ht="36" customHeight="1">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="66" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B27" s="62" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C27" s="68">
         <v>0</v>
@@ -3652,26 +3649,26 @@
         <v>3</v>
       </c>
       <c r="J27" s="69" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="K27" s="71"/>
       <c r="L27" s="70"/>
       <c r="M27" s="68" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="N27" s="70"/>
       <c r="O27" s="70"/>
       <c r="P27" s="70"/>
       <c r="Q27" s="88" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="28" spans="1:17" ht="43.5" customHeight="1">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" ht="43.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="66" t="s">
+        <v>78</v>
+      </c>
+      <c r="B28" s="62" t="s">
         <v>79</v>
-      </c>
-      <c r="B28" s="62" t="s">
-        <v>80</v>
       </c>
       <c r="C28" s="68">
         <v>1</v>
@@ -3695,13 +3692,13 @@
         <v>4</v>
       </c>
       <c r="J28" s="91" t="s">
-        <v>81</v>
+        <v>308</v>
       </c>
       <c r="K28" s="70"/>
       <c r="L28" s="70"/>
       <c r="M28" s="70"/>
       <c r="N28" s="68" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="O28" s="70"/>
       <c r="P28" s="70"/>
@@ -3709,12 +3706,12 @@
         <v>51</v>
       </c>
     </row>
-    <row r="29" spans="1:17" ht="37.5" customHeight="1">
+    <row r="29" spans="1:17" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="66" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B29" s="62" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C29" s="68">
         <v>2</v>
@@ -3729,7 +3726,7 @@
         <v>0</v>
       </c>
       <c r="G29" s="68" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H29" s="68">
         <v>2</v>
@@ -3738,13 +3735,13 @@
         <v>4</v>
       </c>
       <c r="J29" s="69" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="K29" s="70"/>
       <c r="L29" s="70"/>
       <c r="M29" s="70"/>
       <c r="N29" s="68" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="O29" s="70"/>
       <c r="P29" s="70"/>
@@ -3752,12 +3749,12 @@
         <v>51</v>
       </c>
     </row>
-    <row r="30" spans="1:17" ht="29.25" customHeight="1">
+    <row r="30" spans="1:17" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="66" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B30" s="62" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C30" s="68">
         <v>0</v>
@@ -3781,13 +3778,13 @@
         <v>4</v>
       </c>
       <c r="J30" s="69" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="K30" s="71"/>
       <c r="L30" s="70"/>
       <c r="M30" s="70"/>
       <c r="N30" s="68" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="O30" s="70"/>
       <c r="P30" s="70"/>
@@ -3795,12 +3792,12 @@
         <v>51</v>
       </c>
     </row>
-    <row r="31" spans="1:17" ht="27" customHeight="1">
+    <row r="31" spans="1:17" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="92" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B31" s="62" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C31" s="68">
         <v>1</v>
@@ -3824,26 +3821,26 @@
         <v>5</v>
       </c>
       <c r="J31" s="91" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="K31" s="71"/>
       <c r="L31" s="70"/>
       <c r="M31" s="70"/>
       <c r="N31" s="70"/>
       <c r="O31" s="68" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="P31" s="70"/>
       <c r="Q31" s="88" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="32" spans="1:17" ht="33.75" customHeight="1">
+    <row r="32" spans="1:17" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="92" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B32" s="62" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C32" s="68">
         <v>2</v>
@@ -3858,7 +3855,7 @@
         <v>0</v>
       </c>
       <c r="G32" s="68" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H32" s="68">
         <v>2</v>
@@ -3867,26 +3864,26 @@
         <v>5</v>
       </c>
       <c r="J32" s="69" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="K32" s="71"/>
       <c r="L32" s="70"/>
       <c r="M32" s="70"/>
       <c r="N32" s="70"/>
       <c r="O32" s="68" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="P32" s="70"/>
       <c r="Q32" s="88" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="33" spans="1:19" ht="37.9" customHeight="1">
+    <row r="33" spans="1:19" ht="38" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="92" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B33" s="62" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C33" s="68">
         <v>0</v>
@@ -3910,26 +3907,26 @@
         <v>5</v>
       </c>
       <c r="J33" s="91" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="K33" s="71"/>
       <c r="L33" s="70"/>
       <c r="M33" s="70"/>
       <c r="N33" s="70"/>
       <c r="O33" s="68" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="P33" s="70"/>
       <c r="Q33" s="88" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="34" spans="1:19" ht="36" customHeight="1">
+    <row r="34" spans="1:19" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="66" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B34" s="62" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C34" s="68">
         <v>2</v>
@@ -3944,7 +3941,7 @@
         <v>1</v>
       </c>
       <c r="G34" s="68" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H34" s="68">
         <v>3</v>
@@ -3953,26 +3950,26 @@
         <v>5</v>
       </c>
       <c r="J34" s="69" t="s">
-        <v>99</v>
+        <v>309</v>
       </c>
       <c r="K34" s="71"/>
       <c r="L34" s="70"/>
       <c r="M34" s="70"/>
       <c r="N34" s="70"/>
       <c r="O34" s="68" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="P34" s="70"/>
       <c r="Q34" s="88" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="35" spans="1:19" ht="22.5" customHeight="1" thickBot="1">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="35" spans="1:19" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A35" s="73" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="B35" s="74" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="C35" s="76">
         <v>2</v>
@@ -3987,7 +3984,7 @@
         <v>1</v>
       </c>
       <c r="G35" s="76" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H35" s="76">
         <v>3</v>
@@ -4002,17 +3999,17 @@
       <c r="N35" s="78"/>
       <c r="O35" s="78"/>
       <c r="P35" s="76" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="Q35" s="94" t="s">
         <v>43</v>
       </c>
       <c r="S35" s="37"/>
     </row>
-    <row r="36" spans="1:19" ht="25.5" customHeight="1" thickBot="1">
+    <row r="36" spans="1:19" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A36" s="53"/>
       <c r="B36" s="54" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="C36" s="55"/>
       <c r="D36" s="55"/>
@@ -4051,7 +4048,7 @@
       <c r="Q36" s="58"/>
       <c r="S36" s="37"/>
     </row>
-    <row r="37" spans="1:19" ht="25.5" customHeight="1">
+    <row r="37" spans="1:19" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="156"/>
       <c r="B37" s="157"/>
       <c r="C37" s="156"/>
@@ -4071,7 +4068,7 @@
       <c r="Q37" s="156"/>
       <c r="S37" s="37"/>
     </row>
-    <row r="38" spans="1:19" ht="25.5" customHeight="1">
+    <row r="38" spans="1:19" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="156"/>
       <c r="B38" s="157"/>
       <c r="C38" s="156"/>
@@ -4091,7 +4088,7 @@
       <c r="Q38" s="156"/>
       <c r="S38" s="37"/>
     </row>
-    <row r="39" spans="1:19" ht="25.5" customHeight="1">
+    <row r="39" spans="1:19" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="156"/>
       <c r="B39" s="157"/>
       <c r="C39" s="156"/>
@@ -4111,31 +4108,31 @@
       <c r="Q39" s="156"/>
       <c r="S39" s="37"/>
     </row>
-    <row r="40" spans="1:19" ht="23.25">
-      <c r="A40" s="167" t="s">
-        <v>104</v>
-      </c>
-      <c r="B40" s="176"/>
-      <c r="C40" s="176"/>
-      <c r="D40" s="176"/>
-      <c r="E40" s="176"/>
-      <c r="F40" s="176"/>
-      <c r="G40" s="176"/>
-      <c r="H40" s="176"/>
-      <c r="I40" s="176"/>
-      <c r="J40" s="176"/>
-      <c r="K40" s="176"/>
-      <c r="L40" s="176"/>
-      <c r="M40" s="176"/>
-      <c r="N40" s="176"/>
-      <c r="O40" s="176"/>
-      <c r="P40" s="176"/>
-      <c r="Q40" s="176"/>
-    </row>
-    <row r="41" spans="1:19" ht="22.5" customHeight="1" thickBot="1">
+    <row r="40" spans="1:19" ht="24" x14ac:dyDescent="0.3">
+      <c r="A40" s="169" t="s">
+        <v>101</v>
+      </c>
+      <c r="B40" s="170"/>
+      <c r="C40" s="170"/>
+      <c r="D40" s="170"/>
+      <c r="E40" s="170"/>
+      <c r="F40" s="170"/>
+      <c r="G40" s="170"/>
+      <c r="H40" s="170"/>
+      <c r="I40" s="170"/>
+      <c r="J40" s="170"/>
+      <c r="K40" s="170"/>
+      <c r="L40" s="170"/>
+      <c r="M40" s="170"/>
+      <c r="N40" s="170"/>
+      <c r="O40" s="170"/>
+      <c r="P40" s="170"/>
+      <c r="Q40" s="170"/>
+    </row>
+    <row r="41" spans="1:19" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A41" s="44"/>
     </row>
-    <row r="42" spans="1:19" ht="102.75" customHeight="1" thickBot="1">
+    <row r="42" spans="1:19" ht="102.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A42" s="36" t="s">
         <v>3</v>
       </c>
@@ -4188,12 +4185,12 @@
         <v>19</v>
       </c>
     </row>
-    <row r="43" spans="1:19" ht="36.75" customHeight="1">
+    <row r="43" spans="1:19" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="95" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="B43" s="96" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="C43" s="97">
         <v>1</v>
@@ -4214,15 +4211,15 @@
         <v>4</v>
       </c>
       <c r="I43" s="98" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="J43" s="99" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K43" s="86"/>
       <c r="L43" s="86"/>
       <c r="M43" s="86" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="N43" s="86"/>
       <c r="O43" s="86"/>
@@ -4231,12 +4228,12 @@
         <v>51</v>
       </c>
     </row>
-    <row r="44" spans="1:19" ht="30" customHeight="1">
+    <row r="44" spans="1:19" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="66" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="B44" s="62" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="C44" s="67">
         <v>2</v>
@@ -4260,7 +4257,7 @@
         <v>3</v>
       </c>
       <c r="J44" s="91" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="K44" s="70"/>
       <c r="L44" s="70"/>
@@ -4274,12 +4271,12 @@
         <v>51</v>
       </c>
     </row>
-    <row r="45" spans="1:19" ht="36.75" customHeight="1">
+    <row r="45" spans="1:19" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="66" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="B45" s="62" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="C45" s="67">
         <v>2</v>
@@ -4294,7 +4291,7 @@
         <v>0</v>
       </c>
       <c r="G45" s="68" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H45" s="68">
         <v>2</v>
@@ -4303,12 +4300,12 @@
         <v>3</v>
       </c>
       <c r="J45" s="69" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="K45" s="70"/>
       <c r="L45" s="70"/>
       <c r="M45" s="68" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="N45" s="71"/>
       <c r="O45" s="70"/>
@@ -4317,12 +4314,12 @@
         <v>38</v>
       </c>
     </row>
-    <row r="46" spans="1:19" ht="33" customHeight="1">
+    <row r="46" spans="1:19" ht="33" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="66" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="B46" s="62" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="C46" s="67">
         <v>0</v>
@@ -4346,12 +4343,12 @@
         <v>3</v>
       </c>
       <c r="J46" s="69" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="K46" s="70"/>
       <c r="L46" s="70"/>
       <c r="M46" s="68" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="N46" s="71"/>
       <c r="O46" s="70"/>
@@ -4360,12 +4357,12 @@
         <v>38</v>
       </c>
     </row>
-    <row r="47" spans="1:19" ht="39.75" customHeight="1">
+    <row r="47" spans="1:19" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="66" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="B47" s="62" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="C47" s="67">
         <v>2</v>
@@ -4380,7 +4377,7 @@
         <v>1</v>
       </c>
       <c r="G47" s="68" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H47" s="68">
         <v>3</v>
@@ -4389,12 +4386,12 @@
         <v>3</v>
       </c>
       <c r="J47" s="69" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="K47" s="70"/>
       <c r="L47" s="70"/>
       <c r="M47" s="68" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="N47" s="71"/>
       <c r="O47" s="70"/>
@@ -4403,12 +4400,12 @@
         <v>38</v>
       </c>
     </row>
-    <row r="48" spans="1:19" ht="28.5" customHeight="1">
+    <row r="48" spans="1:19" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="66" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="B48" s="62" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="C48" s="67">
         <v>0</v>
@@ -4432,12 +4429,12 @@
         <v>3</v>
       </c>
       <c r="J48" s="69" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="K48" s="70"/>
       <c r="L48" s="70"/>
       <c r="M48" s="68" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="N48" s="71"/>
       <c r="O48" s="70"/>
@@ -4446,12 +4443,12 @@
         <v>38</v>
       </c>
     </row>
-    <row r="49" spans="1:17" ht="29.25" customHeight="1">
+    <row r="49" spans="1:17" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="66" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="B49" s="90" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="C49" s="67">
         <v>2</v>
@@ -4466,7 +4463,7 @@
         <v>0</v>
       </c>
       <c r="G49" s="68" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H49" s="68">
         <v>2</v>
@@ -4475,26 +4472,26 @@
         <v>3</v>
       </c>
       <c r="J49" s="69" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="K49" s="70"/>
       <c r="L49" s="70"/>
       <c r="M49" s="68" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="N49" s="101"/>
       <c r="O49" s="70"/>
       <c r="P49" s="70"/>
       <c r="Q49" s="72" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="50" spans="1:17" ht="27.75" customHeight="1">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="50" spans="1:17" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="66" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="B50" s="90" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="C50" s="67">
         <v>0</v>
@@ -4521,21 +4518,21 @@
       <c r="K50" s="70"/>
       <c r="L50" s="70"/>
       <c r="M50" s="68" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="N50" s="101"/>
       <c r="O50" s="70"/>
       <c r="P50" s="70"/>
       <c r="Q50" s="72" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="51" spans="1:17" ht="33" customHeight="1">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="51" spans="1:17" ht="33" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="66" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="B51" s="62" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="C51" s="67">
         <v>2</v>
@@ -4559,7 +4556,7 @@
         <v>4</v>
       </c>
       <c r="J51" s="91" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="K51" s="70"/>
       <c r="L51" s="70"/>
@@ -4573,12 +4570,12 @@
         <v>51</v>
       </c>
     </row>
-    <row r="52" spans="1:17" ht="35.25" customHeight="1">
+    <row r="52" spans="1:17" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="102" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="B52" s="62" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="C52" s="67">
         <v>2</v>
@@ -4593,7 +4590,7 @@
         <v>0</v>
       </c>
       <c r="G52" s="68" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H52" s="68">
         <v>2</v>
@@ -4602,13 +4599,13 @@
         <v>4</v>
       </c>
       <c r="J52" s="69" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="K52" s="70"/>
       <c r="L52" s="70"/>
       <c r="M52" s="71"/>
       <c r="N52" s="68" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="O52" s="70"/>
       <c r="P52" s="70"/>
@@ -4616,12 +4613,12 @@
         <v>38</v>
       </c>
     </row>
-    <row r="53" spans="1:17" ht="28.5" customHeight="1">
+    <row r="53" spans="1:17" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="102" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="B53" s="62" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="C53" s="67">
         <v>0</v>
@@ -4645,13 +4642,13 @@
         <v>4</v>
       </c>
       <c r="J53" s="69" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="K53" s="70"/>
       <c r="L53" s="70"/>
       <c r="M53" s="71"/>
       <c r="N53" s="68" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="O53" s="70"/>
       <c r="P53" s="70"/>
@@ -4659,12 +4656,12 @@
         <v>38</v>
       </c>
     </row>
-    <row r="54" spans="1:17" ht="36.75" customHeight="1">
+    <row r="54" spans="1:17" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="66" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="B54" s="52" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="C54" s="68">
         <v>1</v>
@@ -4692,7 +4689,7 @@
       <c r="L54" s="68"/>
       <c r="M54" s="101"/>
       <c r="N54" s="68" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="O54" s="101"/>
       <c r="P54" s="101"/>
@@ -4700,12 +4697,12 @@
         <v>43</v>
       </c>
     </row>
-    <row r="55" spans="1:17" ht="36" customHeight="1">
+    <row r="55" spans="1:17" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="66" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="B55" s="104" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="C55" s="105">
         <v>2</v>
@@ -4726,26 +4723,26 @@
         <v>4</v>
       </c>
       <c r="I55" s="106" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="J55" s="69"/>
       <c r="K55" s="68"/>
       <c r="L55" s="68"/>
       <c r="M55" s="68"/>
       <c r="N55" s="68" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="P55" s="68"/>
       <c r="Q55" s="72" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="56" spans="1:17" ht="38.25" customHeight="1">
+    <row r="56" spans="1:17" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="107" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="B56" s="108" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="C56" s="109">
         <v>2</v>
@@ -4766,7 +4763,7 @@
         <v>3</v>
       </c>
       <c r="I56" s="111" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="J56" s="112"/>
       <c r="K56" s="110"/>
@@ -4774,19 +4771,19 @@
       <c r="M56" s="110"/>
       <c r="N56" s="110"/>
       <c r="O56" s="110" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="P56" s="110"/>
       <c r="Q56" s="113" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="57" spans="1:17" ht="38.25" customHeight="1">
+    <row r="57" spans="1:17" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="92" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="B57" s="62" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="C57" s="67">
         <v>2</v>
@@ -4801,7 +4798,7 @@
         <v>0</v>
       </c>
       <c r="G57" s="68" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H57" s="68">
         <v>2</v>
@@ -4810,26 +4807,26 @@
         <v>5</v>
       </c>
       <c r="J57" s="69" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="K57" s="70"/>
       <c r="L57" s="70"/>
       <c r="M57" s="71"/>
       <c r="N57" s="68"/>
       <c r="O57" s="68" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="P57" s="70"/>
       <c r="Q57" s="72" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="58" spans="1:17" ht="38.25" customHeight="1">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="58" spans="1:17" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="92" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="B58" s="62" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="C58" s="67">
         <v>0</v>
@@ -4853,26 +4850,26 @@
         <v>5</v>
       </c>
       <c r="J58" s="69" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="K58" s="70"/>
       <c r="L58" s="70"/>
       <c r="M58" s="71"/>
       <c r="N58" s="68"/>
       <c r="O58" s="68" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="P58" s="70"/>
       <c r="Q58" s="72" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="59" spans="1:17" ht="41.25" customHeight="1">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="59" spans="1:17" ht="41.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="66" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="B59" s="62" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="C59" s="67">
         <v>2</v>
@@ -4887,7 +4884,7 @@
         <v>0</v>
       </c>
       <c r="G59" s="68" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H59" s="68">
         <v>2</v>
@@ -4896,26 +4893,26 @@
         <v>5</v>
       </c>
       <c r="J59" s="69" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="K59" s="70"/>
       <c r="L59" s="70"/>
       <c r="M59" s="71"/>
       <c r="N59" s="71"/>
       <c r="O59" s="68" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="P59" s="70"/>
       <c r="Q59" s="72" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="60" spans="1:17" ht="39" customHeight="1" thickBot="1">
+    <row r="60" spans="1:17" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A60" s="73" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="B60" s="74" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="C60" s="75">
         <v>0</v>
@@ -4939,21 +4936,21 @@
         <v>5</v>
       </c>
       <c r="J60" s="77" t="s">
-        <v>145</v>
+        <v>310</v>
       </c>
       <c r="K60" s="78"/>
       <c r="L60" s="78"/>
       <c r="M60" s="79"/>
       <c r="N60" s="79"/>
       <c r="O60" s="76" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="P60" s="78"/>
       <c r="Q60" s="80" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="61" spans="1:17" ht="27" customHeight="1">
+    <row r="61" spans="1:17" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="48"/>
       <c r="B61" s="59"/>
       <c r="C61" s="43"/>
@@ -4972,7 +4969,7 @@
       <c r="P61" s="48"/>
       <c r="Q61" s="48"/>
     </row>
-    <row r="62" spans="1:17">
+    <row r="62" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A62" s="45"/>
       <c r="B62" s="46"/>
       <c r="C62" s="43"/>
@@ -4991,28 +4988,28 @@
       <c r="P62" s="48"/>
       <c r="Q62" s="48"/>
     </row>
-    <row r="63" spans="1:17" ht="26.25">
-      <c r="A63" s="168" t="s">
-        <v>146</v>
-      </c>
-      <c r="B63" s="177"/>
-      <c r="C63" s="177"/>
-      <c r="D63" s="177"/>
-      <c r="E63" s="177"/>
-      <c r="F63" s="177"/>
-      <c r="G63" s="177"/>
-      <c r="H63" s="177"/>
-      <c r="I63" s="177"/>
-      <c r="J63" s="177"/>
-      <c r="K63" s="177"/>
-      <c r="L63" s="177"/>
-      <c r="M63" s="177"/>
-      <c r="N63" s="177"/>
-      <c r="O63" s="177"/>
-      <c r="P63" s="177"/>
-      <c r="Q63" s="177"/>
-    </row>
-    <row r="64" spans="1:17" ht="13.9" customHeight="1" thickBot="1">
+    <row r="63" spans="1:17" ht="26" x14ac:dyDescent="0.2">
+      <c r="A63" s="171" t="s">
+        <v>142</v>
+      </c>
+      <c r="B63" s="162"/>
+      <c r="C63" s="162"/>
+      <c r="D63" s="162"/>
+      <c r="E63" s="162"/>
+      <c r="F63" s="162"/>
+      <c r="G63" s="162"/>
+      <c r="H63" s="162"/>
+      <c r="I63" s="162"/>
+      <c r="J63" s="162"/>
+      <c r="K63" s="162"/>
+      <c r="L63" s="162"/>
+      <c r="M63" s="162"/>
+      <c r="N63" s="162"/>
+      <c r="O63" s="162"/>
+      <c r="P63" s="162"/>
+      <c r="Q63" s="162"/>
+    </row>
+    <row r="64" spans="1:17" ht="14" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A64" s="63"/>
       <c r="B64"/>
       <c r="C64"/>
@@ -5031,7 +5028,7 @@
       <c r="P64"/>
       <c r="Q64"/>
     </row>
-    <row r="65" spans="1:17" ht="93.75" customHeight="1" thickBot="1">
+    <row r="65" spans="1:17" ht="93.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A65" s="36" t="s">
         <v>3</v>
       </c>
@@ -5084,12 +5081,12 @@
         <v>19</v>
       </c>
     </row>
-    <row r="66" spans="1:17" ht="42.75" customHeight="1">
+    <row r="66" spans="1:17" ht="42.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="154" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="B66" s="148" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="C66" s="86">
         <v>2</v>
@@ -5129,12 +5126,12 @@
         <v>51</v>
       </c>
     </row>
-    <row r="67" spans="1:17" ht="52.5" customHeight="1">
+    <row r="67" spans="1:17" ht="52.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="66" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="B67" s="62" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="C67" s="105">
         <v>2</v>
@@ -5155,10 +5152,10 @@
         <v>5</v>
       </c>
       <c r="I67" s="106" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="J67" s="91" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="K67" s="68"/>
       <c r="L67" s="68"/>
@@ -5172,12 +5169,12 @@
         <v>51</v>
       </c>
     </row>
-    <row r="68" spans="1:17" ht="52.5" customHeight="1">
+    <row r="68" spans="1:17" ht="52.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="66" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="B68" s="62" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="C68" s="105">
         <v>2</v>
@@ -5198,10 +5195,10 @@
         <v>5</v>
       </c>
       <c r="I68" s="106" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="J68" s="149" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="K68" s="68"/>
       <c r="L68" s="68"/>
@@ -5215,12 +5212,12 @@
         <v>51</v>
       </c>
     </row>
-    <row r="69" spans="1:17" ht="56.25" customHeight="1">
+    <row r="69" spans="1:17" ht="56.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="66" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="B69" s="61" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="C69" s="105">
         <v>2</v>
@@ -5241,10 +5238,10 @@
         <v>5</v>
       </c>
       <c r="I69" s="106" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="J69" s="69" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="K69" s="68"/>
       <c r="L69" s="68" t="s">
@@ -5258,12 +5255,12 @@
         <v>51</v>
       </c>
     </row>
-    <row r="70" spans="1:17" ht="30" customHeight="1">
+    <row r="70" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="114" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="B70" s="61" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="C70" s="105">
         <v>0</v>
@@ -5284,14 +5281,14 @@
         <v>5</v>
       </c>
       <c r="I70" s="106" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="J70" s="69"/>
       <c r="K70" s="68"/>
       <c r="L70" s="68"/>
       <c r="M70" s="68"/>
       <c r="N70" s="68" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="O70" s="68"/>
       <c r="P70" s="68"/>
@@ -5299,12 +5296,12 @@
         <v>51</v>
       </c>
     </row>
-    <row r="71" spans="1:17" ht="31.5" customHeight="1">
+    <row r="71" spans="1:17" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="66" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="B71" s="62" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="C71" s="105">
         <v>2</v>
@@ -5325,7 +5322,7 @@
         <v>5</v>
       </c>
       <c r="I71" s="106" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="J71" s="91"/>
       <c r="K71" s="68"/>
@@ -5340,12 +5337,12 @@
         <v>51</v>
       </c>
     </row>
-    <row r="72" spans="1:17" ht="32.25" customHeight="1">
+    <row r="72" spans="1:17" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A72" s="102" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="B72" s="62" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="C72" s="105">
         <v>2</v>
@@ -5366,29 +5363,29 @@
         <v>5</v>
       </c>
       <c r="I72" s="115" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="J72" s="91" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="K72" s="68"/>
       <c r="L72" s="68"/>
       <c r="M72" s="69"/>
       <c r="N72" s="68"/>
       <c r="O72" s="68" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="P72" s="68"/>
       <c r="Q72" s="72" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="73" spans="1:17" ht="31.5" customHeight="1">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="73" spans="1:17" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A73" s="66" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="B73" s="62" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="C73" s="105">
         <v>0</v>
@@ -5409,7 +5406,7 @@
         <v>3</v>
       </c>
       <c r="I73" s="115" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="J73" s="91"/>
       <c r="K73" s="68"/>
@@ -5418,18 +5415,18 @@
       <c r="N73" s="68"/>
       <c r="O73" s="68"/>
       <c r="P73" s="68" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="Q73" s="72" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="74" spans="1:17" ht="41.25" customHeight="1">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="74" spans="1:17" ht="41.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="66" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="B74" s="104" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="C74" s="105">
         <v>2</v>
@@ -5444,35 +5441,35 @@
         <v>0</v>
       </c>
       <c r="G74" s="68" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H74" s="68">
         <v>2</v>
       </c>
       <c r="I74" s="115" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="J74" s="150" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="K74" s="68"/>
       <c r="L74" s="68"/>
       <c r="M74" s="69"/>
       <c r="N74" s="68"/>
       <c r="O74" s="68" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="P74" s="68"/>
       <c r="Q74" s="72" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="75" spans="1:17" ht="25.5" customHeight="1">
+    <row r="75" spans="1:17" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" s="66" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="B75" s="104" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="C75" s="105">
         <v>0</v>
@@ -5493,29 +5490,29 @@
         <v>3</v>
       </c>
       <c r="I75" s="106" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="J75" s="68" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="K75" s="68"/>
       <c r="L75" s="68"/>
       <c r="M75" s="68"/>
       <c r="N75" s="68"/>
       <c r="O75" s="68" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="P75" s="68"/>
       <c r="Q75" s="72" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="76" spans="1:17" ht="33" customHeight="1" thickBot="1">
+    <row r="76" spans="1:17" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A76" s="73" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="B76" s="151" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="C76" s="152">
         <v>2</v>
@@ -5553,10 +5550,10 @@
         <v>51</v>
       </c>
     </row>
-    <row r="77" spans="1:17" ht="31.5" customHeight="1">
+    <row r="77" spans="1:17" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A77" s="116"/>
       <c r="B77" s="117" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="C77" s="118"/>
       <c r="D77" s="118"/>
@@ -5582,10 +5579,10 @@
       <c r="P77" s="119"/>
       <c r="Q77" s="120"/>
     </row>
-    <row r="78" spans="1:17" ht="27" customHeight="1">
+    <row r="78" spans="1:17" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A78" s="121"/>
       <c r="B78" s="122" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="C78" s="123"/>
       <c r="D78" s="123"/>
@@ -5596,7 +5593,7 @@
         <v>55</v>
       </c>
       <c r="I78" s="124" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="J78" s="123"/>
       <c r="K78" s="124">
@@ -5619,10 +5616,10 @@
       </c>
       <c r="Q78" s="125"/>
     </row>
-    <row r="79" spans="1:17" ht="51" customHeight="1" thickBot="1">
+    <row r="79" spans="1:17" ht="51" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A79" s="126"/>
       <c r="B79" s="127" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="C79" s="128"/>
       <c r="D79" s="128"/>
@@ -5641,15 +5638,15 @@
       <c r="M79" s="131"/>
       <c r="N79" s="131"/>
       <c r="O79" s="132" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="P79" s="131"/>
       <c r="Q79" s="133"/>
     </row>
-    <row r="80" spans="1:17" ht="36.75" customHeight="1">
+    <row r="80" spans="1:17" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A80" s="116"/>
       <c r="B80" s="117" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="C80" s="134"/>
       <c r="D80" s="134"/>
@@ -5660,7 +5657,7 @@
         <v>140</v>
       </c>
       <c r="I80" s="135" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="J80" s="134"/>
       <c r="K80" s="119">
@@ -5683,10 +5680,10 @@
       </c>
       <c r="Q80" s="120"/>
     </row>
-    <row r="81" spans="1:17" ht="40.5" customHeight="1">
+    <row r="81" spans="1:17" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A81" s="121"/>
       <c r="B81" s="122" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="C81" s="123"/>
       <c r="D81" s="123"/>
@@ -5697,7 +5694,7 @@
         <v>150</v>
       </c>
       <c r="I81" s="136" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="J81" s="123"/>
       <c r="K81" s="124">
@@ -5720,10 +5717,10 @@
       </c>
       <c r="Q81" s="125"/>
     </row>
-    <row r="82" spans="1:17" ht="39" customHeight="1">
+    <row r="82" spans="1:17" ht="39" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A82" s="121"/>
       <c r="B82" s="122" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="C82" s="137"/>
       <c r="D82" s="137"/>
@@ -5751,12 +5748,12 @@
       </c>
       <c r="Q82" s="125"/>
     </row>
-    <row r="83" spans="1:17" ht="22.5" customHeight="1">
+    <row r="83" spans="1:17" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A83" s="138" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="B83" s="122" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="C83" s="137"/>
       <c r="D83" s="137"/>
@@ -5780,10 +5777,10 @@
       </c>
       <c r="Q83" s="125"/>
     </row>
-    <row r="84" spans="1:17" ht="21.75" customHeight="1">
+    <row r="84" spans="1:17" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A84" s="139"/>
       <c r="B84" s="123" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="C84" s="140"/>
       <c r="D84" s="140"/>
@@ -5815,10 +5812,10 @@
       </c>
       <c r="Q84" s="141"/>
     </row>
-    <row r="85" spans="1:17" ht="27" customHeight="1" thickBot="1">
+    <row r="85" spans="1:17" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A85" s="142"/>
       <c r="B85" s="146" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="C85" s="143"/>
       <c r="D85" s="143"/>
@@ -5838,57 +5835,57 @@
       <c r="P85" s="144"/>
       <c r="Q85" s="145"/>
     </row>
-    <row r="87" spans="1:17" ht="15.75" customHeight="1">
+    <row r="87" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A87" s="50"/>
       <c r="B87" s="50"/>
     </row>
-    <row r="88" spans="1:17" ht="15.75" customHeight="1">
+    <row r="88" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A88" s="1" t="s">
         <v>51</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="89" spans="1:17" ht="15.75" customHeight="1">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="89" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A89" s="1" t="s">
         <v>38</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="90" spans="1:17" ht="15.75" customHeight="1">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="90" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A90" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="91" spans="1:17" ht="21" customHeight="1"/>
-    <row r="92" spans="1:17">
-      <c r="A92" s="169" t="s">
-        <v>192</v>
-      </c>
-      <c r="B92" s="170"/>
-      <c r="C92" s="170"/>
-      <c r="D92" s="170"/>
-      <c r="E92" s="170"/>
-      <c r="F92" s="170"/>
-      <c r="G92" s="170"/>
-      <c r="H92" s="170"/>
-      <c r="I92" s="170"/>
-      <c r="J92" s="170"/>
-      <c r="K92" s="170"/>
-      <c r="L92" s="170"/>
-      <c r="M92" s="170"/>
-      <c r="N92" s="170"/>
-      <c r="O92" s="170"/>
-      <c r="P92" s="170"/>
-      <c r="Q92" s="170"/>
-    </row>
-    <row r="93" spans="1:17">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="91" spans="1:17" ht="21" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="92" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A92" s="172" t="s">
+        <v>188</v>
+      </c>
+      <c r="B92" s="173"/>
+      <c r="C92" s="173"/>
+      <c r="D92" s="173"/>
+      <c r="E92" s="173"/>
+      <c r="F92" s="173"/>
+      <c r="G92" s="173"/>
+      <c r="H92" s="173"/>
+      <c r="I92" s="173"/>
+      <c r="J92" s="173"/>
+      <c r="K92" s="173"/>
+      <c r="L92" s="173"/>
+      <c r="M92" s="173"/>
+      <c r="N92" s="173"/>
+      <c r="O92" s="173"/>
+      <c r="P92" s="173"/>
+      <c r="Q92" s="173"/>
+    </row>
+    <row r="93" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A93" s="64"/>
       <c r="B93" s="65"/>
       <c r="C93" s="65"/>
@@ -5907,30 +5904,30 @@
       <c r="P93" s="65"/>
       <c r="Q93" s="65"/>
     </row>
-    <row r="94" spans="1:17" ht="47.25" customHeight="1">
-      <c r="A94" s="171" t="s">
-        <v>193</v>
-      </c>
-      <c r="B94" s="171"/>
-      <c r="C94" s="171"/>
-      <c r="D94" s="171"/>
-      <c r="E94" s="171"/>
-      <c r="F94" s="171"/>
-      <c r="G94" s="171"/>
-      <c r="H94" s="171"/>
-      <c r="I94" s="171"/>
-      <c r="J94" s="171"/>
-      <c r="K94" s="171"/>
-      <c r="L94" s="171"/>
-      <c r="M94" s="171"/>
-      <c r="N94" s="171"/>
-      <c r="O94" s="171"/>
-      <c r="P94" s="171"/>
-      <c r="Q94" s="171"/>
-    </row>
-    <row r="96" spans="1:17" ht="28.5" customHeight="1">
+    <row r="94" spans="1:17" ht="47.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A94" s="174" t="s">
+        <v>189</v>
+      </c>
+      <c r="B94" s="174"/>
+      <c r="C94" s="174"/>
+      <c r="D94" s="174"/>
+      <c r="E94" s="174"/>
+      <c r="F94" s="174"/>
+      <c r="G94" s="174"/>
+      <c r="H94" s="174"/>
+      <c r="I94" s="174"/>
+      <c r="J94" s="174"/>
+      <c r="K94" s="174"/>
+      <c r="L94" s="174"/>
+      <c r="M94" s="174"/>
+      <c r="N94" s="174"/>
+      <c r="O94" s="174"/>
+      <c r="P94" s="174"/>
+      <c r="Q94" s="174"/>
+    </row>
+    <row r="96" spans="1:17" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A96" s="161" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="B96" s="161"/>
       <c r="C96" s="161"/>
@@ -5946,69 +5943,69 @@
       <c r="M96" s="161"/>
       <c r="N96" s="161"/>
       <c r="O96" s="161"/>
-      <c r="P96" s="177"/>
-      <c r="Q96" s="177"/>
-    </row>
-    <row r="97" spans="1:17">
-      <c r="A97" s="162" t="s">
-        <v>195</v>
-      </c>
-      <c r="B97" s="163"/>
-      <c r="C97" s="163"/>
-      <c r="D97" s="163"/>
-      <c r="E97" s="163"/>
-      <c r="F97" s="163"/>
-      <c r="G97" s="163"/>
-      <c r="H97" s="163"/>
-      <c r="I97" s="163"/>
-      <c r="J97" s="163"/>
-      <c r="K97" s="163"/>
-      <c r="L97" s="163"/>
-      <c r="M97" s="163"/>
-      <c r="N97" s="163"/>
-      <c r="O97" s="163"/>
-      <c r="P97" s="177"/>
-      <c r="Q97" s="177"/>
-    </row>
-    <row r="99" spans="1:17">
-      <c r="A99" s="164" t="s">
-        <v>196</v>
-      </c>
-      <c r="B99" s="164"/>
-      <c r="C99" s="164"/>
-      <c r="D99" s="164"/>
-      <c r="E99" s="164"/>
-      <c r="F99" s="164"/>
-      <c r="G99" s="164"/>
-      <c r="H99" s="164"/>
-      <c r="I99" s="164"/>
-      <c r="J99" s="164"/>
-      <c r="K99" s="164"/>
-      <c r="L99" s="164"/>
-      <c r="M99" s="164"/>
-      <c r="N99" s="164"/>
-      <c r="O99" s="164"/>
-    </row>
-    <row r="100" spans="1:17">
-      <c r="A100" s="165" t="s">
-        <v>197</v>
-      </c>
-      <c r="B100" s="164"/>
-      <c r="C100" s="164"/>
-      <c r="D100" s="164"/>
-      <c r="E100" s="164"/>
-      <c r="F100" s="164"/>
-      <c r="G100" s="164"/>
-      <c r="H100" s="164"/>
-      <c r="I100" s="164"/>
-      <c r="J100" s="164"/>
-      <c r="K100" s="164"/>
-      <c r="L100" s="164"/>
-      <c r="M100" s="164"/>
-      <c r="N100" s="164"/>
-      <c r="O100" s="164"/>
-      <c r="P100" s="177"/>
-      <c r="Q100" s="177"/>
+      <c r="P96" s="162"/>
+      <c r="Q96" s="162"/>
+    </row>
+    <row r="97" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A97" s="163" t="s">
+        <v>191</v>
+      </c>
+      <c r="B97" s="164"/>
+      <c r="C97" s="164"/>
+      <c r="D97" s="164"/>
+      <c r="E97" s="164"/>
+      <c r="F97" s="164"/>
+      <c r="G97" s="164"/>
+      <c r="H97" s="164"/>
+      <c r="I97" s="164"/>
+      <c r="J97" s="164"/>
+      <c r="K97" s="164"/>
+      <c r="L97" s="164"/>
+      <c r="M97" s="164"/>
+      <c r="N97" s="164"/>
+      <c r="O97" s="164"/>
+      <c r="P97" s="162"/>
+      <c r="Q97" s="162"/>
+    </row>
+    <row r="99" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A99" s="165" t="s">
+        <v>192</v>
+      </c>
+      <c r="B99" s="165"/>
+      <c r="C99" s="165"/>
+      <c r="D99" s="165"/>
+      <c r="E99" s="165"/>
+      <c r="F99" s="165"/>
+      <c r="G99" s="165"/>
+      <c r="H99" s="165"/>
+      <c r="I99" s="165"/>
+      <c r="J99" s="165"/>
+      <c r="K99" s="165"/>
+      <c r="L99" s="165"/>
+      <c r="M99" s="165"/>
+      <c r="N99" s="165"/>
+      <c r="O99" s="165"/>
+    </row>
+    <row r="100" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A100" s="166" t="s">
+        <v>193</v>
+      </c>
+      <c r="B100" s="165"/>
+      <c r="C100" s="165"/>
+      <c r="D100" s="165"/>
+      <c r="E100" s="165"/>
+      <c r="F100" s="165"/>
+      <c r="G100" s="165"/>
+      <c r="H100" s="165"/>
+      <c r="I100" s="165"/>
+      <c r="J100" s="165"/>
+      <c r="K100" s="165"/>
+      <c r="L100" s="165"/>
+      <c r="M100" s="165"/>
+      <c r="N100" s="165"/>
+      <c r="O100" s="165"/>
+      <c r="P100" s="162"/>
+      <c r="Q100" s="162"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -6042,23 +6039,23 @@
       <selection activeCell="A61" sqref="A61:A79"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="46.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="46.5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="18.5703125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="34.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="18.5" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="34.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="15.75">
+    <row r="1" spans="1:17" ht="16" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>5</v>
@@ -6070,19 +6067,19 @@
         <v>8</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="J1" s="1" t="s">
         <v>19</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="L1">
         <v>1</v>
@@ -6103,7 +6100,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:17" ht="15.75">
+    <row r="2" spans="1:17" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>21</v>
       </c>
@@ -6123,23 +6120,23 @@
         <v>1</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="K2" s="3"/>
       <c r="L2" s="35" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17" ht="15.75">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" ht="16" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
         <v>26</v>
       </c>
@@ -6159,23 +6156,23 @@
         <v>1</v>
       </c>
       <c r="G3" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="H3" s="4" t="s">
         <v>204</v>
       </c>
-      <c r="H3" s="4" t="s">
-        <v>208</v>
-      </c>
       <c r="I3" s="4" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="J3" s="3" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="K3" s="4"/>
       <c r="L3" s="35" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17" ht="15.75">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" ht="16" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
         <v>29</v>
       </c>
@@ -6195,20 +6192,20 @@
         <v>0</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="H4" s="4" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="I4" s="4" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="K4" s="4"/>
     </row>
-    <row r="5" spans="1:17" ht="15.75">
+    <row r="5" spans="1:17" ht="16" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
         <v>32</v>
       </c>
@@ -6228,20 +6225,20 @@
         <v>1</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="H5" s="4" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="I5" s="4" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="J5" s="3" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:17" ht="15.75">
+    <row r="6" spans="1:17" ht="16" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
         <v>35</v>
       </c>
@@ -6261,20 +6258,20 @@
         <v>0</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="H6" s="4" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="I6" s="4" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="J6" s="4" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="K6" s="4"/>
     </row>
-    <row r="7" spans="1:17" ht="15.75">
+    <row r="7" spans="1:17" ht="16" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
         <v>40</v>
       </c>
@@ -6294,20 +6291,20 @@
         <v>0</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="H7" s="4" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="I7" s="4" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="J7" s="4" t="s">
         <v>43</v>
       </c>
       <c r="K7" s="4"/>
     </row>
-    <row r="8" spans="1:17" ht="15.75">
+    <row r="8" spans="1:17" ht="16" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
         <v>45</v>
       </c>
@@ -6327,22 +6324,22 @@
         <v>0</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="H8" s="4" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="I8" s="4" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="J8" s="4" t="s">
         <v>43</v>
       </c>
       <c r="K8" s="4"/>
     </row>
-    <row r="9" spans="1:17" ht="15.75">
+    <row r="9" spans="1:17" ht="16" x14ac:dyDescent="0.2">
       <c r="A9" s="5" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="B9" s="5">
         <f>SUM(B2:B8)</f>
@@ -6358,7 +6355,7 @@
       <c r="J9" s="4"/>
       <c r="K9" s="4"/>
     </row>
-    <row r="10" spans="1:17" ht="15.75">
+    <row r="10" spans="1:17" ht="16" x14ac:dyDescent="0.2">
       <c r="A10" s="4"/>
       <c r="B10" s="4"/>
       <c r="C10" s="3"/>
@@ -6371,9 +6368,9 @@
       <c r="J10" s="4"/>
       <c r="K10" s="4"/>
     </row>
-    <row r="11" spans="1:17" ht="15.75">
+    <row r="11" spans="1:17" ht="16" x14ac:dyDescent="0.2">
       <c r="A11" s="4" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="B11" s="4">
         <v>3</v>
@@ -6391,24 +6388,24 @@
         <v>1</v>
       </c>
       <c r="G11" s="4" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="H11" s="4" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="I11" s="4" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="J11" s="4" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="K11" s="4" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="12" spans="1:17" ht="15.75">
+    <row r="12" spans="1:17" ht="16" x14ac:dyDescent="0.2">
       <c r="A12" s="4" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="B12" s="4">
         <v>3</v>
@@ -6426,24 +6423,24 @@
         <v>1</v>
       </c>
       <c r="G12" s="4" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="H12" s="4" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="I12" s="4" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="J12" s="4" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="K12" s="4" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="13" spans="1:17" ht="15.75">
+    <row r="13" spans="1:17" ht="16" x14ac:dyDescent="0.2">
       <c r="A13" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B13" s="4">
         <v>6</v>
@@ -6461,24 +6458,24 @@
         <v>1</v>
       </c>
       <c r="G13" s="4" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="H13" s="4" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="I13" s="4" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="J13" s="4" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="K13" s="4" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="14" spans="1:17" ht="15.75">
+    <row r="14" spans="1:17" ht="16" x14ac:dyDescent="0.2">
       <c r="A14" s="4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B14" s="4">
         <v>3</v>
@@ -6494,22 +6491,22 @@
       </c>
       <c r="F14" s="4"/>
       <c r="G14" s="4" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="H14" s="4" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="I14" s="4" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="J14" s="4" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="K14" s="4"/>
     </row>
-    <row r="15" spans="1:17" ht="15.75">
+    <row r="15" spans="1:17" ht="16" x14ac:dyDescent="0.2">
       <c r="A15" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B15" s="4">
         <v>5</v>
@@ -6527,24 +6524,24 @@
         <v>1</v>
       </c>
       <c r="G15" s="4" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="H15" s="4" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="I15" s="4" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="J15" s="4" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="K15" s="4" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="16" spans="1:17" ht="15.75">
+    <row r="16" spans="1:17" ht="16" x14ac:dyDescent="0.2">
       <c r="A16" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B16" s="4">
         <v>5</v>
@@ -6562,24 +6559,24 @@
         <v>1</v>
       </c>
       <c r="G16" s="4" t="s">
+        <v>224</v>
+      </c>
+      <c r="H16" s="4" t="s">
+        <v>227</v>
+      </c>
+      <c r="I16" s="4" t="s">
         <v>228</v>
       </c>
-      <c r="H16" s="4" t="s">
-        <v>231</v>
-      </c>
-      <c r="I16" s="4" t="s">
-        <v>232</v>
-      </c>
       <c r="J16" s="4" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="K16" s="4" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="17" spans="1:11" ht="15.75">
+    <row r="17" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A17" s="4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B17" s="4">
         <v>5</v>
@@ -6597,24 +6594,24 @@
         <v>1</v>
       </c>
       <c r="G17" s="4" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="H17" s="4" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="I17" s="4" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="J17" s="4" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="K17" s="4" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="18" spans="1:11" ht="15.75">
+    <row r="18" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A18" s="5" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="B18" s="5">
         <f>SUM(B11:B17)</f>
@@ -6630,7 +6627,7 @@
       <c r="J18" s="4"/>
       <c r="K18" s="4"/>
     </row>
-    <row r="19" spans="1:11" ht="15.75">
+    <row r="19" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A19" s="4"/>
       <c r="B19" s="4"/>
       <c r="C19" s="4"/>
@@ -6643,9 +6640,9 @@
       <c r="J19" s="4"/>
       <c r="K19" s="4"/>
     </row>
-    <row r="20" spans="1:11" ht="15.75">
+    <row r="20" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A20" s="4" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B20" s="4">
         <v>5</v>
@@ -6663,24 +6660,24 @@
         <v>1</v>
       </c>
       <c r="G20" s="4" t="s">
+        <v>229</v>
+      </c>
+      <c r="H20" s="4" t="s">
+        <v>225</v>
+      </c>
+      <c r="I20" s="4" t="s">
+        <v>226</v>
+      </c>
+      <c r="J20" s="4" t="s">
+        <v>187</v>
+      </c>
+      <c r="K20" s="4" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+      <c r="A21" s="5" t="s">
         <v>233</v>
-      </c>
-      <c r="H20" s="4" t="s">
-        <v>229</v>
-      </c>
-      <c r="I20" s="4" t="s">
-        <v>230</v>
-      </c>
-      <c r="J20" s="4" t="s">
-        <v>191</v>
-      </c>
-      <c r="K20" s="4" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11" ht="15.75">
-      <c r="A21" s="5" t="s">
-        <v>237</v>
       </c>
       <c r="B21" s="5">
         <f>SUM(B20)</f>
@@ -6696,7 +6693,7 @@
       <c r="J21" s="4"/>
       <c r="K21" s="4"/>
     </row>
-    <row r="22" spans="1:11" ht="15.75">
+    <row r="22" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A22" s="4"/>
       <c r="B22" s="4"/>
       <c r="C22" s="4"/>
@@ -6709,9 +6706,9 @@
       <c r="J22" s="4"/>
       <c r="K22" s="4"/>
     </row>
-    <row r="23" spans="1:11" ht="15.75">
+    <row r="23" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A23" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B23" s="4">
         <v>3</v>
@@ -6729,22 +6726,22 @@
         <v>1</v>
       </c>
       <c r="G23" s="4" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="H23" s="4" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="I23" s="4" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="J23" s="4" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="K23" s="4"/>
     </row>
-    <row r="24" spans="1:11" ht="15.75">
+    <row r="24" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A24" s="4" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B24" s="4">
         <v>4</v>
@@ -6762,24 +6759,24 @@
         <v>0</v>
       </c>
       <c r="G24" s="4" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="H24" s="4" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="I24" s="4" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="J24" s="4" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="K24" s="4" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11" ht="15.75">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A25" s="5" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="B25" s="5">
         <f>SUM(B23:B24)</f>
@@ -6795,9 +6792,9 @@
       <c r="J25" s="4"/>
       <c r="K25" s="4"/>
     </row>
-    <row r="26" spans="1:11" ht="15.75">
+    <row r="26" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A26" s="4" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="B26" s="4">
         <v>3</v>
@@ -6815,24 +6812,24 @@
         <v>1</v>
       </c>
       <c r="G26" s="4" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="H26" s="4" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="I26" s="4" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="J26" s="4" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="K26" s="4" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="27" spans="1:11" ht="15.75">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A27" s="4" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B27" s="4">
         <v>5</v>
@@ -6850,24 +6847,24 @@
         <v>1</v>
       </c>
       <c r="G27" s="4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H27" s="4" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="I27" s="4" t="s">
+        <v>236</v>
+      </c>
+      <c r="J27" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="K27" s="4" t="s">
         <v>240</v>
       </c>
-      <c r="J27" s="4" t="s">
-        <v>189</v>
-      </c>
-      <c r="K27" s="4" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="28" spans="1:11" ht="15.75">
+    </row>
+    <row r="28" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A28" s="4" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B28" s="4">
         <v>3</v>
@@ -6883,24 +6880,24 @@
         <v>1</v>
       </c>
       <c r="G28" s="4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H28" s="4" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="I28" s="4" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="J28" s="4" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="K28" s="4" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="29" spans="1:11" ht="15.75">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A29" s="5" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="B29" s="5">
         <v>11</v>
@@ -6915,9 +6912,9 @@
       <c r="J29" s="4"/>
       <c r="K29" s="4"/>
     </row>
-    <row r="30" spans="1:11" ht="15.75">
+    <row r="30" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A30" s="4" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="B30" s="4">
         <v>3</v>
@@ -6933,22 +6930,22 @@
         <v>1</v>
       </c>
       <c r="G30" s="4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H30" s="4" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="I30" s="4" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="J30" s="4" t="s">
         <v>43</v>
       </c>
       <c r="K30" s="4"/>
     </row>
-    <row r="31" spans="1:11" ht="15.75">
+    <row r="31" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A31" s="6" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="B31" s="6">
         <f>SUM(B30)</f>
@@ -6964,7 +6961,7 @@
       <c r="J31" s="7"/>
       <c r="K31" s="7"/>
     </row>
-    <row r="32" spans="1:11" ht="15.75">
+    <row r="32" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A32" s="2"/>
       <c r="B32" s="2"/>
       <c r="C32" s="2"/>
@@ -6977,9 +6974,9 @@
       <c r="J32" s="2"/>
       <c r="K32" s="2"/>
     </row>
-    <row r="33" spans="1:11" ht="15.75">
+    <row r="33" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A33" s="23" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="B33" s="23">
         <f>B9+B18+B21+B25+B29+B31</f>
@@ -6995,9 +6992,9 @@
       <c r="J33" s="2"/>
       <c r="K33" s="2"/>
     </row>
-    <row r="35" spans="1:11" ht="15.75">
+    <row r="35" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A35" s="4" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="B35" s="4">
         <v>5</v>
@@ -7015,24 +7012,24 @@
         <v>1</v>
       </c>
       <c r="G35" s="4" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="H35" s="4" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="I35" s="4" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="J35" s="4" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="K35" s="4" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="36" spans="1:11" ht="15.75">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A36" s="4" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="B36" s="4">
         <v>5</v>
@@ -7050,24 +7047,24 @@
         <v>1</v>
       </c>
       <c r="G36" s="4" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="H36" s="4" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="I36" s="4" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="J36" s="4" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="K36" s="4" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="37" spans="1:11" ht="15.75">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A37" s="4" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="B37" s="4">
         <v>5</v>
@@ -7085,24 +7082,24 @@
         <v>1</v>
       </c>
       <c r="G37" s="4" t="s">
+        <v>224</v>
+      </c>
+      <c r="H37" s="4" t="s">
+        <v>227</v>
+      </c>
+      <c r="I37" s="4" t="s">
         <v>228</v>
       </c>
-      <c r="H37" s="4" t="s">
-        <v>231</v>
-      </c>
-      <c r="I37" s="4" t="s">
-        <v>232</v>
-      </c>
       <c r="J37" s="4" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="K37" s="4" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="38" spans="1:11" ht="15.75">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A38" s="4" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="B38" s="4">
         <v>5</v>
@@ -7120,24 +7117,24 @@
         <v>1</v>
       </c>
       <c r="G38" s="4" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="H38" s="4" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="I38" s="4" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="J38" s="4" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="K38" s="4" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="39" spans="1:11" ht="15.75">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A39" s="4" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="B39" s="4">
         <v>3</v>
@@ -7152,13 +7149,13 @@
       <c r="H39" s="4"/>
       <c r="I39" s="4"/>
       <c r="J39" s="4" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="K39" s="4"/>
     </row>
-    <row r="40" spans="1:11" ht="16.5" thickBot="1">
+    <row r="40" spans="1:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A40" s="7" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="B40" s="7">
         <v>2</v>
@@ -7173,11 +7170,11 @@
       <c r="H40" s="4"/>
       <c r="I40" s="4"/>
       <c r="J40" s="4" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="K40" s="4"/>
     </row>
-    <row r="41" spans="1:11" ht="17.25" thickTop="1" thickBot="1">
+    <row r="41" spans="1:11" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A41" s="25"/>
       <c r="B41" s="26"/>
       <c r="C41" s="18"/>
@@ -7190,7 +7187,7 @@
       <c r="J41" s="4"/>
       <c r="K41" s="4"/>
     </row>
-    <row r="42" spans="1:11" ht="16.5" thickTop="1">
+    <row r="42" spans="1:11" ht="17" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A42" s="30"/>
       <c r="B42" s="31"/>
       <c r="C42" s="22"/>
@@ -7203,9 +7200,9 @@
       <c r="J42" s="4"/>
       <c r="K42" s="4"/>
     </row>
-    <row r="43" spans="1:11" ht="15.75">
+    <row r="43" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A43" s="4" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="B43" s="4">
         <v>5</v>
@@ -7223,24 +7220,24 @@
         <v>1</v>
       </c>
       <c r="G43" s="18" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="H43" s="4" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="I43" s="4" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="J43" s="4" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="K43" s="4" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="44" spans="1:11" ht="15.75">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A44" s="4" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="B44" s="4">
         <v>5</v>
@@ -7258,24 +7255,24 @@
         <v>1</v>
       </c>
       <c r="G44" s="18" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="H44" s="4" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="I44" s="4" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="J44" s="4" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="K44" s="4" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="45" spans="1:11" ht="15.75">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A45" s="4" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="B45" s="4">
         <v>4</v>
@@ -7293,22 +7290,22 @@
         <v>1</v>
       </c>
       <c r="G45" s="18" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="H45" s="4" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="I45" s="4" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="J45" s="4" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="K45" s="4"/>
     </row>
-    <row r="46" spans="1:11" ht="15.75">
+    <row r="46" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A46" s="4" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="B46" s="4">
         <v>5</v>
@@ -7326,24 +7323,24 @@
         <v>1</v>
       </c>
       <c r="G46" s="18" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="H46" s="4" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="I46" s="4" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="J46" s="4" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="K46" s="4" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="47" spans="1:11" ht="15.75">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A47" s="4" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="B47" s="4">
         <v>5</v>
@@ -7361,22 +7358,22 @@
         <v>1</v>
       </c>
       <c r="G47" s="18" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="H47" s="4" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="I47" s="4" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="J47" s="4" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="K47" s="4" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="48" spans="1:11" ht="16.5" thickBot="1">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A48" s="27"/>
       <c r="B48" s="28"/>
       <c r="C48" s="20"/>
@@ -7389,7 +7386,7 @@
       <c r="J48" s="4"/>
       <c r="K48" s="4"/>
     </row>
-    <row r="49" spans="1:11" ht="16.5" thickTop="1">
+    <row r="49" spans="1:11" ht="17" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A49" s="30"/>
       <c r="B49" s="31"/>
       <c r="C49" s="20"/>
@@ -7402,9 +7399,9 @@
       <c r="J49" s="4"/>
       <c r="K49" s="4"/>
     </row>
-    <row r="50" spans="1:11" ht="15.75">
+    <row r="50" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A50" s="4" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="B50" s="4">
         <v>3</v>
@@ -7422,22 +7419,22 @@
         <v>1</v>
       </c>
       <c r="G50" s="18" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H50" s="4" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="I50" s="4"/>
       <c r="J50" s="4" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="K50" s="4" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="51" spans="1:11" ht="15.75">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A51" s="3" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="B51" s="3">
         <v>4</v>
@@ -7455,22 +7452,22 @@
         <v>1</v>
       </c>
       <c r="G51" s="4" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="H51" s="4" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="I51" s="4" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="J51" s="4" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="K51" s="4"/>
     </row>
-    <row r="52" spans="1:11" ht="16.5" thickBot="1">
+    <row r="52" spans="1:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A52" s="7" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="B52" s="7">
         <v>5</v>
@@ -7488,22 +7485,22 @@
         <v>1</v>
       </c>
       <c r="G52" s="4" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="H52" s="4" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="I52" s="4" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="J52" s="4" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="K52" s="4" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="53" spans="1:11" ht="17.25" thickTop="1" thickBot="1">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A53" s="25"/>
       <c r="B53" s="26"/>
       <c r="C53" s="22"/>
@@ -7516,8 +7513,8 @@
       <c r="J53" s="7"/>
       <c r="K53" s="7"/>
     </row>
-    <row r="54" spans="1:11" ht="16.5" thickTop="1" thickBot="1"/>
-    <row r="55" spans="1:11" ht="17.25" thickTop="1" thickBot="1">
+    <row r="54" spans="1:11" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="55" spans="1:11" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A55" s="29"/>
       <c r="B55" s="26"/>
       <c r="C55" s="2"/>
@@ -7530,18 +7527,18 @@
       <c r="J55" s="2"/>
       <c r="K55" s="2"/>
     </row>
-    <row r="56" spans="1:11" ht="15.75" thickTop="1"/>
-    <row r="57" spans="1:11">
+    <row r="56" spans="1:11" ht="16" thickTop="1" x14ac:dyDescent="0.2"/>
+    <row r="57" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A57" s="33" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="B57" s="33">
         <v>61</v>
       </c>
     </row>
-    <row r="59" spans="1:11" ht="15.75">
+    <row r="59" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A59" s="34" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="B59" s="34">
         <v>4</v>
@@ -7556,24 +7553,24 @@
       <c r="H59" s="4"/>
       <c r="I59" s="4"/>
       <c r="J59" s="4" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="K59" s="4"/>
     </row>
-    <row r="60" spans="1:11">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="61" spans="1:11" ht="15.75">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A61" s="4" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="B61" s="4">
         <v>5</v>
       </c>
       <c r="C61" s="9" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="D61" s="4">
         <v>2</v>
@@ -7585,21 +7582,21 @@
         <v>1</v>
       </c>
       <c r="G61" s="4" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="H61" s="4" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="I61" s="4" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="J61" s="4" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="62" spans="1:11" ht="15.75">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A62" s="4" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="B62" s="4">
         <v>3</v>
@@ -7617,27 +7614,27 @@
         <v>1</v>
       </c>
       <c r="G62" s="4" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="H62" s="4" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="I62" s="4" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="J62" s="4" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="63" spans="1:11" ht="16.5" thickBot="1">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A63" s="7" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="B63" s="7">
         <v>3</v>
       </c>
       <c r="C63" s="4" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="D63" s="4">
         <v>1</v>
@@ -7647,27 +7644,27 @@
       </c>
       <c r="F63" s="4"/>
       <c r="G63" s="4" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="H63" s="4" t="s">
+        <v>271</v>
+      </c>
+      <c r="I63" s="4" t="s">
+        <v>226</v>
+      </c>
+      <c r="J63" s="4" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+      <c r="A64" s="10" t="s">
         <v>275</v>
-      </c>
-      <c r="I63" s="4" t="s">
-        <v>230</v>
-      </c>
-      <c r="J63" s="4" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="64" spans="1:11" ht="15.75">
-      <c r="A64" s="10" t="s">
-        <v>279</v>
       </c>
       <c r="B64" s="11">
         <v>4</v>
       </c>
       <c r="C64" s="12" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="D64" s="4">
         <v>1</v>
@@ -7679,27 +7676,27 @@
         <v>1</v>
       </c>
       <c r="G64" s="4" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="H64" s="4" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="I64" s="4" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="J64" s="4" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="65" spans="1:10" ht="15.75">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A65" s="13" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="B65" s="14">
         <v>4</v>
       </c>
       <c r="C65" s="15" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="D65" s="4">
         <v>1</v>
@@ -7711,27 +7708,27 @@
         <v>1</v>
       </c>
       <c r="G65" s="4" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="H65" s="4" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="I65" s="4" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="J65" s="4" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="66" spans="1:10" ht="16.5" thickBot="1">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A66" s="16" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="B66" s="17">
         <v>3</v>
       </c>
       <c r="C66" s="15" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="D66" s="4"/>
       <c r="E66" s="4">
@@ -7741,21 +7738,21 @@
         <v>1</v>
       </c>
       <c r="G66" s="4" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="H66" s="4" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="I66" s="4" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="J66" s="4" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="67" spans="1:10" ht="15.75">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A67" s="10" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="B67" s="11">
         <v>4</v>
@@ -7768,12 +7765,12 @@
       <c r="H67" s="4"/>
       <c r="I67" s="4"/>
       <c r="J67" s="4" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="68" spans="1:10" ht="15.75">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A68" s="13" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="B68" s="14">
         <v>4</v>
@@ -7786,12 +7783,12 @@
       <c r="H68" s="4"/>
       <c r="I68" s="4"/>
       <c r="J68" s="4" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="69" spans="1:10" ht="16.5" thickBot="1">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A69" s="16" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="B69" s="17">
         <v>3</v>
@@ -7804,12 +7801,12 @@
       <c r="H69" s="4"/>
       <c r="I69" s="4"/>
       <c r="J69" s="4" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="70" spans="1:10" ht="15.75">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A70" s="3" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="B70" s="3">
         <v>5</v>
@@ -7827,21 +7824,21 @@
         <v>1</v>
       </c>
       <c r="G70" s="4" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="H70" s="4" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="I70" s="4" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="J70" s="4" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="71" spans="1:10" ht="15.75">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A71" s="4" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="B71" s="4">
         <v>5</v>
@@ -7853,21 +7850,21 @@
       <c r="E71" s="4"/>
       <c r="F71" s="4"/>
       <c r="G71" s="4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H71" s="32" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="I71" s="32" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="J71" s="4" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="72" spans="1:10" ht="15.75">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A72" s="4" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="B72" s="4">
         <v>5</v>
@@ -7885,27 +7882,27 @@
         <v>1</v>
       </c>
       <c r="G72" s="4" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="H72" s="4" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="I72" s="4" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="J72" s="4" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="73" spans="1:10" ht="15.75">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A73" s="4" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="B73" s="4">
         <v>5</v>
       </c>
       <c r="C73" s="21" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="D73" s="4">
         <v>2</v>
@@ -7917,59 +7914,59 @@
         <v>1</v>
       </c>
       <c r="G73" s="4" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="H73" s="4" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="I73" s="4" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="J73" s="4" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="74" spans="1:10" ht="15.75">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A74" s="4" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="B74" s="4">
         <v>5</v>
       </c>
       <c r="C74" s="21" t="s">
+        <v>291</v>
+      </c>
+      <c r="D74" s="4">
+        <v>2</v>
+      </c>
+      <c r="E74" s="4">
+        <v>2</v>
+      </c>
+      <c r="F74" s="4">
+        <v>1</v>
+      </c>
+      <c r="G74" s="4" t="s">
+        <v>292</v>
+      </c>
+      <c r="H74" s="4" t="s">
+        <v>294</v>
+      </c>
+      <c r="I74" s="4" t="s">
+        <v>207</v>
+      </c>
+      <c r="J74" s="4" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+      <c r="A75" s="4" t="s">
         <v>295</v>
-      </c>
-      <c r="D74" s="4">
-        <v>2</v>
-      </c>
-      <c r="E74" s="4">
-        <v>2</v>
-      </c>
-      <c r="F74" s="4">
-        <v>1</v>
-      </c>
-      <c r="G74" s="4" t="s">
-        <v>296</v>
-      </c>
-      <c r="H74" s="4" t="s">
-        <v>298</v>
-      </c>
-      <c r="I74" s="4" t="s">
-        <v>211</v>
-      </c>
-      <c r="J74" s="4" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="75" spans="1:10" ht="15.75">
-      <c r="A75" s="4" t="s">
-        <v>299</v>
       </c>
       <c r="B75" s="4">
         <v>5</v>
       </c>
       <c r="C75" s="9" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="D75" s="4">
         <v>0</v>
@@ -7981,161 +7978,161 @@
         <v>2</v>
       </c>
       <c r="G75" s="4" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="H75" s="4" t="s">
+        <v>297</v>
+      </c>
+      <c r="I75" s="4" t="s">
+        <v>207</v>
+      </c>
+      <c r="J75" s="4" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+      <c r="A76" s="4" t="s">
+        <v>298</v>
+      </c>
+      <c r="B76" s="4">
+        <v>2</v>
+      </c>
+      <c r="C76" s="15" t="s">
+        <v>299</v>
+      </c>
+      <c r="D76" s="19">
+        <v>0</v>
+      </c>
+      <c r="E76" s="8">
+        <v>1</v>
+      </c>
+      <c r="F76" s="4">
+        <v>1</v>
+      </c>
+      <c r="G76" s="18" t="s">
+        <v>274</v>
+      </c>
+      <c r="H76" s="4" t="s">
+        <v>300</v>
+      </c>
+      <c r="I76" s="4" t="s">
+        <v>222</v>
+      </c>
+      <c r="J76" s="3" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+      <c r="A77" s="4" t="s">
         <v>301</v>
       </c>
-      <c r="I75" s="4" t="s">
-        <v>211</v>
-      </c>
-      <c r="J75" s="4" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="76" spans="1:10" ht="15.75">
-      <c r="A76" s="4" t="s">
+      <c r="B77" s="4">
+        <v>2</v>
+      </c>
+      <c r="C77" s="15" t="s">
+        <v>299</v>
+      </c>
+      <c r="D77" s="19">
+        <v>0</v>
+      </c>
+      <c r="E77" s="8">
+        <v>1</v>
+      </c>
+      <c r="F77" s="4">
+        <v>1</v>
+      </c>
+      <c r="G77" s="18" t="s">
+        <v>274</v>
+      </c>
+      <c r="H77" s="4" t="s">
+        <v>300</v>
+      </c>
+      <c r="I77" s="4" t="s">
+        <v>222</v>
+      </c>
+      <c r="J77" s="3" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+      <c r="A78" s="4" t="s">
         <v>302</v>
       </c>
-      <c r="B76" s="4">
-        <v>2</v>
-      </c>
-      <c r="C76" s="15" t="s">
+      <c r="B78" s="4">
+        <v>2</v>
+      </c>
+      <c r="C78" s="15" t="s">
+        <v>276</v>
+      </c>
+      <c r="D78" s="19">
+        <v>0</v>
+      </c>
+      <c r="E78" s="8">
+        <v>1</v>
+      </c>
+      <c r="F78" s="4">
+        <v>1</v>
+      </c>
+      <c r="G78" s="18" t="s">
+        <v>274</v>
+      </c>
+      <c r="H78" s="4" t="s">
+        <v>300</v>
+      </c>
+      <c r="I78" s="4" t="s">
+        <v>222</v>
+      </c>
+      <c r="J78" s="3" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+      <c r="A79" s="4" t="s">
         <v>303</v>
       </c>
-      <c r="D76" s="19">
-        <v>0</v>
-      </c>
-      <c r="E76" s="8">
-        <v>1</v>
-      </c>
-      <c r="F76" s="4">
-        <v>1</v>
-      </c>
-      <c r="G76" s="18" t="s">
-        <v>278</v>
-      </c>
-      <c r="H76" s="4" t="s">
+      <c r="B79" s="4">
+        <v>2</v>
+      </c>
+      <c r="C79" s="15" t="s">
+        <v>276</v>
+      </c>
+      <c r="D79" s="19">
+        <v>0</v>
+      </c>
+      <c r="E79" s="8">
+        <v>1</v>
+      </c>
+      <c r="F79" s="4">
+        <v>1</v>
+      </c>
+      <c r="G79" s="18" t="s">
+        <v>274</v>
+      </c>
+      <c r="H79" s="4" t="s">
+        <v>300</v>
+      </c>
+      <c r="I79" s="4" t="s">
+        <v>222</v>
+      </c>
+      <c r="J79" s="3" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A81" s="2" t="s">
         <v>304</v>
       </c>
-      <c r="I76" s="4" t="s">
-        <v>226</v>
-      </c>
-      <c r="J76" s="3" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="77" spans="1:10" ht="15.75">
-      <c r="A77" s="4" t="s">
+    </row>
+    <row r="85" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A85" s="4" t="s">
         <v>305</v>
-      </c>
-      <c r="B77" s="4">
-        <v>2</v>
-      </c>
-      <c r="C77" s="15" t="s">
-        <v>303</v>
-      </c>
-      <c r="D77" s="19">
-        <v>0</v>
-      </c>
-      <c r="E77" s="8">
-        <v>1</v>
-      </c>
-      <c r="F77" s="4">
-        <v>1</v>
-      </c>
-      <c r="G77" s="18" t="s">
-        <v>278</v>
-      </c>
-      <c r="H77" s="4" t="s">
-        <v>304</v>
-      </c>
-      <c r="I77" s="4" t="s">
-        <v>226</v>
-      </c>
-      <c r="J77" s="3" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="78" spans="1:10" ht="15.75">
-      <c r="A78" s="4" t="s">
-        <v>306</v>
-      </c>
-      <c r="B78" s="4">
-        <v>2</v>
-      </c>
-      <c r="C78" s="15" t="s">
-        <v>280</v>
-      </c>
-      <c r="D78" s="19">
-        <v>0</v>
-      </c>
-      <c r="E78" s="8">
-        <v>1</v>
-      </c>
-      <c r="F78" s="4">
-        <v>1</v>
-      </c>
-      <c r="G78" s="18" t="s">
-        <v>278</v>
-      </c>
-      <c r="H78" s="4" t="s">
-        <v>304</v>
-      </c>
-      <c r="I78" s="4" t="s">
-        <v>226</v>
-      </c>
-      <c r="J78" s="3" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="79" spans="1:10" ht="15.75">
-      <c r="A79" s="4" t="s">
-        <v>307</v>
-      </c>
-      <c r="B79" s="4">
-        <v>2</v>
-      </c>
-      <c r="C79" s="15" t="s">
-        <v>280</v>
-      </c>
-      <c r="D79" s="19">
-        <v>0</v>
-      </c>
-      <c r="E79" s="8">
-        <v>1</v>
-      </c>
-      <c r="F79" s="4">
-        <v>1</v>
-      </c>
-      <c r="G79" s="18" t="s">
-        <v>278</v>
-      </c>
-      <c r="H79" s="4" t="s">
-        <v>304</v>
-      </c>
-      <c r="I79" s="4" t="s">
-        <v>226</v>
-      </c>
-      <c r="J79" s="3" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="81" spans="1:2" ht="15.75">
-      <c r="A81" s="2" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="85" spans="1:2" ht="15.75">
-      <c r="A85" s="4" t="s">
-        <v>309</v>
       </c>
       <c r="B85" s="4">
         <f>B66+B73+B78+B80</f>
         <v>10</v>
       </c>
     </row>
-    <row r="86" spans="1:2" ht="15.75">
+    <row r="86" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A86" s="4" t="s">
         <v>2</v>
       </c>
@@ -8143,23 +8140,23 @@
         <v>85</v>
       </c>
     </row>
-    <row r="87" spans="1:2" ht="15.75">
+    <row r="87" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A87" s="4" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="B87" s="4">
         <v>20</v>
       </c>
     </row>
-    <row r="88" spans="1:2" ht="15.75">
+    <row r="88" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A88" s="4" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="B88" s="4">
         <v>10</v>
       </c>
     </row>
-    <row r="89" spans="1:2" ht="15.75">
+    <row r="89" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A89" s="4"/>
       <c r="B89" s="24">
         <f>B85+B86+B87+B88</f>
@@ -8174,26 +8171,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="64cee142-9623-4b63-8ea8-1d4facd6545a" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="0bdf3a53-275c-4001-b611-e41331286eb1">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokumentum" ma:contentTypeID="0x010100CA947E63DBB18C43B0DCD636FEFAAF82" ma:contentTypeVersion="10" ma:contentTypeDescription="Új dokumentum létrehozása." ma:contentTypeScope="" ma:versionID="add355b8eb8a1d07a5c296ebc5fa18c4">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="0bdf3a53-275c-4001-b611-e41331286eb1" xmlns:ns3="64cee142-9623-4b63-8ea8-1d4facd6545a" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="39c3d52e67d593269f3de29aa75e9200" ns2:_="" ns3:_="">
     <xsd:import namespace="0bdf3a53-275c-4001-b611-e41331286eb1"/>
@@ -8382,14 +8359,60 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="64cee142-9623-4b63-8ea8-1d4facd6545a" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="0bdf3a53-275c-4001-b611-e41331286eb1">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EEC19807-1D77-45D9-8A38-16ABA4B332F9}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3FCE3B96-D318-4C5C-BB52-5270B962E8F2}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="0bdf3a53-275c-4001-b611-e41331286eb1"/>
+    <ds:schemaRef ds:uri="64cee142-9623-4b63-8ea8-1d4facd6545a"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{668D240C-1AD7-4EBD-8F3F-178CB9505E17}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{668D240C-1AD7-4EBD-8F3F-178CB9505E17}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3FCE3B96-D318-4C5C-BB52-5270B962E8F2}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EEC19807-1D77-45D9-8A38-16ABA4B332F9}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="64cee142-9623-4b63-8ea8-1d4facd6545a"/>
+    <ds:schemaRef ds:uri="0bdf3a53-275c-4001-b611-e41331286eb1"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>